--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B0972-0988-406D-A87E-FC1B5BE412FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD982430-4317-426D-9F5A-5E041BC8A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,15 +521,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>vipCustCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipCustCntToYstd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipCustCntToLastMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipCustCntToBegng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （1）本机构新增AUM资产年日均≥1000元（含储蓄存款）或2022年前   AUM资产年日均＜1000元、2022年AUM资产年日均≥1000元的零售    客户数按1个客户计算，满足以下条件，按系数计算：当年新增信用卡   绑定借记卡还款客户并还款一次或2022年前绑定但未还款、2022年还款   一次的，按新增0.1个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （2）本机构本年代发的客户且满足代发次数≥3次、代发金额≥500元，按   1个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （3）同一客户同时满足第1点、第2点的，按2个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （4）信用卡新激活的个人客户(1个客户新增多张激活卡仅按一个有效户计   算，存量未激活客户新激活按一个有效户计算，存量已激活客户新办卡   且激活不算新客户）。同一客户在多个机构开立账户的，按1个统计；   借钱花等虚拟信用卡业务新增客户有过取款按一个客户计算（不含虚拟   随用金及虚拟爱购卡等非实体卡片）；若一个客户同时属于信用卡及虚   拟信用卡业务有效客户，满足新户条件在后的按0.5个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  （5）网络进件、机构发展合伙人营销、机构自建信用卡直销团队营销的信用   卡激活客户数全部计入激活机构或营销机构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （1）商户收款累计交易天数大于等于12天，且付款人不为同一人；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         （2）商户年度累计交易金额大于等于2000元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   （3）结算账户为个人账户的，个人账户AUM资产（含储蓄存款）年日均                   大于等于1000元；结算账户为单位账户的，单位账户存款年日均大于等   于1000元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currDpsitYearAvg</t>
+  </si>
+  <si>
+    <t>currDpsitYearAvgToLm</t>
+  </si>
+  <si>
+    <t>currDpsitYearAvgToLy</t>
+  </si>
+  <si>
+    <t>timeDpsitYearAvg</t>
+  </si>
+  <si>
+    <t>timeDpsitYearAvgToLm</t>
+  </si>
+  <si>
+    <t>timeDpsitYearAvgToLy</t>
+  </si>
+  <si>
+    <t>cftYearAvg</t>
+  </si>
+  <si>
+    <t>cftYearAvgToLm</t>
+  </si>
+  <si>
+    <t>cftYearAvgToLy</t>
+  </si>
+  <si>
+    <t>fndYearAvg</t>
+  </si>
+  <si>
+    <t>fndYearAvgToLm</t>
+  </si>
+  <si>
+    <t>fndYearAvgToLy</t>
+  </si>
+  <si>
+    <t>insYearAvg</t>
+  </si>
+  <si>
+    <t>insYearAvgToLm</t>
+  </si>
+  <si>
+    <t>insYearAvgToLy</t>
+  </si>
+  <si>
+    <t>entrstYearAvg</t>
+  </si>
+  <si>
+    <t>entrstYearAvgToLm</t>
+  </si>
+  <si>
+    <t>entrstYearAvgToLy</t>
+  </si>
+  <si>
+    <t>活期存款年日均</t>
+  </si>
+  <si>
+    <t>活期存款年日均比上月</t>
+  </si>
+  <si>
+    <t>活期存款年日均比上年</t>
+  </si>
+  <si>
+    <t>定期存款月日均</t>
+  </si>
+  <si>
+    <t>定期存款月日均比上月</t>
+  </si>
+  <si>
+    <t>定期存款月日均比上年</t>
+  </si>
+  <si>
+    <t>理财年日均</t>
+  </si>
+  <si>
+    <t>理财年日均比上月</t>
+  </si>
+  <si>
+    <t>理财年日均比上年</t>
+  </si>
+  <si>
+    <t>基金年日均</t>
+  </si>
+  <si>
+    <t>基金年日均比上月</t>
+  </si>
+  <si>
+    <t>基金年日均比上年</t>
+  </si>
+  <si>
+    <t>保险年日均</t>
+  </si>
+  <si>
+    <t>保险年日均比上月</t>
+  </si>
+  <si>
+    <t>保险年日均比上年</t>
+  </si>
+  <si>
+    <t>信托年日均</t>
+  </si>
+  <si>
+    <t>信托年日均比上月</t>
+  </si>
+  <si>
+    <t>信托年日均比上年</t>
+  </si>
+  <si>
+    <t>信托日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期存款日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期存款日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比显示无问题无需处理,百分比已添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是月份,无需处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumBbalToBegngKh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aum日均(考核)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumYearAvgKh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumYearAvgKhToLm</t>
+  </si>
+  <si>
+    <t>aumYearAvgKhToLm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aum日均(考核)比上月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aum日均(考核)比上年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumYearAvgKhToLy</t>
+  </si>
+  <si>
+    <t>aumYearAvgKhToLy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeDpsitMonthAvg</t>
+  </si>
+  <si>
+    <t>timeDpsitMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>timeDpsitMonthAvgToLy</t>
+  </si>
+  <si>
+    <t>aum年日均(考核)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aum年日均比上月(考核)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aum年日均比上年(考核)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrtgLoanYearAvg</t>
+  </si>
+  <si>
+    <t>mrtgLoanYearAvg_to_lm</t>
+  </si>
+  <si>
+    <t>mrtgLoanYearAvg_to_ly</t>
+  </si>
+  <si>
+    <t>cnsmLoanYearAvg</t>
+  </si>
+  <si>
+    <t>cnsmLoanYearAvg_to_lm</t>
+  </si>
+  <si>
+    <t>cnsmLoanYearAvg_to_ly</t>
+  </si>
+  <si>
+    <t>corprtnLoanYearAvg</t>
+  </si>
+  <si>
+    <t>corprtnLoanYearAvgToLm</t>
+  </si>
+  <si>
+    <t>corprtnLoanYearAvgToLy</t>
+  </si>
+  <si>
+    <t>按揭贷款年日均</t>
+  </si>
+  <si>
+    <t>按揭贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>按揭贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>消费贷款年日均</t>
+  </si>
+  <si>
+    <t>消费贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>消费贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>经营贷款年日均</t>
+  </si>
+  <si>
+    <t>经营贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>经营贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>loanMonthAvg</t>
+  </si>
+  <si>
+    <t>loanMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>loanMonthAvgToLy</t>
+  </si>
+  <si>
     <r>
-      <t> 财富客户：AUM资产上月月日均</t>
+      <t>代发客户：本年度代发达三次且单笔金额</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Cambria Math"/>
+        <rFont val="等线"/>
         <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500元。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>财富客户：AUM资产上月月日均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>≥</t>
     </r>
@@ -546,33 +883,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vipCustCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipCustCntToYstd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipCustCntToLastMonth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipCustCntToBegng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t> 代发客户：本年度代发达三次且单笔金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
+      <t>贷款客户：历史办理过贷款业务且贷款金额</t>
     </r>
     <r>
       <rPr>
@@ -580,54 +892,7 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500元。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （1）本机构新增AUM资产年日均≥1000元（含储蓄存款）或2022年前   AUM资产年日均＜1000元、2022年AUM资产年日均≥1000元的零售    客户数按1个客户计算，满足以下条件，按系数计算：当年新增信用卡   绑定借记卡还款客户并还款一次或2022年前绑定但未还款、2022年还款   一次的，按新增0.1个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （2）本机构本年代发的客户且满足代发次数≥3次、代发金额≥500元，按   1个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （3）同一客户同时满足第1点、第2点的，按2个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （4）信用卡新激活的个人客户(1个客户新增多张激活卡仅按一个有效户计   算，存量未激活客户新激活按一个有效户计算，存量已激活客户新办卡   且激活不算新客户）。同一客户在多个机构开立账户的，按1个统计；   借钱花等虚拟信用卡业务新增客户有过取款按一个客户计算（不含虚拟   随用金及虚拟爱购卡等非实体卡片）；若一个客户同时属于信用卡及虚   拟信用卡业务有效客户，满足新户条件在后的按0.5个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  （5）网络进件、机构发展合伙人营销、机构自建信用卡直销团队营销的信用   卡激活客户数全部计入激活机构或营销机构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （1）商户收款累计交易天数大于等于12天，且付款人不为同一人；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （2）商户年度累计交易金额大于等于2000元；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   （3）结算账户为个人账户的，个人账户AUM资产（含储蓄存款）年日均                   大于等于1000元；结算账户为单位账户的，单位账户存款年日均大于等   于1000元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t> 贷款客户：历史办理过贷款业务且贷款金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>≥</t>
     </r>
@@ -642,268 +907,6 @@
       <t>0。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currDpsitYearAvg</t>
-  </si>
-  <si>
-    <t>currDpsitYearAvgToLm</t>
-  </si>
-  <si>
-    <t>currDpsitYearAvgToLy</t>
-  </si>
-  <si>
-    <t>timeDpsitYearAvg</t>
-  </si>
-  <si>
-    <t>timeDpsitYearAvgToLm</t>
-  </si>
-  <si>
-    <t>timeDpsitYearAvgToLy</t>
-  </si>
-  <si>
-    <t>cftYearAvg</t>
-  </si>
-  <si>
-    <t>cftYearAvgToLm</t>
-  </si>
-  <si>
-    <t>cftYearAvgToLy</t>
-  </si>
-  <si>
-    <t>fndYearAvg</t>
-  </si>
-  <si>
-    <t>fndYearAvgToLm</t>
-  </si>
-  <si>
-    <t>fndYearAvgToLy</t>
-  </si>
-  <si>
-    <t>insYearAvg</t>
-  </si>
-  <si>
-    <t>insYearAvgToLm</t>
-  </si>
-  <si>
-    <t>insYearAvgToLy</t>
-  </si>
-  <si>
-    <t>entrstYearAvg</t>
-  </si>
-  <si>
-    <t>entrstYearAvgToLm</t>
-  </si>
-  <si>
-    <t>entrstYearAvgToLy</t>
-  </si>
-  <si>
-    <t>活期存款年日均</t>
-  </si>
-  <si>
-    <t>活期存款年日均比上月</t>
-  </si>
-  <si>
-    <t>活期存款年日均比上年</t>
-  </si>
-  <si>
-    <t>定期存款月日均</t>
-  </si>
-  <si>
-    <t>定期存款月日均比上月</t>
-  </si>
-  <si>
-    <t>定期存款月日均比上年</t>
-  </si>
-  <si>
-    <t>理财年日均</t>
-  </si>
-  <si>
-    <t>理财年日均比上月</t>
-  </si>
-  <si>
-    <t>理财年日均比上年</t>
-  </si>
-  <si>
-    <t>基金年日均</t>
-  </si>
-  <si>
-    <t>基金年日均比上月</t>
-  </si>
-  <si>
-    <t>基金年日均比上年</t>
-  </si>
-  <si>
-    <t>保险年日均</t>
-  </si>
-  <si>
-    <t>保险年日均比上月</t>
-  </si>
-  <si>
-    <t>保险年日均比上年</t>
-  </si>
-  <si>
-    <t>信托年日均</t>
-  </si>
-  <si>
-    <t>信托年日均比上月</t>
-  </si>
-  <si>
-    <t>信托年日均比上年</t>
-  </si>
-  <si>
-    <t>信托日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期存款日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活期存款日均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占比显示无问题无需处理,百分比已添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是月份,无需处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aumBbalToBegngKh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aum日均(考核)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aumYearAvgKh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aumYearAvgKhToLm</t>
-  </si>
-  <si>
-    <t>aumYearAvgKhToLm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aum日均(考核)比上月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aum日均(考核)比上年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aumYearAvgKhToLy</t>
-  </si>
-  <si>
-    <t>aumYearAvgKhToLy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeDpsitMonthAvg</t>
-  </si>
-  <si>
-    <t>timeDpsitMonthAvgToLm</t>
-  </si>
-  <si>
-    <t>timeDpsitMonthAvgToLy</t>
-  </si>
-  <si>
-    <t>aum年日均(考核)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aum年日均比上月(考核)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aum年日均比上年(考核)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mrtgLoanYearAvg</t>
-  </si>
-  <si>
-    <t>mrtgLoanYearAvg_to_lm</t>
-  </si>
-  <si>
-    <t>mrtgLoanYearAvg_to_ly</t>
-  </si>
-  <si>
-    <t>cnsmLoanYearAvg</t>
-  </si>
-  <si>
-    <t>cnsmLoanYearAvg_to_lm</t>
-  </si>
-  <si>
-    <t>cnsmLoanYearAvg_to_ly</t>
-  </si>
-  <si>
-    <t>corprtnLoanYearAvg</t>
-  </si>
-  <si>
-    <t>corprtnLoanYearAvgToLm</t>
-  </si>
-  <si>
-    <t>corprtnLoanYearAvgToLy</t>
-  </si>
-  <si>
-    <t>按揭贷款年日均</t>
-  </si>
-  <si>
-    <t>按揭贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>按揭贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>消费贷款年日均</t>
-  </si>
-  <si>
-    <t>消费贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>消费贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>经营贷款年日均</t>
-  </si>
-  <si>
-    <t>经营贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>经营贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>loanMonthAvg</t>
-  </si>
-  <si>
-    <t>loanMonthAvgToLm</t>
-  </si>
-  <si>
-    <t>loanMonthAvgToLy</t>
   </si>
 </sst>
 </file>
@@ -928,8 +931,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Cambria Math"/>
+      <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1010,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,6 +1029,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1040,14 +1047,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,7 +1059,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1415,10 +1422,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1429,8 +1436,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1439,8 +1446,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1449,8 +1456,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1459,50 +1466,50 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1513,8 +1520,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1523,8 +1530,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1533,8 +1540,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1543,8 +1550,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1555,8 +1562,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1565,8 +1572,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1575,8 +1582,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +1592,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1597,8 +1604,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1607,8 +1614,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1617,8 +1624,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1627,8 +1634,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1639,8 +1646,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1649,8 +1656,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1659,8 +1666,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1720,7 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1727,7 +1734,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
@@ -1737,7 +1744,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
@@ -1747,50 +1754,50 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1802,7 +1809,7 @@
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1812,7 +1819,7 @@
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1871,7 @@
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1876,7 +1883,7 @@
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1886,7 +1893,7 @@
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1903,7 @@
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1908,7 +1915,7 @@
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1918,7 +1925,7 @@
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1928,7 +1935,7 @@
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1939,206 +1946,206 @@
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A2:A36"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2175,7 +2182,7 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
@@ -2281,7 +2288,7 @@
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2291,7 +2298,7 @@
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2306,7 @@
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2307,7 +2314,7 @@
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
@@ -2315,7 +2322,7 @@
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2325,7 +2332,7 @@
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
@@ -2333,7 +2340,7 @@
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
@@ -2341,7 +2348,7 @@
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2349,7 +2356,7 @@
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2359,7 +2366,7 @@
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
@@ -2367,7 +2374,7 @@
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
@@ -2375,7 +2382,7 @@
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
@@ -2415,217 +2422,218 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A50"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C2:C5"/>
@@ -2633,7 +2641,6 @@
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A2:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,99 +2815,99 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>222</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>223</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>224</v>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2921,92 +2928,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6693D-6FEF-46C8-AF0B-BFC0DC55A984}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="84.1" x14ac:dyDescent="4.1500000000000004">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="84.1" x14ac:dyDescent="4.1500000000000004">
-      <c r="A4" t="s">
+    <row r="3" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="84.1" x14ac:dyDescent="4.1500000000000004">
-      <c r="A15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="15" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -3033,52 +3041,52 @@
   <sheetData>
     <row r="1" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD982430-4317-426D-9F5A-5E041BC8A06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6377CD-830F-404D-A255-47C2581CC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
     <sheet name="查询客户概貌" sheetId="3" r:id="rId2"/>
     <sheet name="AUM增长趋势" sheetId="4" r:id="rId3"/>
     <sheet name="贷款增长趋势" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="缺陷" sheetId="7" r:id="rId6"/>
+    <sheet name="口径说明1" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="228">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,19 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. 客群说明：</t>
-  </si>
-  <si>
-    <t> 新客客户：</t>
-  </si>
-  <si>
-    <t> 商户客户：</t>
-  </si>
-  <si>
-    <t>5. 零售客户：客户经理查看管户客户数据，管理岗查看辖内机构客户数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vipCustCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,38 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">         （1）本机构新增AUM资产年日均≥1000元（含储蓄存款）或2022年前   AUM资产年日均＜1000元、2022年AUM资产年日均≥1000元的零售    客户数按1个客户计算，满足以下条件，按系数计算：当年新增信用卡   绑定借记卡还款客户并还款一次或2022年前绑定但未还款、2022年还款   一次的，按新增0.1个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （2）本机构本年代发的客户且满足代发次数≥3次、代发金额≥500元，按   1个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （3）同一客户同时满足第1点、第2点的，按2个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （4）信用卡新激活的个人客户(1个客户新增多张激活卡仅按一个有效户计   算，存量未激活客户新激活按一个有效户计算，存量已激活客户新办卡   且激活不算新客户）。同一客户在多个机构开立账户的，按1个统计；   借钱花等虚拟信用卡业务新增客户有过取款按一个客户计算（不含虚拟   随用金及虚拟爱购卡等非实体卡片）；若一个客户同时属于信用卡及虚   拟信用卡业务有效客户，满足新户条件在后的按0.5个客户计算；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  （5）网络进件、机构发展合伙人营销、机构自建信用卡直销团队营销的信用   卡激活客户数全部计入激活机构或营销机构。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （1）商户收款累计交易天数大于等于12天，且付款人不为同一人；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         （2）商户年度累计交易金额大于等于2000元；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   （3）结算账户为个人账户的，个人账户AUM资产（含储蓄存款）年日均                   大于等于1000元；结算账户为单位账户的，单位账户存款年日均大于等   于1000元。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>currDpsitYearAvg</t>
   </si>
   <si>
@@ -701,18 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>占比显示无问题无需处理,百分比已添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是月份,无需处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aumBbalToBegngKh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,117 +737,124 @@
     <t>corprtnLoanYearAvgToLy</t>
   </si>
   <si>
+    <t>按揭贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>按揭贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>消费贷款年日均</t>
+  </si>
+  <si>
+    <t>消费贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>消费贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>经营贷款年日均</t>
+  </si>
+  <si>
+    <t>经营贷款年日均比上月</t>
+  </si>
+  <si>
+    <t>经营贷款年日均比上年</t>
+  </si>
+  <si>
+    <t>loanMonthAvg</t>
+  </si>
+  <si>
+    <t>loanMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>loanMonthAvgToLy</t>
+  </si>
+  <si>
+    <t>零售客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理查看管户客户数据，管理岗查看辖内机构客户数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUM资产上月月日均≥5万。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代发客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本年度代发达三次且单笔金额≥500元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新客客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）本机构新增AUM资产年日均≥1000元（含储蓄存款）或2022年前   AUM资产年日均＜1000元、2022年AUM资产年日均≥1000元的零售    客户数按1个客户计算，满足以下条件，按系数计算：当年新增信用卡   绑定借记卡还款客户并还款一次或2022年前绑定但未还款、2022年还款   一次的，按新增0.1个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）本机构本年代发的客户且满足代发次数≥3次、代发金额≥500元，按   1个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）同一客户同时满足第1点、第2点的，按2个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4）信用卡新激活的个人客户(1个客户新增多张激活卡仅按一个有效户计   算，存量未激活客户新激活按一个有效户计算，存量已激活客户新办卡   且激活不算新客户）。同一客户在多个机构开立账户的，按1个统计；   借钱花等虚拟信用卡业务新增客户有过取款按一个客户计算（不含虚拟   随用金及虚拟爱购卡等非实体卡片）；若一个客户同时属于信用卡及虚   拟信用卡业务有效客户，满足新户条件在后的按0.5个客户计算；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5）网络进件、机构发展合伙人营销、机构自建信用卡直销团队营销的信用   卡激活客户数全部计入激活机构或营销机构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）商户收款累计交易天数大于等于12天，且付款人不为同一人；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）商户年度累计交易金额大于等于2000元；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）结算账户为个人账户的，个人账户AUM资产（含储蓄存款）年日均大于等于1000元；结算账户为单位账户的，单位账户存款年日均大于等于1000元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史办理过贷款业务且贷款金额≥0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>按揭贷款年日均</t>
-  </si>
-  <si>
-    <t>按揭贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>按揭贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>消费贷款年日均</t>
-  </si>
-  <si>
-    <t>消费贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>消费贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>经营贷款年日均</t>
-  </si>
-  <si>
-    <t>经营贷款年日均比上月</t>
-  </si>
-  <si>
-    <t>经营贷款年日均比上年</t>
-  </si>
-  <si>
-    <t>loanMonthAvg</t>
-  </si>
-  <si>
-    <t>loanMonthAvgToLm</t>
-  </si>
-  <si>
-    <t>loanMonthAvgToLy</t>
-  </si>
-  <si>
-    <r>
-      <t>代发客户：本年度代发达三次且单笔金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500元。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>财富客户：AUM资产上月月日均</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5万。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贷款客户：历史办理过贷款业务且贷款金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0。</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款日均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款日均比上月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款日均比上年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,13 +876,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1014,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +971,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,12 +990,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,12 +998,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,55 +1026,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2125630</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB7432A-B466-5EE4-2A09-CC8B6F703E12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="1"/>
-          <a:ext cx="5199242" cy="2481941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1422,10 +1318,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1436,8 +1332,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1446,8 +1342,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1352,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1466,50 +1362,50 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1520,8 +1416,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1530,8 +1426,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1540,8 +1436,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1550,8 +1446,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1562,8 +1458,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1572,8 +1468,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1582,8 +1478,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1592,8 +1488,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1604,8 +1500,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +1510,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1624,8 +1520,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1634,8 +1530,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1646,8 +1542,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1656,8 +1552,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1666,8 +1562,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1720,10 +1616,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1734,8 +1630,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1640,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1754,50 +1650,50 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
-        <v>187</v>
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1808,8 +1704,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1818,8 +1714,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1828,8 +1724,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1840,8 +1736,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -1850,8 +1746,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -1860,8 +1756,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -1870,8 +1766,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1882,8 +1778,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1892,8 +1788,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1902,8 +1798,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1914,8 +1810,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1924,8 +1820,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1934,8 +1830,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1944,191 +1840,191 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
-        <v>182</v>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
+    <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="2" t="s">
+    <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="2" t="s">
+    <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="2" t="s">
+    <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2182,11 +2078,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2194,33 +2090,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2228,33 +2124,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2262,33 +2158,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2296,33 +2192,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2330,33 +2226,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2364,33 +2260,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2398,25 +2294,25 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
@@ -2425,210 +2321,210 @@
       <c r="A30" s="19"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2650,273 +2546,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA7147-8EDB-482E-B40B-6B7EF10E4C49}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="15" t="s">
+    <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="3" t="s">
+    <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="15" t="s">
+    <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="15" t="s">
+    <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="3" t="s">
+    <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="3" t="s">
+    <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="3" t="s">
+    <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" t="s">
-        <v>209</v>
+      <c r="C29" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2925,174 +2815,109 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F6693D-6FEF-46C8-AF0B-BFC0DC55A984}">
-  <dimension ref="A1:A21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF205302-656C-4EC2-8340-B14B0FD34A74}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.88671875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A68D52C-B420-48EC-9549-81CAA3CE948D}">
-  <dimension ref="G1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6377CD-830F-404D-A255-47C2581CC08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048B552-0D24-4A4E-9F90-ACD75F2BE372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="贷款增长趋势" sheetId="5" r:id="rId4"/>
     <sheet name="口径说明1" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="246">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -856,6 +856,60 @@
   <si>
     <t>贷款日均比上年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mrtgLoanMonthAvg</t>
+  </si>
+  <si>
+    <t>mrtgLoanMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>mrtgLoanMonthAvgToLy</t>
+  </si>
+  <si>
+    <t>cnsmLoanMonthAvg</t>
+  </si>
+  <si>
+    <t>cnsmLoanMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>cnsmLoanMonthAvgToLy</t>
+  </si>
+  <si>
+    <t>corprtnLoanMonthAvg</t>
+  </si>
+  <si>
+    <t>corprtnLoanMonthAvgToLm</t>
+  </si>
+  <si>
+    <t>corprtnLoanMonthAvgToLy</t>
+  </si>
+  <si>
+    <t>按揭贷款月日均</t>
+  </si>
+  <si>
+    <t>按揭贷款月日均比上月</t>
+  </si>
+  <si>
+    <t>按揭贷款月日均比上年</t>
+  </si>
+  <si>
+    <t>消费贷款月日均</t>
+  </si>
+  <si>
+    <t>消费贷款月日均比上月</t>
+  </si>
+  <si>
+    <t>消费贷款月日均比上年</t>
+  </si>
+  <si>
+    <t>经营贷款月日均</t>
+  </si>
+  <si>
+    <t>经营贷款月日均比上月</t>
+  </si>
+  <si>
+    <t>经营贷款月日均比上年</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,6 +1030,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1008,9 +1065,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1318,10 +1374,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1332,8 +1388,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1342,8 +1398,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1352,8 +1408,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1362,8 +1418,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1374,8 +1430,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -1384,8 +1440,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -1394,8 +1450,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -1404,8 +1460,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1416,8 +1472,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1426,8 +1482,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1436,8 +1492,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1502,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1458,8 +1514,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1468,8 +1524,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1478,8 +1534,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1488,8 +1544,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1500,8 +1556,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1510,8 +1566,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1520,8 +1576,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1530,8 +1586,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1542,8 +1598,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1552,8 +1608,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1562,8 +1618,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1616,10 +1672,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1630,8 +1686,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1640,8 +1696,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1650,8 +1706,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -1660,8 +1716,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1672,8 +1728,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -1682,8 +1738,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -1692,8 +1748,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1704,8 +1760,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1714,8 +1770,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1724,8 +1780,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1736,8 +1792,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -1746,8 +1802,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -1756,8 +1812,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -1766,8 +1822,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1778,8 +1834,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1788,8 +1844,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1798,8 +1854,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1810,8 +1866,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1820,8 +1876,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1830,8 +1886,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1840,8 +1896,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1852,8 +1908,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -1862,8 +1918,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -1872,8 +1928,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1884,8 +1940,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -1894,8 +1950,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -1904,8 +1960,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1916,8 +1972,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -1926,8 +1982,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -1936,8 +1992,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1948,8 +2004,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -1958,8 +2014,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -1968,8 +2024,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1980,8 +2036,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -1990,7 +2046,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -1999,7 +2055,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2010,7 +2066,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -2019,7 +2075,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -2078,11 +2134,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2090,33 +2146,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2124,33 +2180,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2158,33 +2214,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2192,33 +2248,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2226,33 +2282,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2260,33 +2316,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2294,31 +2350,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -2328,7 +2384,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -2338,7 +2394,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -2348,7 +2404,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -2358,7 +2414,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -2368,7 +2424,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -2378,7 +2434,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -2388,7 +2444,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -2398,7 +2454,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -2408,7 +2464,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -2418,7 +2474,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -2428,7 +2484,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2438,7 +2494,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -2448,7 +2504,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -2458,7 +2514,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -2468,7 +2524,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -2478,7 +2534,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -2488,7 +2544,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -2498,7 +2554,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -2508,7 +2564,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -2518,7 +2574,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -2546,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA7147-8EDB-482E-B40B-6B7EF10E4C49}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2571,10 +2627,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2582,29 +2638,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2612,29 +2668,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2642,29 +2698,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2672,28 +2728,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -2702,7 +2758,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -2711,7 +2767,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -2720,7 +2776,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -2729,7 +2785,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -2738,7 +2794,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -2747,7 +2803,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -2756,7 +2812,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -2765,7 +2821,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -2774,7 +2830,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -2783,7 +2839,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -2792,12 +2848,93 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2943,7 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A2:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,7 +2962,7 @@
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="104.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2853,7 +2990,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2861,31 +2998,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2893,13 +3030,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B048B552-0D24-4A4E-9F90-ACD75F2BE372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296FC181-8EED-4E37-BD63-B19E49F5DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AUM增长趋势" sheetId="4" r:id="rId3"/>
     <sheet name="贷款增长趋势" sheetId="5" r:id="rId4"/>
     <sheet name="口径说明1" sheetId="8" r:id="rId5"/>
+    <sheet name="客户视图-客户信息" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="298">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,6 +911,181 @@
   </si>
   <si>
     <t>经营贷款月日均比上年</t>
+  </si>
+  <si>
+    <t>vipCst</t>
+  </si>
+  <si>
+    <t>agentPayCstFlg</t>
+  </si>
+  <si>
+    <t>yrAddCst</t>
+  </si>
+  <si>
+    <t>entpWchtCstFlg</t>
+  </si>
+  <si>
+    <t>newCstFlg</t>
+  </si>
+  <si>
+    <t>vipCstFlg</t>
+  </si>
+  <si>
+    <t>merntCstFlg</t>
+  </si>
+  <si>
+    <t>ioinHoldLoan</t>
+  </si>
+  <si>
+    <t>ioinSgnAlpy</t>
+  </si>
+  <si>
+    <t>ioinSgnWchtPymt</t>
+  </si>
+  <si>
+    <t>ioinSgnYsf</t>
+  </si>
+  <si>
+    <t>svcLvlCount</t>
+  </si>
+  <si>
+    <t>gnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
+  </si>
+  <si>
+    <t>是否VIP客户</t>
+  </si>
+  <si>
+    <t>代发客户标识</t>
+  </si>
+  <si>
+    <t>是否今年新客户</t>
+  </si>
+  <si>
+    <t>企业微信客户标识</t>
+  </si>
+  <si>
+    <t>归属客户经理</t>
+  </si>
+  <si>
+    <t>归属客户经理名称</t>
+  </si>
+  <si>
+    <t>归属机构</t>
+  </si>
+  <si>
+    <t>归属机构名称</t>
+  </si>
+  <si>
+    <t>新客客户标志</t>
+  </si>
+  <si>
+    <t>财富客户标志</t>
+  </si>
+  <si>
+    <t>商户客户标志</t>
+  </si>
+  <si>
+    <t>是否持有贷款</t>
+  </si>
+  <si>
+    <t>是否签约支付宝</t>
+  </si>
+  <si>
+    <t>是否签约微信支付</t>
+  </si>
+  <si>
+    <t>是否签约云闪付</t>
+  </si>
+  <si>
+    <t>客户服务等级（数字0-6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustBaseInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custBase
+客户基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ioinSgnMobbank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crdtCrdCstFlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否签约手机银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用卡客户标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctcTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>famAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belgCustMgrNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongOrgNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belgCustMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1010,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,6 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1244,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1374,10 +1558,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1388,8 +1572,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1398,8 +1582,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1408,8 +1592,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1602,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1430,8 +1614,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -1440,8 +1624,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -1450,8 +1634,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -1460,8 +1644,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1472,8 +1656,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1482,8 +1666,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1492,8 +1676,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,8 +1686,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1514,8 +1698,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1524,8 +1708,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1534,8 +1718,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1544,8 +1728,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1556,8 +1740,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1750,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1576,8 +1760,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1586,8 +1770,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1598,8 +1782,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1608,8 +1792,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1618,8 +1802,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1672,10 +1856,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1686,8 +1870,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1696,8 +1880,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1890,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -1716,8 +1900,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="17" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1728,8 +1912,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -1738,8 +1922,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -1748,8 +1932,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1760,8 +1944,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1770,8 +1954,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1964,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1792,8 +1976,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -1802,8 +1986,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -1812,8 +1996,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -1822,8 +2006,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1834,8 +2018,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1844,8 +2028,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1854,8 +2038,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1866,8 +2050,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1876,8 +2060,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -1886,8 +2070,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -1896,8 +2080,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1908,8 +2092,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -1918,8 +2102,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -1928,8 +2112,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1940,8 +2124,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -1950,8 +2134,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -1960,8 +2144,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1972,8 +2156,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -1982,8 +2166,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -1992,8 +2176,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2004,8 +2188,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -2014,8 +2198,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -2024,8 +2208,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2036,8 +2220,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2046,7 +2230,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -2055,7 +2239,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2066,7 +2250,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -2075,7 +2259,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -2134,11 +2318,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2146,33 +2330,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2180,33 +2364,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2214,33 +2398,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2248,33 +2432,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2282,33 +2466,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2316,33 +2500,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2350,31 +2534,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -2384,7 +2568,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -2394,7 +2578,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -2404,7 +2588,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -2414,7 +2598,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -2424,7 +2608,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -2434,7 +2618,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -2444,7 +2628,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -2454,7 +2638,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -2464,7 +2648,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -2474,7 +2658,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -2484,7 +2668,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2494,7 +2678,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -2504,7 +2688,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -2514,7 +2698,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -2524,7 +2708,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -2534,7 +2718,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -2544,7 +2728,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -2554,7 +2738,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -2564,7 +2748,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -2574,7 +2758,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -2604,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EA7147-8EDB-482E-B40B-6B7EF10E4C49}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2627,10 +2811,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2638,29 +2822,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2668,29 +2852,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2698,29 +2882,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2728,28 +2912,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -2758,7 +2942,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -2767,7 +2951,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -2776,7 +2960,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -2785,7 +2969,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -2794,7 +2978,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -2803,7 +2987,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -2812,7 +2996,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -2821,7 +3005,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -2830,7 +3014,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -2839,7 +3023,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -2848,7 +3032,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -2857,7 +3041,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -2866,7 +3050,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -2875,7 +3059,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -2884,7 +3068,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -2893,7 +3077,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -2902,7 +3086,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -2911,7 +3095,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -2920,7 +3104,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -2929,7 +3113,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -2990,7 +3174,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2998,31 +3182,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -3030,13 +3214,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -3057,4 +3241,297 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B26"/>
+    <mergeCell ref="A2:A26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296FC181-8EED-4E37-BD63-B19E49F5DC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025563C9-7550-460D-AAEA-FB70EF9A57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="AUM增长趋势" sheetId="4" r:id="rId3"/>
     <sheet name="贷款增长趋势" sheetId="5" r:id="rId4"/>
     <sheet name="口径说明1" sheetId="8" r:id="rId5"/>
-    <sheet name="客户视图-客户信息" sheetId="9" r:id="rId6"/>
+    <sheet name="客户视图" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="329">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,6 +1085,120 @@
   </si>
   <si>
     <t>belgCustMgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustTagInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNumc</t>
+  </si>
+  <si>
+    <t>labNm</t>
+  </si>
+  <si>
+    <t>createPerson</t>
+  </si>
+  <si>
+    <t>createDt</t>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签_名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户自定义标签查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">客户自定义标签保存及修改 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveCustDefinedLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustDefinedLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delCustDefinedLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户自定义标签保删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustContactList</t>
+  </si>
+  <si>
+    <t>saveCustContactInfo</t>
+  </si>
+  <si>
+    <t>delCustContactInfo</t>
+  </si>
+  <si>
+    <t>queryCustAddressList</t>
+  </si>
+  <si>
+    <t>saveCustAddressInfo</t>
+  </si>
+  <si>
+    <t>delCustAddressInfo</t>
+  </si>
+  <si>
+    <t>联系电话查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,7 +1324,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1245,12 +1372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1558,10 +1687,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1572,8 +1701,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1582,8 +1711,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1721,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1602,8 +1731,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1614,8 +1743,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -1624,8 +1753,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -1634,8 +1763,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -1644,8 +1773,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1656,8 +1785,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1666,8 +1795,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1676,8 +1805,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1686,8 +1815,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1698,8 +1827,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1708,8 +1837,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1718,8 +1847,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1728,8 +1857,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1740,8 +1869,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1750,8 +1879,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1760,8 +1889,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1770,8 +1899,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1782,8 +1911,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1792,8 +1921,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1802,8 +1931,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1856,10 +1985,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1870,8 +1999,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1880,8 +2009,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1890,8 +2019,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -1900,8 +2029,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="22" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1912,8 +2041,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -1922,8 +2051,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -1932,8 +2061,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1944,8 +2073,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1954,8 +2083,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1964,8 +2093,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1976,8 +2105,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -1986,8 +2115,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -1996,8 +2125,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -2006,8 +2135,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2018,8 +2147,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -2028,8 +2157,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -2038,8 +2167,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2050,8 +2179,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -2060,8 +2189,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -2070,8 +2199,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -2080,8 +2209,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2092,8 +2221,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -2102,8 +2231,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -2112,8 +2241,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2124,8 +2253,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -2134,8 +2263,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -2144,8 +2273,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2156,8 +2285,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2166,8 +2295,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -2176,8 +2305,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2188,8 +2317,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -2198,8 +2327,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -2208,8 +2337,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2220,8 +2349,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2230,7 +2359,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -2239,7 +2368,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2250,7 +2379,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -2259,7 +2388,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -2318,11 +2447,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2330,33 +2459,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2364,33 +2493,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2398,33 +2527,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2432,33 +2561,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2466,33 +2595,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2500,33 +2629,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2534,31 +2663,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -2568,7 +2697,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -2578,7 +2707,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -2588,7 +2717,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -2598,7 +2727,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -2608,7 +2737,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -2618,7 +2747,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -2628,7 +2757,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -2638,7 +2767,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -2648,7 +2777,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -2658,7 +2787,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -2668,7 +2797,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2678,7 +2807,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -2688,7 +2817,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -2698,7 +2827,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -2708,7 +2837,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -2718,7 +2847,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -2728,7 +2857,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -2738,7 +2867,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -2748,7 +2877,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -2758,7 +2887,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -2811,10 +2940,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2822,29 +2951,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2852,29 +2981,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2882,29 +3011,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -2912,28 +3041,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -2942,7 +3071,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -2951,7 +3080,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -2960,7 +3089,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -2969,7 +3098,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -2978,7 +3107,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -2987,7 +3116,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -2996,7 +3125,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -3005,7 +3134,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -3014,7 +3143,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -3023,7 +3152,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -3032,7 +3161,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -3041,7 +3170,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -3050,7 +3179,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -3059,7 +3188,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -3068,7 +3197,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -3077,7 +3206,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -3086,7 +3215,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -3095,7 +3224,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -3104,7 +3233,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -3113,7 +3242,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -3174,7 +3303,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3182,31 +3311,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -3214,13 +3343,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -3245,290 +3374,481 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="11" t="s">
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="15" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="E25" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="E26" s="16" t="s">
         <v>286</v>
       </c>
     </row>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
     <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025563C9-7550-460D-AAEA-FB70EF9A57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA0D45-486B-4511-8830-C746DE3D573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="460">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,33 +1172,438 @@
     <t>queryCustAddressList</t>
   </si>
   <si>
+    <t>delCustAddressInfo</t>
+  </si>
+  <si>
+    <t>联系电话查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系地址删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>saveCustAddressInfo</t>
-  </si>
-  <si>
-    <t>delCustAddressInfo</t>
-  </si>
-  <si>
-    <t>联系电话查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系地址删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryAssetsAUMGrowthTrend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资产总览(AUM趋势图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNum</t>
+  </si>
+  <si>
+    <t>cstLvl</t>
+  </si>
+  <si>
+    <t>svcLvl</t>
+  </si>
+  <si>
+    <t>aumBal</t>
+  </si>
+  <si>
+    <t>aumAvgM</t>
+  </si>
+  <si>
+    <t>aumAvgQ</t>
+  </si>
+  <si>
+    <t>aumAvgY</t>
+  </si>
+  <si>
+    <t>timeDpsitBal</t>
+  </si>
+  <si>
+    <t>timeDpsitAvgM</t>
+  </si>
+  <si>
+    <t>timeDpsitAvgQ</t>
+  </si>
+  <si>
+    <t>timeDpsitAvgY</t>
+  </si>
+  <si>
+    <t>currDpsitBal</t>
+  </si>
+  <si>
+    <t>currDpsitAvgM</t>
+  </si>
+  <si>
+    <t>currDpsitAvgQ</t>
+  </si>
+  <si>
+    <t>currDpsitAvgY</t>
+  </si>
+  <si>
+    <t>cftBal</t>
+  </si>
+  <si>
+    <t>cftAvgM</t>
+  </si>
+  <si>
+    <t>cftAvgQ</t>
+  </si>
+  <si>
+    <t>cftAvgY</t>
+  </si>
+  <si>
+    <t>entrstBal</t>
+  </si>
+  <si>
+    <t>entrstAvgM</t>
+  </si>
+  <si>
+    <t>entrstAvgQ</t>
+  </si>
+  <si>
+    <t>entrstAvgY</t>
+  </si>
+  <si>
+    <t>insBal</t>
+  </si>
+  <si>
+    <t>insAvgM</t>
+  </si>
+  <si>
+    <t>insAvgQ</t>
+  </si>
+  <si>
+    <t>insAvgY</t>
+  </si>
+  <si>
+    <t>fndBal</t>
+  </si>
+  <si>
+    <t>fndAvgM</t>
+  </si>
+  <si>
+    <t>fndAvgQ</t>
+  </si>
+  <si>
+    <t>fndAvgY</t>
+  </si>
+  <si>
+    <t>loanBal</t>
+  </si>
+  <si>
+    <t>loanAvgM</t>
+  </si>
+  <si>
+    <t>loanAvgQ</t>
+  </si>
+  <si>
+    <t>loanAvgY</t>
+  </si>
+  <si>
+    <t>currDpsitBalToYstd</t>
+  </si>
+  <si>
+    <t>currDpsitBalToLm</t>
+  </si>
+  <si>
+    <t>timeDpsitBalToYstd</t>
+  </si>
+  <si>
+    <t>timeDpsitBalToLm</t>
+  </si>
+  <si>
+    <t>cftBalToYstd</t>
+  </si>
+  <si>
+    <t>cftBalToLm</t>
+  </si>
+  <si>
+    <t>fndBalToYstd</t>
+  </si>
+  <si>
+    <t>fndBalToLm</t>
+  </si>
+  <si>
+    <t>insBalToYstd</t>
+  </si>
+  <si>
+    <t>insBalToLm</t>
+  </si>
+  <si>
+    <t>entrstValToYstd</t>
+  </si>
+  <si>
+    <t>entrstValToLm</t>
+  </si>
+  <si>
+    <t>客户评级</t>
+  </si>
+  <si>
+    <t>服务评级</t>
+  </si>
+  <si>
+    <t>AUM余额</t>
+  </si>
+  <si>
+    <t>AUM月日均</t>
+  </si>
+  <si>
+    <t>AUM季日均</t>
+  </si>
+  <si>
+    <t>AUM年日均</t>
+  </si>
+  <si>
+    <t>定期存款余额</t>
+  </si>
+  <si>
+    <t>定期存款季日均</t>
+  </si>
+  <si>
+    <t>定期存款年日均</t>
+  </si>
+  <si>
+    <t>活期存款余额</t>
+  </si>
+  <si>
+    <t>活期存款月日均</t>
+  </si>
+  <si>
+    <t>活期存款季日均</t>
+  </si>
+  <si>
+    <t>理财余额</t>
+  </si>
+  <si>
+    <t>理财月日均</t>
+  </si>
+  <si>
+    <t>理财季日均</t>
+  </si>
+  <si>
+    <t>信托余额</t>
+  </si>
+  <si>
+    <t>信托月日均</t>
+  </si>
+  <si>
+    <t>信托季日均</t>
+  </si>
+  <si>
+    <t>保险余额</t>
+  </si>
+  <si>
+    <t>保险月日均</t>
+  </si>
+  <si>
+    <t>保险季日均</t>
+  </si>
+  <si>
+    <t>基金余额</t>
+  </si>
+  <si>
+    <t>基金月日均</t>
+  </si>
+  <si>
+    <t>基金季日均</t>
+  </si>
+  <si>
+    <t>贷款余额</t>
+  </si>
+  <si>
+    <t>贷款月日均</t>
+  </si>
+  <si>
+    <t>贷款季日均</t>
+  </si>
+  <si>
+    <t>贷款年日均</t>
+  </si>
+  <si>
+    <t>aum余额比上日</t>
+  </si>
+  <si>
+    <t>aum余额比上月</t>
+  </si>
+  <si>
+    <t>活期存款余额比上日</t>
+  </si>
+  <si>
+    <t>活期存款余额比上月</t>
+  </si>
+  <si>
+    <t>定期存款余额比上日</t>
+  </si>
+  <si>
+    <t>定期存款余额比上月</t>
+  </si>
+  <si>
+    <t>理财余额比上日</t>
+  </si>
+  <si>
+    <t>理财余额比上月</t>
+  </si>
+  <si>
+    <t>基金余额比上日</t>
+  </si>
+  <si>
+    <t>基金余额比上月</t>
+  </si>
+  <si>
+    <t>保险余额比上日</t>
+  </si>
+  <si>
+    <t>保险余额比上月</t>
+  </si>
+  <si>
+    <t>信托余额比上日</t>
+  </si>
+  <si>
+    <t>信托余额比上月</t>
+  </si>
+  <si>
+    <t>currDpsitBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeDpsitBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cftBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fndBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrstBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustAssetAnalyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产分析负债查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumBalToLastD</t>
+  </si>
+  <si>
+    <t>aumBalToLastM</t>
+  </si>
+  <si>
+    <t>aumBalToLastY</t>
+  </si>
+  <si>
+    <t>loanBalToLastD</t>
+  </si>
+  <si>
+    <t>loanBalToLastM</t>
+  </si>
+  <si>
+    <t>loanBalToLastY</t>
+  </si>
+  <si>
+    <t>cnsmLoanBal</t>
+  </si>
+  <si>
+    <t>corprtnLoanBal</t>
+  </si>
+  <si>
+    <t>mrtgLoanBal</t>
+  </si>
+  <si>
+    <t>othrLoanBal</t>
+  </si>
+  <si>
+    <t>loanBalSum</t>
+  </si>
+  <si>
+    <t>loanSum</t>
+  </si>
+  <si>
+    <t>cnsmLoanSum</t>
+  </si>
+  <si>
+    <t>corprtnLoanSum</t>
+  </si>
+  <si>
+    <t>mrtgLoanSum</t>
+  </si>
+  <si>
+    <t>客户号</t>
+  </si>
+  <si>
+    <t>AUM余额比上日</t>
+  </si>
+  <si>
+    <t>AUM余额比上月</t>
+  </si>
+  <si>
+    <t>AUM余额比年初</t>
+  </si>
+  <si>
+    <t>贷款余额比上日</t>
+  </si>
+  <si>
+    <t>贷款余额比上月</t>
+  </si>
+  <si>
+    <t>贷款余额比年初</t>
+  </si>
+  <si>
+    <t>消费贷款余额</t>
+  </si>
+  <si>
+    <t>经营贷款余额</t>
+  </si>
+  <si>
+    <t>按揭贷款余额</t>
+  </si>
+  <si>
+    <t>其它贷款余额</t>
+  </si>
+  <si>
+    <t>贷款余额总计（消费贷款余额，经营贷款余额，按揭贷款余额）</t>
+  </si>
+  <si>
+    <t>贷款总额</t>
+  </si>
+  <si>
+    <t>消费贷款总额</t>
+  </si>
+  <si>
+    <t>经营贷款总额</t>
+  </si>
+  <si>
+    <t>按揭贷款总额</t>
+  </si>
+  <si>
+    <t>assetAnalyData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1235,8 +1640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1296,11 +1707,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,9 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1378,6 +1968,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1687,10 +2322,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1701,8 +2336,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1711,8 +2346,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1721,8 +2356,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +2366,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1743,8 +2378,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -1753,8 +2388,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -1763,8 +2398,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -1773,8 +2408,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1785,8 +2420,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1795,8 +2430,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +2440,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1815,8 +2450,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1827,8 +2462,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1837,8 +2472,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1847,8 +2482,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1857,8 +2492,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1869,8 +2504,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1879,8 +2514,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1889,8 +2524,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1899,8 +2534,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1911,8 +2546,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1921,8 +2556,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1931,8 +2566,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1985,10 +2620,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1999,8 +2634,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -2009,8 +2644,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2019,8 +2654,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -2029,8 +2664,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2041,8 +2676,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -2051,8 +2686,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -2061,8 +2696,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2073,8 +2708,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -2083,8 +2718,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2093,8 +2728,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2105,8 +2740,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -2115,8 +2750,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -2125,8 +2760,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -2135,8 +2770,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2147,8 +2782,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -2157,8 +2792,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2802,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2179,8 +2814,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -2189,8 +2824,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -2199,8 +2834,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -2209,8 +2844,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2221,8 +2856,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -2231,8 +2866,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -2241,8 +2876,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2253,8 +2888,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -2263,8 +2898,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -2273,8 +2908,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2285,8 +2920,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2295,8 +2930,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -2305,8 +2940,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2317,8 +2952,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -2327,8 +2962,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -2337,8 +2972,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2349,8 +2984,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2359,7 +2994,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -2368,7 +3003,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2379,7 +3014,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -2388,7 +3023,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -2447,11 +3082,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2459,33 +3094,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2493,33 +3128,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2527,33 +3162,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2561,33 +3196,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2595,33 +3230,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2629,33 +3264,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="27"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2663,31 +3298,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -2697,7 +3332,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -2707,7 +3342,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -2717,7 +3352,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -2727,7 +3362,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -2737,7 +3372,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -2747,7 +3382,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -2757,7 +3392,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -2767,7 +3402,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -2777,7 +3412,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -2787,7 +3422,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -2797,7 +3432,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -2807,7 +3442,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -2817,7 +3452,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -2827,7 +3462,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -2837,7 +3472,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -2847,7 +3482,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -2857,7 +3492,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -2867,7 +3502,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -2877,7 +3512,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -2887,7 +3522,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -2940,10 +3575,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2951,29 +3586,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2981,29 +3616,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3011,29 +3646,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3041,28 +3676,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -3071,7 +3706,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -3080,7 +3715,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -3089,7 +3724,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -3098,7 +3733,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -3107,7 +3742,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -3116,7 +3751,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -3125,7 +3760,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -3134,7 +3769,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -3143,7 +3778,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -3152,7 +3787,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -3161,7 +3796,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -3170,7 +3805,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -3179,7 +3814,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -3188,7 +3823,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -3197,7 +3832,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -3206,7 +3841,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -3215,7 +3850,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -3224,7 +3859,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -3233,7 +3868,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -3242,7 +3877,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -3303,7 +3938,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3311,31 +3946,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -3343,13 +3978,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -3374,481 +4009,1390 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:5" s="37" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="15" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="15" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="15" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="15" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="15" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="15" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="15" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="15" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="16" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="16" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="B45" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="44"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="44"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="44"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="44"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="44"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="44"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="44"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="44"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="44"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="44"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="44"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="44"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="44"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="44"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="44"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="46"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="44"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E99" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="44"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="44"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" s="45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E102" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="44"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E103" s="45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="44"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E104" s="45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="44"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E105" s="45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="44"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E106" s="45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="44"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="44"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E108" s="45" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="44"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="44"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111" s="45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="44"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E112" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="44"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E113" s="45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="44"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E114" s="45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="44"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="44"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" s="45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="44"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E117" s="45" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="44"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E119" s="45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="44"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E120" s="45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="44"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" s="45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="44"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" s="45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="44"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E123" s="45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="46"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A49:A97"/>
+    <mergeCell ref="B49:C97"/>
+    <mergeCell ref="B98:B124"/>
+    <mergeCell ref="A98:A124"/>
+    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
     <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA0D45-486B-4511-8830-C746DE3D573F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714FFE6-7C92-478E-BDF1-DF22C8332AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="贷款增长趋势" sheetId="5" r:id="rId4"/>
     <sheet name="口径说明1" sheetId="8" r:id="rId5"/>
     <sheet name="客户视图" sheetId="9" r:id="rId6"/>
+    <sheet name="客户视图-产品信息" sheetId="10" r:id="rId7"/>
+    <sheet name="客户视图-交易分析" sheetId="11" r:id="rId8"/>
+    <sheet name="客户视图-商机列表" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,8 +40,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{30A0D012-F428-4359-8FEB-B2042B2D35CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="695">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1604,6 +1643,789 @@
   </si>
   <si>
     <t>assetAnalyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户持有产品查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustHoldPrdInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户签约产品查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustSignPrdInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depAcctNo</t>
+  </si>
+  <si>
+    <t>depKnd</t>
+  </si>
+  <si>
+    <t>intRat</t>
+  </si>
+  <si>
+    <t>cardNum</t>
+  </si>
+  <si>
+    <t>currBal</t>
+  </si>
+  <si>
+    <t>yearAvg</t>
+  </si>
+  <si>
+    <t>depHistHestAmt</t>
+  </si>
+  <si>
+    <t>repayDtPrd</t>
+  </si>
+  <si>
+    <t>opacDt</t>
+  </si>
+  <si>
+    <t>valdtPrd</t>
+  </si>
+  <si>
+    <t>expDt</t>
+  </si>
+  <si>
+    <t>custMgr</t>
+  </si>
+  <si>
+    <t>custMgrNm</t>
+  </si>
+  <si>
+    <t>belongOrg</t>
+  </si>
+  <si>
+    <t>belongOrgNm</t>
+  </si>
+  <si>
+    <t>gsryRat</t>
+  </si>
+  <si>
+    <t>ccy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款账号</t>
+  </si>
+  <si>
+    <t>存款种类</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>存期</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>当前余额</t>
+  </si>
+  <si>
+    <t>年日均</t>
+  </si>
+  <si>
+    <t>存款历史最高额</t>
+  </si>
+  <si>
+    <t>存款极差值</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+  </si>
+  <si>
+    <t>开户日期</t>
+  </si>
+  <si>
+    <t>起息日期</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+  </si>
+  <si>
+    <t>客户经理</t>
+  </si>
+  <si>
+    <t>客户经理名称</t>
+  </si>
+  <si>
+    <t>归属比率</t>
+  </si>
+  <si>
+    <t>可用余额</t>
+  </si>
+  <si>
+    <t>控制金额</t>
+  </si>
+  <si>
+    <t>queryCustTimeDepAcctInfo
+queryCustCurrDepAcctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期存款产品明细查询
+活期存款产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loanCtgry</t>
+  </si>
+  <si>
+    <t>loanNm</t>
+  </si>
+  <si>
+    <t>contrDayPrd</t>
+  </si>
+  <si>
+    <t>loanContrNum</t>
+  </si>
+  <si>
+    <t>dstrbtAmt</t>
+  </si>
+  <si>
+    <t>faMnyDt</t>
+  </si>
+  <si>
+    <t>loanSt</t>
+  </si>
+  <si>
+    <t>贷款类别</t>
+  </si>
+  <si>
+    <t>贷款名称</t>
+  </si>
+  <si>
+    <t>合同日期</t>
+  </si>
+  <si>
+    <t>贷款合同号</t>
+  </si>
+  <si>
+    <t>发放金额</t>
+  </si>
+  <si>
+    <t>放款日期</t>
+  </si>
+  <si>
+    <t>还款日期</t>
+  </si>
+  <si>
+    <t>贷款状态</t>
+  </si>
+  <si>
+    <t>贷款产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustLoanAcctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>产品风险等级</t>
+  </si>
+  <si>
+    <t>理财账号</t>
+  </si>
+  <si>
+    <t>购买金额</t>
+  </si>
+  <si>
+    <t>账户余额</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+  </si>
+  <si>
+    <t>开放起息日</t>
+  </si>
+  <si>
+    <t>开放结束日</t>
+  </si>
+  <si>
+    <t>购买渠道</t>
+  </si>
+  <si>
+    <t>pdNm</t>
+  </si>
+  <si>
+    <t>pdRskLvlCd</t>
+  </si>
+  <si>
+    <t>cftAcctNo</t>
+  </si>
+  <si>
+    <t>prchsdAmt</t>
+  </si>
+  <si>
+    <t>acctBal</t>
+  </si>
+  <si>
+    <t>stIntDt</t>
+  </si>
+  <si>
+    <t>expDayPrd</t>
+  </si>
+  <si>
+    <t>acctStCd</t>
+  </si>
+  <si>
+    <t>prchsdDt</t>
+  </si>
+  <si>
+    <t>otpuBeginDt</t>
+  </si>
+  <si>
+    <t>otpuEndDt</t>
+  </si>
+  <si>
+    <t>cnlKnd</t>
+  </si>
+  <si>
+    <t>fndCd</t>
+  </si>
+  <si>
+    <t>fndRskLvl</t>
+  </si>
+  <si>
+    <t>currLot</t>
+  </si>
+  <si>
+    <t>acmlPrchsdAmt</t>
+  </si>
+  <si>
+    <t>fndYldRate</t>
+  </si>
+  <si>
+    <t>fndAcctStCd</t>
+  </si>
+  <si>
+    <t>基金代码</t>
+  </si>
+  <si>
+    <t>基金风险等级</t>
+  </si>
+  <si>
+    <t>当前份额</t>
+  </si>
+  <si>
+    <t>累计购买金额</t>
+  </si>
+  <si>
+    <t>基金收益率</t>
+  </si>
+  <si>
+    <t>基金账户状态</t>
+  </si>
+  <si>
+    <t>基金产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustFundAcctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insCoNm</t>
+  </si>
+  <si>
+    <t>insPdNm</t>
+  </si>
+  <si>
+    <t>typeOfInsureCtgry</t>
+  </si>
+  <si>
+    <t>benfNm</t>
+  </si>
+  <si>
+    <t>ptfMd</t>
+  </si>
+  <si>
+    <t>currActYld</t>
+  </si>
+  <si>
+    <t>insureDt</t>
+  </si>
+  <si>
+    <t>prem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司名称</t>
+  </si>
+  <si>
+    <t>保险产品名称</t>
+  </si>
+  <si>
+    <t>保险类别</t>
+  </si>
+  <si>
+    <t>受益人名称</t>
+  </si>
+  <si>
+    <t>缴费方式</t>
+  </si>
+  <si>
+    <t>缴费期限</t>
+  </si>
+  <si>
+    <t>保险费</t>
+  </si>
+  <si>
+    <t>投保日期</t>
+  </si>
+  <si>
+    <t>queryCustBassAcctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrstAcctNo</t>
+  </si>
+  <si>
+    <t>信托账号</t>
+  </si>
+  <si>
+    <t>queryCustTrustAcctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信托产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgnAcctNo</t>
+  </si>
+  <si>
+    <t>sgnMobileNum</t>
+  </si>
+  <si>
+    <t>sgnInst</t>
+  </si>
+  <si>
+    <t>sgnInstNm</t>
+  </si>
+  <si>
+    <t>sgnDt</t>
+  </si>
+  <si>
+    <t>签约账号</t>
+  </si>
+  <si>
+    <t>签约手机号</t>
+  </si>
+  <si>
+    <t>签约机构</t>
+  </si>
+  <si>
+    <t>签约机构名称</t>
+  </si>
+  <si>
+    <t>签约日期</t>
+  </si>
+  <si>
+    <t>queryCustSignPrdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约产品明细查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐产品信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryRecommendProdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdCd</t>
+  </si>
+  <si>
+    <t>recomDt</t>
+  </si>
+  <si>
+    <t>pdCmpnIntrdc</t>
+  </si>
+  <si>
+    <t>产品代码</t>
+  </si>
+  <si>
+    <t>推荐日期</t>
+  </si>
+  <si>
+    <t>营销话术</t>
+  </si>
+  <si>
+    <t>flwInOutFlg</t>
+  </si>
+  <si>
+    <t>txnCtgry</t>
+  </si>
+  <si>
+    <t>txnStco</t>
+  </si>
+  <si>
+    <t>txnAmt</t>
+  </si>
+  <si>
+    <t>统计开始日期</t>
+  </si>
+  <si>
+    <t>统计结束日期</t>
+  </si>
+  <si>
+    <t>流入流出标志</t>
+  </si>
+  <si>
+    <t>交易类别</t>
+  </si>
+  <si>
+    <t>交易笔数</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>交易笔数汇总</t>
+  </si>
+  <si>
+    <t>交易金额汇总</t>
+  </si>
+  <si>
+    <t>queryCustTranFlowInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易行为分析查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否持有活期存款</t>
+  </si>
+  <si>
+    <t>是否持有定期存款</t>
+  </si>
+  <si>
+    <t>是否持有理财</t>
+  </si>
+  <si>
+    <t>是否持有基金</t>
+  </si>
+  <si>
+    <t>是否持有保险</t>
+  </si>
+  <si>
+    <t>是否持有信托</t>
+  </si>
+  <si>
+    <t>HOLD_CURR_DPSIT</t>
+  </si>
+  <si>
+    <t>HOLD_TIME_DPSIT</t>
+  </si>
+  <si>
+    <t>HOLD_LOAN</t>
+  </si>
+  <si>
+    <t>HOLD_CFT</t>
+  </si>
+  <si>
+    <t>HOLD_FND</t>
+  </si>
+  <si>
+    <t>HOLD_INS</t>
+  </si>
+  <si>
+    <t>HOLD_ENTRST</t>
+  </si>
+  <si>
+    <t>是否签约网上银行</t>
+  </si>
+  <si>
+    <t>是否签约微信银行</t>
+  </si>
+  <si>
+    <t>是否签约九银合伙人</t>
+  </si>
+  <si>
+    <t>是否签约手机银行</t>
+  </si>
+  <si>
+    <t>SGN_WBANK</t>
+  </si>
+  <si>
+    <t>SGN_ALPY</t>
+  </si>
+  <si>
+    <t>SGN_WCHT_BNK</t>
+  </si>
+  <si>
+    <t>SGN_WCHT_PYMT</t>
+  </si>
+  <si>
+    <t>SGN_YSF</t>
+  </si>
+  <si>
+    <t>SGN_JYHHR</t>
+  </si>
+  <si>
+    <t>SGN_MOBBANK</t>
+  </si>
+  <si>
+    <t>查询商机列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCmrcOpportunityList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>custNm</t>
+  </si>
+  <si>
+    <t>cmrcOpptId</t>
+  </si>
+  <si>
+    <t>cmrcOpptNm</t>
+  </si>
+  <si>
+    <t>cmrcOpptStNm</t>
+  </si>
+  <si>
+    <t>cmrcOpptBclass</t>
+  </si>
+  <si>
+    <t>cmrcOpptSubclass</t>
+  </si>
+  <si>
+    <t>cmrcOpptDsc</t>
+  </si>
+  <si>
+    <t>ctcTel</t>
+  </si>
+  <si>
+    <t>recomRea</t>
+  </si>
+  <si>
+    <t>svcLvlNm</t>
+  </si>
+  <si>
+    <t>aumDifVal</t>
+  </si>
+  <si>
+    <t>aumHistHestVal</t>
+  </si>
+  <si>
+    <t>basicCstCnt</t>
+  </si>
+  <si>
+    <t>主键ID</t>
+  </si>
+  <si>
+    <t>商机编号</t>
+  </si>
+  <si>
+    <t>商机名称</t>
+  </si>
+  <si>
+    <t>商机状态名称</t>
+  </si>
+  <si>
+    <t>商机大类</t>
+  </si>
+  <si>
+    <t>商机明细类</t>
+  </si>
+  <si>
+    <t>商机细类名称</t>
+  </si>
+  <si>
+    <t>商机到期日</t>
+  </si>
+  <si>
+    <t>商机描述</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>跟进人</t>
+  </si>
+  <si>
+    <t>跟进人名称</t>
+  </si>
+  <si>
+    <t>商机关键</t>
+  </si>
+  <si>
+    <t>推荐理由</t>
+  </si>
+  <si>
+    <t>服务等级</t>
+  </si>
+  <si>
+    <t>服务等级名称</t>
+  </si>
+  <si>
+    <t>AUM极差额</t>
+  </si>
+  <si>
+    <t>AUM历史最高资产</t>
+  </si>
+  <si>
+    <t>代发客户标志</t>
+  </si>
+  <si>
+    <t>基础客户标志</t>
+  </si>
+  <si>
+    <t>跟进日期</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">queryCustFinaAcctInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>queryCustFinaTranInfo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">理财产品明细查询
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理财交易明细查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctSt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usablBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cntrlAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctBal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acctStCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnStcoCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txnAmtCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sticStartDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sticEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmrcOpptSt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmrcOpptSubclassNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyWords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUpPrsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUpPrsnNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmrcOpptExpDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUpDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +2433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1621,6 +2443,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1893,7 +2738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,6 +2773,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1961,60 +2828,83 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2322,10 +3212,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2336,8 +3226,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2346,8 +3236,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2356,8 +3246,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +3256,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2378,8 +3268,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -2388,8 +3278,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -2398,8 +3288,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -2408,8 +3298,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2420,8 +3310,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -2430,8 +3320,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2440,8 +3330,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2450,8 +3340,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2462,8 +3352,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2472,8 +3362,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2482,8 +3372,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2492,8 +3382,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2504,8 +3394,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2514,8 +3404,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2524,8 +3414,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -2534,8 +3424,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2546,8 +3436,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2556,8 +3446,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2566,8 +3456,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2620,10 +3510,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2634,8 +3524,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -2644,8 +3534,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -2654,8 +3544,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -2664,8 +3554,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2676,8 +3566,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -2686,8 +3576,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -2696,8 +3586,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2708,8 +3598,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -2718,8 +3608,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2728,8 +3618,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2740,8 +3630,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -2750,8 +3640,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -2760,8 +3650,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -2770,8 +3660,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2782,8 +3672,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -2792,8 +3682,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -2802,8 +3692,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2814,8 +3704,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -2824,8 +3714,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -2834,8 +3724,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -2844,8 +3734,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2856,8 +3746,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -2866,8 +3756,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -2876,8 +3766,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2888,8 +3778,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -2898,8 +3788,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -2908,8 +3798,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2920,8 +3810,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -2930,8 +3820,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -2940,8 +3830,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2952,8 +3842,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -2962,8 +3852,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -2972,8 +3862,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2984,8 +3874,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -2994,7 +3884,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3003,7 +3893,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="32" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3014,7 +3904,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3023,7 +3913,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -3082,11 +3972,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="32" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3094,33 +3984,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="20"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="20"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="20"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3128,33 +4018,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3162,33 +4052,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="20"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3196,33 +4086,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3230,33 +4120,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="26"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3264,33 +4154,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="26"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="26"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3298,31 +4188,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="20"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="20"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -3332,7 +4222,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -3342,7 +4232,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -3352,7 +4242,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -3362,7 +4252,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -3372,7 +4262,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -3382,7 +4272,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -3392,7 +4282,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -3402,7 +4292,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -3412,7 +4302,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -3422,7 +4312,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -3432,7 +4322,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -3442,7 +4332,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -3452,7 +4342,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -3462,7 +4352,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -3472,7 +4362,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -3482,7 +4372,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -3492,7 +4382,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -3502,7 +4392,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -3512,7 +4402,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -3522,7 +4412,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -3575,10 +4465,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3586,29 +4476,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3616,29 +4506,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3646,29 +4536,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3676,28 +4566,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -3706,7 +4596,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -3715,7 +4605,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -3724,7 +4614,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -3733,7 +4623,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -3742,7 +4632,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -3751,7 +4641,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -3760,7 +4650,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -3769,7 +4659,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -3778,7 +4668,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -3787,7 +4677,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -3796,7 +4686,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -3805,7 +4695,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -3814,7 +4704,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -3823,7 +4713,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -3832,7 +4722,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -3841,7 +4731,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -3850,7 +4740,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -3859,7 +4749,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -3868,7 +4758,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -3877,7 +4767,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -3938,7 +4828,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="32" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3946,31 +4836,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="32" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -3978,13 +4868,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -4011,41 +4901,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:5" s="21" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="52" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -4056,9 +4946,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="14" t="s">
         <v>260</v>
       </c>
@@ -4067,9 +4957,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
@@ -4078,9 +4968,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="14" t="s">
         <v>262</v>
       </c>
@@ -4089,9 +4979,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
@@ -4100,9 +4990,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="14" t="s">
         <v>264</v>
       </c>
@@ -4111,9 +5001,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="14" t="s">
         <v>265</v>
       </c>
@@ -4122,9 +5012,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="14" t="s">
         <v>266</v>
       </c>
@@ -4133,9 +5023,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="14" t="s">
         <v>267</v>
       </c>
@@ -4144,9 +5034,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="14" t="s">
         <v>268</v>
       </c>
@@ -4155,9 +5045,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="14" t="s">
         <v>269</v>
       </c>
@@ -4166,9 +5056,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="14" t="s">
         <v>270</v>
       </c>
@@ -4177,9 +5067,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="14" t="s">
         <v>271</v>
       </c>
@@ -4188,9 +5078,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="14" t="s">
         <v>272</v>
       </c>
@@ -4199,9 +5089,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="14" t="s">
         <v>273</v>
       </c>
@@ -4210,9 +5100,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="14" t="s">
         <v>274</v>
       </c>
@@ -4221,9 +5111,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="14" t="s">
         <v>275</v>
       </c>
@@ -4232,9 +5122,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="14" t="s">
         <v>276</v>
       </c>
@@ -4243,9 +5133,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="14" t="s">
         <v>277</v>
       </c>
@@ -4254,9 +5144,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
@@ -4265,9 +5155,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
@@ -4276,9 +5166,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
@@ -4287,9 +5177,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="14" t="s">
         <v>281</v>
       </c>
@@ -4298,9 +5188,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="15" t="s">
         <v>287</v>
       </c>
@@ -4309,9 +5199,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="15" t="s">
         <v>288</v>
       </c>
@@ -4387,13 +5277,13 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="15" t="s">
         <v>308</v>
       </c>
@@ -4402,9 +5292,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="15" t="s">
         <v>304</v>
       </c>
@@ -4413,9 +5303,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="15" t="s">
         <v>305</v>
       </c>
@@ -4424,9 +5314,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="15" t="s">
         <v>306</v>
       </c>
@@ -4435,9 +5325,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="2" t="s">
         <v>307</v>
       </c>
@@ -4529,873 +5419,2760 @@
       <c r="B48" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="42" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="24" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="32"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="25" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="25" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="32"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="25" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="32"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="25" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="32"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="25" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="32"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="25" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="32"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E58" s="25" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="32"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="25" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="32"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="25" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="32"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="25" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="32"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="25" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="32"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="25" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="32"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="25" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="32"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="25" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="32"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="25" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="32"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="25" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="32"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="25" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="32"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="32"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="25" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="32"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="32"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="25" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="32"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="32"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="32"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="32"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="25" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="32"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E77" s="45" t="s">
+      <c r="E77" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="32"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E78" s="45" t="s">
+      <c r="E78" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="32"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="32"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="32"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="32"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="25" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="32"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="32"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E84" s="45" t="s">
+      <c r="E84" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="32"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E85" s="45" t="s">
+      <c r="E85" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="32"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="32"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="32"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E88" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="32"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="25" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="32"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E90" s="45" t="s">
+      <c r="E90" s="25" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="32"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="25" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="32"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="25" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="25" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E95" s="45" t="s">
+      <c r="E95" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="32"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="45" t="s">
+      <c r="E96" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="46"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="27" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E98" s="43" t="s">
+      <c r="E98" s="24" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="25" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E100" s="45" t="s">
+      <c r="E100" s="25" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E101" s="45" t="s">
+      <c r="E101" s="25" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E102" s="45" t="s">
+      <c r="E102" s="25" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="25" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E104" s="45" t="s">
+      <c r="E104" s="25" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E105" s="45" t="s">
+      <c r="E105" s="25" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
       <c r="D106" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E106" s="45" t="s">
+      <c r="E106" s="25" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
       <c r="D107" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E107" s="45" t="s">
+      <c r="E107" s="25" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
       <c r="D108" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E108" s="45" t="s">
+      <c r="E108" s="25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
       <c r="D109" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E109" s="45" t="s">
+      <c r="E109" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
       <c r="D110" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E110" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E111" s="45" t="s">
+      <c r="E111" s="25" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="20"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
       <c r="D112" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E112" s="45" t="s">
+      <c r="E112" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
       <c r="D113" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E113" s="45" t="s">
+      <c r="E113" s="25" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
       <c r="D114" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E114" s="45" t="s">
+      <c r="E114" s="25" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
       <c r="D115" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E115" s="45" t="s">
+      <c r="E115" s="25" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
       <c r="D116" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E116" s="45" t="s">
+      <c r="E116" s="25" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E117" s="45" t="s">
+      <c r="E117" s="25" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
       <c r="D118" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E118" s="45" t="s">
+      <c r="E118" s="25" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E119" s="45" t="s">
+      <c r="E119" s="25" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E120" s="45" t="s">
+      <c r="E120" s="25" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E121" s="45" t="s">
+      <c r="E121" s="25" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="20"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E122" s="45" t="s">
+      <c r="E122" s="25" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E123" s="45" t="s">
+      <c r="E123" s="25" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="46"/>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="49" t="s">
+      <c r="A124" s="43"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="27" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A49:A97"/>
-    <mergeCell ref="B49:C97"/>
-    <mergeCell ref="B98:B124"/>
-    <mergeCell ref="A98:A124"/>
-    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A49:A97"/>
+    <mergeCell ref="B49:C97"/>
+    <mergeCell ref="B98:B124"/>
+    <mergeCell ref="A98:A124"/>
+    <mergeCell ref="C98:C124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>621</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="66" t="s">
+        <v>616</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="66" t="s">
+        <v>627</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>674</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>678</v>
+      </c>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74" t="s">
+        <v>594</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D42" s="61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="B91" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="42"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="42"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="42"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="43"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+    </row>
+    <row r="122" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="55"/>
+      <c r="B122" s="55"/>
+    </row>
+    <row r="123" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="55"/>
+      <c r="B123" s="55"/>
+    </row>
+    <row r="124" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
+    </row>
+    <row r="125" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
+    </row>
+    <row r="126" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+    </row>
+    <row r="127" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="A91:A102"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="B47:B64"/>
+    <mergeCell ref="A47:A64"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="A78:A90"/>
+    <mergeCell ref="A9:A30"/>
+    <mergeCell ref="B9:B30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71AD1F6-E285-4BF1-BE32-F953531C9710}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+    </row>
+    <row r="12" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+    </row>
+    <row r="14" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+    </row>
+    <row r="15" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+    </row>
+    <row r="17" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7759682-1C35-4E4F-9670-431A7ECC17AD}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B38"/>
+    <mergeCell ref="A2:A38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714FFE6-7C92-478E-BDF1-DF22C8332AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD57C70-6BB6-405D-A147-D53BA8B6B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -1874,31 +1874,19 @@
     <t>cftAcctNo</t>
   </si>
   <si>
-    <t>prchsdAmt</t>
-  </si>
-  <si>
     <t>acctBal</t>
   </si>
   <si>
-    <t>stIntDt</t>
-  </si>
-  <si>
     <t>expDayPrd</t>
   </si>
   <si>
     <t>acctStCd</t>
   </si>
   <si>
-    <t>prchsdDt</t>
-  </si>
-  <si>
     <t>otpuBeginDt</t>
   </si>
   <si>
     <t>otpuEndDt</t>
-  </si>
-  <si>
-    <t>cnlKnd</t>
   </si>
   <si>
     <t>fndCd</t>
@@ -2426,6 +2414,22 @@
   </si>
   <si>
     <t>sysId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prchsdAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prchsdDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stIntDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnlKnd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2795,6 +2799,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2828,6 +2851,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2855,56 +2884,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3212,10 +3216,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3226,8 +3230,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3236,8 +3240,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3246,8 +3250,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3256,8 +3260,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3268,8 +3272,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -3278,8 +3282,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3288,8 +3292,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -3298,8 +3302,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3310,8 +3314,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3320,8 +3324,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3330,8 +3334,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3340,8 +3344,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3352,8 +3356,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3362,8 +3366,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3372,8 +3376,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3382,8 +3386,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3394,8 +3398,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3404,8 +3408,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -3414,8 +3418,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3424,8 +3428,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3436,8 +3440,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3446,8 +3450,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3456,8 +3460,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3510,10 +3514,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="53" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3524,8 +3528,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3534,8 +3538,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3544,8 +3548,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -3554,8 +3558,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3566,8 +3570,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -3576,8 +3580,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -3586,8 +3590,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3598,8 +3602,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3608,8 +3612,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3618,8 +3622,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3630,8 +3634,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -3640,8 +3644,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -3650,8 +3654,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3660,8 +3664,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3672,8 +3676,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3682,8 +3686,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3692,8 +3696,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="52" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3704,8 +3708,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -3714,8 +3718,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3724,8 +3728,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -3734,8 +3738,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3746,8 +3750,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3756,8 +3760,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3766,8 +3770,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3778,8 +3782,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3788,8 +3792,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -3798,8 +3802,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3810,8 +3814,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3820,8 +3824,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -3830,8 +3834,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3842,8 +3846,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -3852,8 +3856,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -3862,8 +3866,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3874,8 +3878,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3884,7 +3888,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3893,7 +3897,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3904,7 +3908,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="32"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3913,7 +3917,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -3972,11 +3976,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3984,33 +3988,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="32"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="32"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="32"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4018,33 +4022,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="32"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4052,33 +4056,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="32"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="32"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4086,33 +4090,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="38"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="38"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="38"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4120,33 +4124,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="38"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="38"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4154,33 +4158,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="38"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="38"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="38"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="49" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4188,31 +4192,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -4222,7 +4226,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -4232,7 +4236,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -4242,7 +4246,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -4252,7 +4256,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -4262,7 +4266,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -4272,7 +4276,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -4282,7 +4286,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -4292,7 +4296,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -4302,7 +4306,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -4312,7 +4316,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -4322,7 +4326,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -4332,7 +4336,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -4342,7 +4346,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -4352,7 +4356,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -4362,7 +4366,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -4372,7 +4376,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -4382,7 +4386,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -4392,7 +4396,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -4402,7 +4406,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -4412,7 +4416,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -4465,10 +4469,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4476,29 +4480,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4506,29 +4510,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4536,29 +4540,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -4566,28 +4570,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -4596,7 +4600,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -4605,7 +4609,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -4614,7 +4618,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -4623,7 +4627,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -4632,7 +4636,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -4641,7 +4645,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -4650,7 +4654,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -4659,7 +4663,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4668,7 +4672,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -4677,7 +4681,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -4686,7 +4690,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -4695,7 +4699,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -4704,7 +4708,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -4713,7 +4717,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -4722,7 +4726,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -4731,7 +4735,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -4740,7 +4744,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -4749,7 +4753,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -4758,7 +4762,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -4767,7 +4771,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -4828,7 +4832,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4836,31 +4840,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4868,13 +4872,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -4929,13 +4933,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="58" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -4946,9 +4950,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="14" t="s">
         <v>260</v>
       </c>
@@ -4957,9 +4961,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
@@ -4968,9 +4972,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="14" t="s">
         <v>262</v>
       </c>
@@ -4979,9 +4983,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
@@ -4990,9 +4994,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="14" t="s">
         <v>264</v>
       </c>
@@ -5001,9 +5005,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="53"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="14" t="s">
         <v>265</v>
       </c>
@@ -5012,9 +5016,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="14" t="s">
         <v>266</v>
       </c>
@@ -5023,9 +5027,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="53"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="14" t="s">
         <v>267</v>
       </c>
@@ -5034,9 +5038,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="14" t="s">
         <v>268</v>
       </c>
@@ -5045,9 +5049,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="14" t="s">
         <v>269</v>
       </c>
@@ -5056,9 +5060,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14" t="s">
         <v>270</v>
       </c>
@@ -5067,9 +5071,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="14" t="s">
         <v>271</v>
       </c>
@@ -5078,9 +5082,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="14" t="s">
         <v>272</v>
       </c>
@@ -5089,9 +5093,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="14" t="s">
         <v>273</v>
       </c>
@@ -5100,9 +5104,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="14" t="s">
         <v>274</v>
       </c>
@@ -5111,9 +5115,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="14" t="s">
         <v>275</v>
       </c>
@@ -5122,9 +5126,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="14" t="s">
         <v>276</v>
       </c>
@@ -5133,9 +5137,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="53"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="14" t="s">
         <v>277</v>
       </c>
@@ -5144,9 +5148,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
@@ -5155,9 +5159,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
@@ -5166,9 +5170,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
@@ -5177,9 +5181,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="53"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="14" t="s">
         <v>281</v>
       </c>
@@ -5188,9 +5192,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="15" t="s">
         <v>287</v>
       </c>
@@ -5199,9 +5203,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="15" t="s">
         <v>288</v>
       </c>
@@ -5277,13 +5281,13 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="15" t="s">
         <v>308</v>
       </c>
@@ -5292,9 +5296,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="15" t="s">
         <v>304</v>
       </c>
@@ -5303,9 +5307,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="15" t="s">
         <v>305</v>
       </c>
@@ -5314,9 +5318,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="15" t="s">
         <v>306</v>
       </c>
@@ -5325,9 +5329,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="2" t="s">
         <v>307</v>
       </c>
@@ -5424,13 +5428,13 @@
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="C49" s="45"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="23" t="s">
         <v>259</v>
       </c>
@@ -5439,9 +5443,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
@@ -5450,9 +5454,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="2" t="s">
         <v>379</v>
       </c>
@@ -5461,9 +5465,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
         <v>380</v>
       </c>
@@ -5472,9 +5476,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
@@ -5483,9 +5487,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
         <v>382</v>
       </c>
@@ -5494,9 +5498,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="2" t="s">
         <v>383</v>
       </c>
@@ -5505,9 +5509,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="2" t="s">
         <v>384</v>
       </c>
@@ -5516,9 +5520,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
@@ -5527,9 +5531,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="2" t="s">
         <v>385</v>
       </c>
@@ -5538,9 +5542,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="2" t="s">
         <v>386</v>
       </c>
@@ -5549,9 +5553,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
@@ -5560,9 +5564,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="2" t="s">
         <v>388</v>
       </c>
@@ -5571,9 +5575,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="2" t="s">
         <v>389</v>
       </c>
@@ -5582,9 +5586,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
@@ -5593,9 +5597,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="2" t="s">
         <v>390</v>
       </c>
@@ -5604,9 +5608,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="2" t="s">
         <v>391</v>
       </c>
@@ -5615,9 +5619,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="2" t="s">
         <v>392</v>
       </c>
@@ -5626,9 +5630,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
@@ -5637,9 +5641,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="2" t="s">
         <v>393</v>
       </c>
@@ -5648,9 +5652,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="2" t="s">
         <v>394</v>
       </c>
@@ -5659,9 +5663,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="2" t="s">
         <v>395</v>
       </c>
@@ -5670,9 +5674,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="2" t="s">
         <v>162</v>
       </c>
@@ -5681,9 +5685,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="47"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="2" t="s">
         <v>396</v>
       </c>
@@ -5692,9 +5696,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
@@ -5703,9 +5707,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="2" t="s">
         <v>398</v>
       </c>
@@ -5714,9 +5718,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="2" t="s">
         <v>159</v>
       </c>
@@ -5725,9 +5729,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="47"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="2" t="s">
         <v>399</v>
       </c>
@@ -5736,9 +5740,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="2" t="s">
         <v>400</v>
       </c>
@@ -5747,9 +5751,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="47"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="2" t="s">
         <v>401</v>
       </c>
@@ -5758,9 +5762,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="2" t="s">
         <v>156</v>
       </c>
@@ -5769,9 +5773,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="47"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="2" t="s">
         <v>402</v>
       </c>
@@ -5780,9 +5784,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="2" t="s">
         <v>403</v>
       </c>
@@ -5791,9 +5795,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="47"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="2" t="s">
         <v>404</v>
       </c>
@@ -5802,9 +5806,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="2" t="s">
         <v>405</v>
       </c>
@@ -5813,9 +5817,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="2" t="s">
         <v>406</v>
       </c>
@@ -5824,9 +5828,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="2" t="s">
         <v>407</v>
       </c>
@@ -5835,9 +5839,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
@@ -5846,9 +5850,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="2" t="s">
         <v>409</v>
       </c>
@@ -5857,9 +5861,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="47"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="2" t="s">
         <v>410</v>
       </c>
@@ -5868,9 +5872,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="2" t="s">
         <v>411</v>
       </c>
@@ -5879,9 +5883,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="47"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="2" t="s">
         <v>412</v>
       </c>
@@ -5890,9 +5894,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="2" t="s">
         <v>413</v>
       </c>
@@ -5901,9 +5905,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="2" t="s">
         <v>414</v>
       </c>
@@ -5912,9 +5916,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
       <c r="D93" s="2" t="s">
         <v>415</v>
       </c>
@@ -5923,9 +5927,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="47"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="2" t="s">
         <v>416</v>
       </c>
@@ -5934,9 +5938,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="2" t="s">
         <v>417</v>
       </c>
@@ -5945,9 +5949,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="47"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="2" t="s">
         <v>418</v>
       </c>
@@ -5956,9 +5960,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="68"/>
       <c r="D97" s="26" t="s">
         <v>419</v>
       </c>
@@ -5967,13 +5971,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="69" t="s">
         <v>459</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -5984,9 +5988,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="2" t="s">
         <v>380</v>
       </c>
@@ -5995,9 +5999,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="2" t="s">
         <v>381</v>
       </c>
@@ -6006,9 +6010,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="2" t="s">
         <v>382</v>
       </c>
@@ -6017,9 +6021,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="49"/>
       <c r="D102" s="2" t="s">
         <v>383</v>
       </c>
@@ -6028,9 +6032,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="2" t="s">
         <v>444</v>
       </c>
@@ -6039,9 +6043,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="2" t="s">
         <v>445</v>
       </c>
@@ -6050,9 +6054,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="2" t="s">
         <v>446</v>
       </c>
@@ -6061,9 +6065,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="2" t="s">
         <v>387</v>
       </c>
@@ -6072,9 +6076,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="2" t="s">
         <v>384</v>
       </c>
@@ -6083,9 +6087,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="2" t="s">
         <v>390</v>
       </c>
@@ -6094,9 +6098,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="2" t="s">
         <v>399</v>
       </c>
@@ -6105,9 +6109,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="2" t="s">
         <v>396</v>
       </c>
@@ -6116,9 +6120,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
       <c r="D111" s="2" t="s">
         <v>393</v>
       </c>
@@ -6127,9 +6131,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="2" t="s">
         <v>402</v>
       </c>
@@ -6138,9 +6142,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="2" t="s">
         <v>447</v>
       </c>
@@ -6149,9 +6153,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
       <c r="D114" s="2" t="s">
         <v>448</v>
       </c>
@@ -6160,9 +6164,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="2" t="s">
         <v>449</v>
       </c>
@@ -6171,9 +6175,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="2" t="s">
         <v>450</v>
       </c>
@@ -6182,9 +6186,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="2" t="s">
         <v>451</v>
       </c>
@@ -6193,9 +6197,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="2" t="s">
         <v>452</v>
       </c>
@@ -6204,9 +6208,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="49"/>
       <c r="D119" s="2" t="s">
         <v>453</v>
       </c>
@@ -6215,9 +6219,9 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="2" t="s">
         <v>454</v>
       </c>
@@ -6226,9 +6230,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="2" t="s">
         <v>455</v>
       </c>
@@ -6237,9 +6241,9 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="2" t="s">
         <v>456</v>
       </c>
@@ -6248,9 +6252,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="2" t="s">
         <v>457</v>
       </c>
@@ -6259,9 +6263,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="26" t="s">
         <v>458</v>
       </c>
@@ -6272,17 +6276,17 @@
     <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:A97"/>
+    <mergeCell ref="B49:C97"/>
+    <mergeCell ref="B98:B124"/>
+    <mergeCell ref="A98:A124"/>
+    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A49:A97"/>
-    <mergeCell ref="B49:C97"/>
-    <mergeCell ref="B98:B124"/>
-    <mergeCell ref="A98:A124"/>
-    <mergeCell ref="C98:C124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6294,9 +6298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6333,158 +6337,158 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>611</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>617</v>
-      </c>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>624</v>
       </c>
-      <c r="H2" s="59" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32"/>
+    </row>
+    <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="32"/>
+        <v>608</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="60" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>619</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="32"/>
+        <v>621</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>620</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="32"/>
+        <v>609</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="60" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>621</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="32"/>
+        <v>610</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="60" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="D7" s="60" t="s">
+        <v>611</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="66" t="s">
-        <v>616</v>
-      </c>
-      <c r="D8" s="67" t="s">
+      <c r="H7" s="32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="37" t="s">
         <v>623</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="66" t="s">
-        <v>627</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="H8" s="38" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="77" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>587</v>
+      <c r="E9" s="60" t="s">
+        <v>584</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>583</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>259</v>
@@ -6493,397 +6497,397 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="32"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="32"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="32"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="32"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="32"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="32"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="32"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="26" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="32"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>674</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>590</v>
-      </c>
-      <c r="G15" s="70" t="s">
+      <c r="D15" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>585</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>586</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="32"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>678</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74" t="s">
-        <v>594</v>
-      </c>
-      <c r="H16" s="75" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="42" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="32"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="32"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="32" t="s">
         <v>471</v>
       </c>
       <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="H19" s="79" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="32"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="60" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="32"/>
+      <c r="D20" s="32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="32" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="32"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="32" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="32"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="32" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="32"/>
+    <row r="24" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="32" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="32"/>
+    <row r="25" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="32" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="32"/>
+    <row r="26" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="32" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="32"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="32" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="32"/>
+    <row r="28" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="32" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="32"/>
+    <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="61"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="62" t="s">
+      <c r="D29" s="33" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="D30" s="35" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="36" t="s">
         <v>259</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="32"/>
+    <row r="32" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="61"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="33" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="32"/>
+    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="61"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="33" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="32"/>
+    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="33" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="32"/>
+    <row r="35" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="33" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="32"/>
+    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="32"/>
+    <row r="37" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="33" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="32"/>
+    <row r="38" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="33" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="32"/>
+    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="61"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="33" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="32"/>
+    <row r="40" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="61"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
@@ -6891,59 +6895,59 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="32"/>
+    <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D41" s="33" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="32"/>
+    <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="33" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="32"/>
+    <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="33" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="32"/>
+    <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="33" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="32"/>
+    <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="61"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="61" t="s">
+      <c r="D45" s="33" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="51"/>
+    <row r="46" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="26" t="s">
         <v>498</v>
       </c>
@@ -6951,12 +6955,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>672</v>
+    <row r="47" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="79" t="s">
+        <v>669</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>668</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>259</v>
@@ -6965,9 +6969,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="37"/>
+    <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
       </c>
@@ -6975,9 +6979,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="37"/>
+    <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
       </c>
@@ -6985,9 +6989,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="37"/>
+    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="61"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
       </c>
@@ -6995,59 +6999,59 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="37"/>
+    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="37"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="61"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="37"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="61"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="37"/>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="37"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="61"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="37"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
@@ -7055,49 +7059,49 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="37"/>
+    <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="61"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="37"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="37"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="37"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="37"/>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
       </c>
@@ -7105,9 +7109,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="37"/>
+    <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
       </c>
@@ -7115,9 +7119,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="37"/>
+    <row r="63" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
       </c>
@@ -7125,9 +7129,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43"/>
-      <c r="B64" s="65"/>
+    <row r="64" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="62"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="26" t="s">
         <v>273</v>
       </c>
@@ -7135,12 +7139,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>554</v>
+    <row r="65" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>550</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>259</v>
@@ -7149,9 +7153,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="32"/>
+    <row r="66" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
@@ -7159,69 +7163,69 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="32"/>
+    <row r="67" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="61"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D71" s="25" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="2" t="s">
+    <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="61"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D72" s="25" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="32"/>
+    <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
       </c>
@@ -7229,9 +7233,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="32"/>
+    <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
       </c>
@@ -7239,9 +7243,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="32"/>
+    <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="61"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
       </c>
@@ -7249,9 +7253,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="32"/>
+    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
       </c>
@@ -7259,9 +7263,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="51"/>
+    <row r="77" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="62"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="26" t="s">
         <v>498</v>
       </c>
@@ -7269,12 +7273,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="B78" s="50" t="s">
-        <v>571</v>
+    <row r="78" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="60" t="s">
+        <v>568</v>
+      </c>
+      <c r="B78" s="69" t="s">
+        <v>567</v>
       </c>
       <c r="C78" s="23" t="s">
         <v>259</v>
@@ -7283,89 +7287,89 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="32"/>
+    <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="61"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="61"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="61"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="61"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="61"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D83" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="2" t="s">
+    <row r="84" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D84" s="25" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="2" t="s">
+    <row r="85" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="61"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="61"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="32"/>
+    <row r="87" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
       </c>
@@ -7373,9 +7377,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="32"/>
+    <row r="88" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="61"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
       </c>
@@ -7383,9 +7387,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="32"/>
+    <row r="89" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="61"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
       </c>
@@ -7393,9 +7397,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="43"/>
-      <c r="B90" s="51"/>
+    <row r="90" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="62"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="26" t="s">
         <v>273</v>
       </c>
@@ -7403,12 +7407,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="B91" s="50" t="s">
-        <v>575</v>
+    <row r="91" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="60" t="s">
+        <v>572</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>571</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>259</v>
@@ -7417,19 +7421,19 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="32"/>
+    <row r="92" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="61"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="32"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="61"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
       </c>
@@ -7437,9 +7441,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="32"/>
+    <row r="94" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="61"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
       </c>
@@ -7447,9 +7451,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="32"/>
+    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="61"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
       </c>
@@ -7457,39 +7461,39 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="32"/>
+    <row r="96" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="61"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="32"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="61"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="32"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="61"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="32"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="61"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
       </c>
@@ -7497,9 +7501,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="32"/>
+    <row r="100" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="61"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
       </c>
@@ -7507,9 +7511,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="32"/>
+    <row r="101" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="61"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
@@ -7517,9 +7521,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="43"/>
-      <c r="B102" s="51"/>
+    <row r="102" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="62"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="26" t="s">
         <v>273</v>
       </c>
@@ -7527,74 +7531,74 @@
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="55"/>
-      <c r="B121" s="55"/>
-    </row>
-    <row r="122" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="55"/>
-      <c r="B122" s="55"/>
-    </row>
-    <row r="123" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="55"/>
-      <c r="B123" s="55"/>
-    </row>
-    <row r="124" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
-      <c r="B124" s="55"/>
-    </row>
-    <row r="125" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
-      <c r="B125" s="55"/>
-    </row>
-    <row r="126" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
-      <c r="B126" s="55"/>
-    </row>
-    <row r="127" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="B127" s="55"/>
+    <row r="103" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+    </row>
+    <row r="122" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+    </row>
+    <row r="123" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+    </row>
+    <row r="124" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="29"/>
+    </row>
+    <row r="125" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="29"/>
+    </row>
+    <row r="126" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+    </row>
+    <row r="127" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="B47:B64"/>
+    <mergeCell ref="A47:A64"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="A9:A30"/>
+    <mergeCell ref="B9:B30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="B91:B102"/>
     <mergeCell ref="A91:A102"/>
     <mergeCell ref="F9:F14"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E9:E14"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="B47:B64"/>
-    <mergeCell ref="A47:A64"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="A65:A77"/>
     <mergeCell ref="B78:B90"/>
     <mergeCell ref="A78:A90"/>
-    <mergeCell ref="A9:A30"/>
-    <mergeCell ref="B9:B30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7631,12 +7635,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>609</v>
+    <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>605</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>259</v>
@@ -7645,113 +7649,113 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="2" t="s">
+      <c r="D7" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+      <c r="D8" s="25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="2" t="s">
+      <c r="D9" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="54" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="26" t="s">
-        <v>608</v>
-      </c>
       <c r="D10" s="27" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-    </row>
-    <row r="12" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-    </row>
-    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-    </row>
-    <row r="14" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-    </row>
-    <row r="15" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-    </row>
-    <row r="16" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-    </row>
-    <row r="17" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7768,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7759682-1C35-4E4F-9670-431A7ECC17AD}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -7792,163 +7796,163 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="54" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>636</v>
+    <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>632</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="32"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="32"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="2" t="s">
+    <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="2" t="s">
+    <row r="11" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D11" s="25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="2" t="s">
+    <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="D7" s="25" t="s">
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="32"/>
+    <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
       </c>
@@ -7957,8 +7961,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
       </c>
@@ -7967,68 +7971,68 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
       </c>
@@ -8037,8 +8041,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
@@ -8047,8 +8051,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
       </c>
@@ -8057,8 +8061,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
@@ -8067,8 +8071,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
@@ -8077,8 +8081,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
       </c>
@@ -8087,8 +8091,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
       </c>
@@ -8097,8 +8101,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
       </c>
@@ -8107,8 +8111,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
       </c>
@@ -8117,8 +8121,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
       </c>
@@ -8127,18 +8131,18 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
@@ -8147,23 +8151,23 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="70"/>
       <c r="C38" s="26" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD57C70-6BB6-405D-A147-D53BA8B6B1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FCFEB-A855-49AD-8A4D-893418CFBD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -2851,12 +2851,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2884,6 +2878,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2901,13 +2908,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4905,9 +4905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4939,7 +4939,7 @@
       <c r="B2" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="69" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -4952,7 +4952,7 @@
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="14" t="s">
         <v>260</v>
       </c>
@@ -4963,7 +4963,7 @@
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
-      <c r="C4" s="59"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
@@ -4974,7 +4974,7 @@
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="59"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="14" t="s">
         <v>262</v>
       </c>
@@ -4985,7 +4985,7 @@
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
@@ -4996,7 +4996,7 @@
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="14" t="s">
         <v>264</v>
       </c>
@@ -5007,7 +5007,7 @@
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
-      <c r="C8" s="59"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="14" t="s">
         <v>265</v>
       </c>
@@ -5018,7 +5018,7 @@
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="14" t="s">
         <v>266</v>
       </c>
@@ -5029,7 +5029,7 @@
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="14" t="s">
         <v>267</v>
       </c>
@@ -5040,7 +5040,7 @@
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="59"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="14" t="s">
         <v>268</v>
       </c>
@@ -5051,7 +5051,7 @@
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="59"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="14" t="s">
         <v>269</v>
       </c>
@@ -5062,7 +5062,7 @@
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="14" t="s">
         <v>270</v>
       </c>
@@ -5073,7 +5073,7 @@
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="59"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="14" t="s">
         <v>271</v>
       </c>
@@ -5084,7 +5084,7 @@
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="14" t="s">
         <v>272</v>
       </c>
@@ -5095,7 +5095,7 @@
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="14" t="s">
         <v>273</v>
       </c>
@@ -5106,7 +5106,7 @@
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="14" t="s">
         <v>274</v>
       </c>
@@ -5117,7 +5117,7 @@
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="14" t="s">
         <v>275</v>
       </c>
@@ -5128,7 +5128,7 @@
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="14" t="s">
         <v>276</v>
       </c>
@@ -5139,7 +5139,7 @@
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="59"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="14" t="s">
         <v>277</v>
       </c>
@@ -5150,7 +5150,7 @@
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
@@ -5161,7 +5161,7 @@
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="59"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
@@ -5172,7 +5172,7 @@
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="59"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
@@ -5183,7 +5183,7 @@
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="59"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="14" t="s">
         <v>281</v>
       </c>
@@ -5428,13 +5428,13 @@
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="23" t="s">
         <v>259</v>
       </c>
@@ -5443,9 +5443,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
@@ -5454,9 +5454,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="2" t="s">
         <v>379</v>
       </c>
@@ -5465,9 +5465,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="2" t="s">
         <v>380</v>
       </c>
@@ -5476,9 +5476,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
@@ -5487,9 +5487,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="2" t="s">
         <v>382</v>
       </c>
@@ -5498,9 +5498,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="2" t="s">
         <v>383</v>
       </c>
@@ -5509,9 +5509,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="2" t="s">
         <v>384</v>
       </c>
@@ -5520,9 +5520,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
@@ -5531,9 +5531,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="2" t="s">
         <v>385</v>
       </c>
@@ -5542,9 +5542,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="2" t="s">
         <v>386</v>
       </c>
@@ -5553,9 +5553,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
@@ -5564,9 +5564,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="2" t="s">
         <v>388</v>
       </c>
@@ -5575,9 +5575,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="2" t="s">
         <v>389</v>
       </c>
@@ -5586,9 +5586,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
@@ -5597,9 +5597,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="2" t="s">
         <v>390</v>
       </c>
@@ -5608,9 +5608,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="2" t="s">
         <v>391</v>
       </c>
@@ -5619,9 +5619,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="2" t="s">
         <v>392</v>
       </c>
@@ -5630,9 +5630,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
@@ -5641,9 +5641,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="2" t="s">
         <v>393</v>
       </c>
@@ -5652,9 +5652,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="66"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="2" t="s">
         <v>394</v>
       </c>
@@ -5663,9 +5663,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="2" t="s">
         <v>395</v>
       </c>
@@ -5674,9 +5674,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="66"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="2" t="s">
         <v>162</v>
       </c>
@@ -5685,9 +5685,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="2" t="s">
         <v>396</v>
       </c>
@@ -5696,9 +5696,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
@@ -5707,9 +5707,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="2" t="s">
         <v>398</v>
       </c>
@@ -5718,9 +5718,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="66"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="2" t="s">
         <v>159</v>
       </c>
@@ -5729,9 +5729,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="2" t="s">
         <v>399</v>
       </c>
@@ -5740,9 +5740,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="2" t="s">
         <v>400</v>
       </c>
@@ -5751,9 +5751,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="2" t="s">
         <v>401</v>
       </c>
@@ -5762,9 +5762,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="2" t="s">
         <v>156</v>
       </c>
@@ -5773,9 +5773,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="2" t="s">
         <v>402</v>
       </c>
@@ -5784,9 +5784,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="2" t="s">
         <v>403</v>
       </c>
@@ -5795,9 +5795,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="2" t="s">
         <v>404</v>
       </c>
@@ -5806,9 +5806,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="2" t="s">
         <v>405</v>
       </c>
@@ -5817,9 +5817,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="64"/>
       <c r="D84" s="2" t="s">
         <v>406</v>
       </c>
@@ -5828,9 +5828,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="2" t="s">
         <v>407</v>
       </c>
@@ -5839,9 +5839,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
@@ -5850,9 +5850,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="2" t="s">
         <v>409</v>
       </c>
@@ -5861,9 +5861,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="2" t="s">
         <v>410</v>
       </c>
@@ -5872,9 +5872,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="2" t="s">
         <v>411</v>
       </c>
@@ -5883,9 +5883,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="2" t="s">
         <v>412</v>
       </c>
@@ -5894,9 +5894,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="2" t="s">
         <v>413</v>
       </c>
@@ -5905,9 +5905,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="2" t="s">
         <v>414</v>
       </c>
@@ -5916,9 +5916,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="2" t="s">
         <v>415</v>
       </c>
@@ -5927,9 +5927,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="2" t="s">
         <v>416</v>
       </c>
@@ -5938,9 +5938,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="2" t="s">
         <v>417</v>
       </c>
@@ -5949,9 +5949,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="2" t="s">
         <v>418</v>
       </c>
@@ -5960,9 +5960,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="62"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="68"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="26" t="s">
         <v>419</v>
       </c>
@@ -5971,13 +5971,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="60" t="s">
+      <c r="A98" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="B98" s="69" t="s">
+      <c r="B98" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="C98" s="69" t="s">
+      <c r="C98" s="67" t="s">
         <v>459</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -5988,7 +5988,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="49"/>
       <c r="C99" s="49"/>
       <c r="D99" s="2" t="s">
@@ -5999,7 +5999,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="49"/>
       <c r="C100" s="49"/>
       <c r="D100" s="2" t="s">
@@ -6010,7 +6010,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
       <c r="D101" s="2" t="s">
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="49"/>
       <c r="C102" s="49"/>
       <c r="D102" s="2" t="s">
@@ -6032,7 +6032,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="49"/>
       <c r="C103" s="49"/>
       <c r="D103" s="2" t="s">
@@ -6043,7 +6043,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="49"/>
       <c r="C104" s="49"/>
       <c r="D104" s="2" t="s">
@@ -6054,7 +6054,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="49"/>
       <c r="C105" s="49"/>
       <c r="D105" s="2" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="49"/>
       <c r="C106" s="49"/>
       <c r="D106" s="2" t="s">
@@ -6076,7 +6076,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="49"/>
       <c r="C107" s="49"/>
       <c r="D107" s="2" t="s">
@@ -6087,7 +6087,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="49"/>
       <c r="C108" s="49"/>
       <c r="D108" s="2" t="s">
@@ -6098,7 +6098,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
       <c r="D109" s="2" t="s">
@@ -6109,7 +6109,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
       <c r="D110" s="2" t="s">
@@ -6120,7 +6120,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
       <c r="D111" s="2" t="s">
@@ -6131,7 +6131,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="49"/>
       <c r="C112" s="49"/>
       <c r="D112" s="2" t="s">
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="49"/>
       <c r="C113" s="49"/>
       <c r="D113" s="2" t="s">
@@ -6153,7 +6153,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="61"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="2" t="s">
@@ -6164,7 +6164,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="49"/>
       <c r="C115" s="49"/>
       <c r="D115" s="2" t="s">
@@ -6175,7 +6175,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="49"/>
       <c r="C116" s="49"/>
       <c r="D116" s="2" t="s">
@@ -6186,7 +6186,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="49"/>
       <c r="C117" s="49"/>
       <c r="D117" s="2" t="s">
@@ -6197,7 +6197,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="49"/>
       <c r="C118" s="49"/>
       <c r="D118" s="2" t="s">
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="49"/>
       <c r="C119" s="49"/>
       <c r="D119" s="2" t="s">
@@ -6219,7 +6219,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="49"/>
       <c r="C120" s="49"/>
       <c r="D120" s="2" t="s">
@@ -6230,7 +6230,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="49"/>
       <c r="C121" s="49"/>
       <c r="D121" s="2" t="s">
@@ -6241,7 +6241,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
+      <c r="A122" s="59"/>
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
       <c r="D122" s="2" t="s">
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="2" t="s">
@@ -6263,9 +6263,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="62"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
       <c r="D124" s="26" t="s">
         <v>458</v>
       </c>
@@ -6276,17 +6276,17 @@
     <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A49:A97"/>
-    <mergeCell ref="B49:C97"/>
-    <mergeCell ref="B98:B124"/>
-    <mergeCell ref="A98:A124"/>
-    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A49:A97"/>
+    <mergeCell ref="B49:C97"/>
+    <mergeCell ref="B98:B124"/>
+    <mergeCell ref="A98:A124"/>
+    <mergeCell ref="C98:C124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6298,7 +6298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
@@ -6338,10 +6338,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>461</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -6350,10 +6350,10 @@
       <c r="D2" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>463</v>
       </c>
       <c r="G2" s="30" t="s">
@@ -6364,7 +6364,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>608</v>
@@ -6372,7 +6372,7 @@
       <c r="D3" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="49"/>
       <c r="G3" s="16" t="s">
         <v>278</v>
@@ -6382,7 +6382,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="49"/>
       <c r="C4" s="16" t="s">
         <v>277</v>
@@ -6390,7 +6390,7 @@
       <c r="D4" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="61"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="49"/>
       <c r="G4" s="16" t="s">
         <v>621</v>
@@ -6400,7 +6400,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="49"/>
       <c r="C5" s="16" t="s">
         <v>609</v>
@@ -6408,7 +6408,7 @@
       <c r="D5" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="61"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="49"/>
       <c r="G5" s="16" t="s">
         <v>279</v>
@@ -6418,7 +6418,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="49"/>
       <c r="C6" s="16" t="s">
         <v>610</v>
@@ -6426,7 +6426,7 @@
       <c r="D6" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="49"/>
       <c r="G6" s="16" t="s">
         <v>280</v>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="49"/>
       <c r="C7" s="16" t="s">
         <v>611</v>
@@ -6444,7 +6444,7 @@
       <c r="D7" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="61"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16" t="s">
         <v>622</v>
@@ -6454,16 +6454,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="37" t="s">
         <v>612</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="37" t="s">
         <v>623</v>
       </c>
@@ -6472,10 +6472,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="71" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -6484,10 +6484,10 @@
       <c r="D9" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="67" t="s">
         <v>583</v>
       </c>
       <c r="G9" s="23" t="s">
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="49"/>
       <c r="C10" s="16" t="s">
         <v>482</v>
@@ -6506,7 +6506,7 @@
       <c r="D10" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="61"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="49"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
@@ -6516,7 +6516,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>483</v>
@@ -6524,7 +6524,7 @@
       <c r="D11" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="61"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="49"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="49"/>
       <c r="C12" s="16" t="s">
         <v>484</v>
@@ -6542,7 +6542,7 @@
       <c r="D12" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="49"/>
       <c r="C13" s="16" t="s">
         <v>485</v>
@@ -6560,7 +6560,7 @@
       <c r="D13" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="61"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="49"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
@@ -6570,7 +6570,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="49"/>
       <c r="C14" s="16" t="s">
         <v>486</v>
@@ -6578,8 +6578,8 @@
       <c r="D14" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="70"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="26" t="s">
         <v>582</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="49"/>
       <c r="C15" s="16" t="s">
         <v>487</v>
@@ -6596,10 +6596,10 @@
       <c r="D15" s="32" t="s">
         <v>670</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="77" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="74" t="s">
         <v>586</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="49"/>
       <c r="C16" s="16" t="s">
         <v>488</v>
@@ -6618,8 +6618,8 @@
       <c r="D16" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="72"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="41" t="s">
         <v>590</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="49"/>
       <c r="C17" s="16" t="s">
         <v>489</v>
@@ -6636,8 +6636,8 @@
       <c r="D17" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="72"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="41" t="s">
         <v>520</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="49"/>
       <c r="C18" s="16" t="s">
         <v>490</v>
@@ -6654,8 +6654,8 @@
       <c r="D18" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="72"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="41" t="s">
         <v>591</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="49"/>
       <c r="C19" s="16" t="s">
         <v>491</v>
@@ -6672,8 +6672,8 @@
       <c r="D19" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="73"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="43" t="s">
         <v>592</v>
       </c>
@@ -6682,7 +6682,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="49"/>
       <c r="C20" s="16" t="s">
         <v>492</v>
@@ -6692,7 +6692,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="49"/>
       <c r="C21" s="16" t="s">
         <v>493</v>
@@ -6702,7 +6702,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="49"/>
       <c r="C22" s="16" t="s">
         <v>494</v>
@@ -6712,7 +6712,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="49"/>
       <c r="C23" s="16" t="s">
         <v>495</v>
@@ -6722,7 +6722,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="49"/>
       <c r="C24" s="16" t="s">
         <v>496</v>
@@ -6732,7 +6732,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="49"/>
       <c r="C25" s="16" t="s">
         <v>497</v>
@@ -6742,7 +6742,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="49"/>
       <c r="C26" s="16" t="s">
         <v>272</v>
@@ -6752,7 +6752,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="49"/>
       <c r="C27" s="16" t="s">
         <v>273</v>
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="49"/>
       <c r="C28" s="16" t="s">
         <v>498</v>
@@ -6772,7 +6772,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="49"/>
       <c r="C29" s="16" t="s">
         <v>499</v>
@@ -6782,8 +6782,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="34" t="s">
         <v>500</v>
       </c>
@@ -6792,10 +6792,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -6806,7 +6806,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="49"/>
       <c r="C32" s="15" t="s">
         <v>510</v>
@@ -6816,7 +6816,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="49"/>
       <c r="C33" s="15" t="s">
         <v>511</v>
@@ -6826,7 +6826,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="49"/>
       <c r="C34" s="15" t="s">
         <v>512</v>
@@ -6836,7 +6836,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="49"/>
       <c r="C35" s="15" t="s">
         <v>513</v>
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
         <v>486</v>
@@ -6856,7 +6856,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="49"/>
       <c r="C37" s="15" t="s">
         <v>514</v>
@@ -6866,7 +6866,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="49"/>
       <c r="C38" s="15" t="s">
         <v>488</v>
@@ -6876,7 +6876,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="49"/>
       <c r="C39" s="15" t="s">
         <v>515</v>
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
@@ -6896,7 +6896,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="49"/>
       <c r="C41" s="15" t="s">
         <v>517</v>
@@ -6906,7 +6906,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="49"/>
       <c r="C42" s="15" t="s">
         <v>496</v>
@@ -6916,7 +6916,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="49"/>
       <c r="C43" s="15" t="s">
         <v>497</v>
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>272</v>
@@ -6936,7 +6936,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
@@ -6946,8 +6946,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="26" t="s">
         <v>498</v>
       </c>
@@ -6956,10 +6956,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="73" t="s">
         <v>669</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="71" t="s">
         <v>668</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -6970,7 +6970,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="54"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
@@ -6980,7 +6980,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="54"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
@@ -6990,7 +6990,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="54"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
@@ -7000,7 +7000,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="54"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
@@ -7010,7 +7010,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="54"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
@@ -7020,7 +7020,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="54"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
@@ -7030,7 +7030,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="54"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
@@ -7040,7 +7040,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="54"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
@@ -7050,7 +7050,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="54"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
@@ -7060,7 +7060,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="54"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
@@ -7070,7 +7070,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="54"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
@@ -7080,7 +7080,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="54"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
@@ -7090,7 +7090,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="54"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
@@ -7100,7 +7100,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="54"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
@@ -7110,7 +7110,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="54"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
@@ -7120,7 +7120,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="54"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
@@ -7130,8 +7130,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="62"/>
-      <c r="B64" s="78"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="72"/>
       <c r="C64" s="26" t="s">
         <v>273</v>
       </c>
@@ -7140,10 +7140,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="67" t="s">
         <v>550</v>
       </c>
       <c r="C65" s="23" t="s">
@@ -7154,7 +7154,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="49"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
@@ -7164,7 +7164,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="49"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
@@ -7174,7 +7174,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="49"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
@@ -7184,7 +7184,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="49"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
@@ -7194,7 +7194,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="49"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
@@ -7204,7 +7204,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="49"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
@@ -7214,7 +7214,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="49"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
@@ -7224,7 +7224,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="49"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
@@ -7234,7 +7234,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="49"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="49"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
@@ -7254,7 +7254,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="49"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
@@ -7264,8 +7264,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62"/>
-      <c r="B77" s="70"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="26" t="s">
         <v>498</v>
       </c>
@@ -7274,10 +7274,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="67" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -7288,7 +7288,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="49"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
@@ -7298,7 +7298,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="49"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="49"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
@@ -7318,7 +7318,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="49"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
@@ -7328,7 +7328,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="49"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
@@ -7338,7 +7338,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="49"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
@@ -7348,7 +7348,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="49"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="49"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
@@ -7368,7 +7368,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="49"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="49"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
@@ -7388,7 +7388,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="49"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
@@ -7398,8 +7398,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="62"/>
-      <c r="B90" s="70"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="68"/>
       <c r="C90" s="26" t="s">
         <v>273</v>
       </c>
@@ -7408,10 +7408,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
+      <c r="A91" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="67" t="s">
         <v>571</v>
       </c>
       <c r="C91" s="23" t="s">
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="49"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
@@ -7432,7 +7432,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="49"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
@@ -7442,7 +7442,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="49"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
@@ -7452,7 +7452,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="49"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
@@ -7462,7 +7462,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="49"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
@@ -7472,7 +7472,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="49"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
@@ -7482,7 +7482,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="49"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
@@ -7492,7 +7492,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="49"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
@@ -7502,7 +7502,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="49"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="49"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
@@ -7522,8 +7522,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="62"/>
-      <c r="B102" s="70"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="68"/>
       <c r="C102" s="26" t="s">
         <v>273</v>
       </c>
@@ -7579,6 +7579,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B91:B102"/>
+    <mergeCell ref="A91:A102"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="A78:A90"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="B47:B64"/>
@@ -7591,14 +7599,6 @@
     <mergeCell ref="B31:B46"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B91:B102"/>
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="A78:A90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7636,10 +7636,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
@@ -7660,7 +7660,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
@@ -7670,7 +7670,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
@@ -7680,7 +7680,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
@@ -7690,7 +7690,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
@@ -7700,7 +7700,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
@@ -7710,7 +7710,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
@@ -7720,8 +7720,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="26" t="s">
         <v>604</v>
       </c>
@@ -7797,10 +7797,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>632</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -7811,7 +7811,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
@@ -7821,7 +7821,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
@@ -7831,7 +7831,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>648</v>
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>649</v>
@@ -7851,7 +7851,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>682</v>
@@ -7861,7 +7861,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>650</v>
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>651</v>
@@ -7881,7 +7881,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="49"/>
       <c r="C10" s="2" t="s">
         <v>652</v>
@@ -7891,7 +7891,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="49"/>
       <c r="C11" s="2" t="s">
         <v>653</v>
@@ -7901,7 +7901,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="49"/>
       <c r="C12" s="2" t="s">
         <v>654</v>
@@ -7911,7 +7911,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
         <v>655</v>
@@ -7921,7 +7921,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="49"/>
       <c r="C14" s="2" t="s">
         <v>656</v>
@@ -7931,7 +7931,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>657</v>
@@ -7941,7 +7941,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="49"/>
       <c r="C16" s="2" t="s">
         <v>658</v>
@@ -7951,7 +7951,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
@@ -7961,7 +7961,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="49"/>
       <c r="C19" s="2" t="s">
         <v>659</v>
@@ -7981,7 +7981,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="49"/>
       <c r="C20" s="2" t="s">
         <v>660</v>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
         <v>661</v>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="49"/>
       <c r="C22" s="2" t="s">
         <v>662</v>
@@ -8011,7 +8011,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="49"/>
       <c r="C23" s="2" t="s">
         <v>663</v>
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
         <v>664</v>
@@ -8031,7 +8031,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="49"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
@@ -8061,7 +8061,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
@@ -8071,7 +8071,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
@@ -8081,7 +8081,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
@@ -8091,7 +8091,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
@@ -8101,7 +8101,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="49"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
@@ -8111,7 +8111,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
@@ -8121,7 +8121,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
@@ -8131,7 +8131,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="49"/>
       <c r="C35" s="2" t="s">
         <v>665</v>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
@@ -8151,7 +8151,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
         <v>666</v>
@@ -8161,8 +8161,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="70"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="26" t="s">
         <v>667</v>
       </c>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946FCFEB-A855-49AD-8A4D-893418CFBD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF0F087-206E-4946-9282-1AF168E160B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="699">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2185,10 +2185,6 @@
   </si>
   <si>
     <t>查询商机列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryCmrcOpportunityList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2430,6 +2426,25 @@
   </si>
   <si>
     <t>cnlKnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryCustViewOpportunityList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品开放期</t>
+  </si>
+  <si>
+    <t>购买日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expDayPrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otpuBeginDt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2496,7 +2511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2738,11 +2753,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2851,6 +2892,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2878,19 +2925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2909,6 +2943,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4905,9 +4952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4939,7 +4986,7 @@
       <c r="B2" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="58" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -4952,7 +4999,7 @@
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
-      <c r="C3" s="70"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="14" t="s">
         <v>260</v>
       </c>
@@ -4963,7 +5010,7 @@
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
-      <c r="C4" s="70"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
@@ -4974,7 +5021,7 @@
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="70"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="14" t="s">
         <v>262</v>
       </c>
@@ -4985,7 +5032,7 @@
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
-      <c r="C6" s="70"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
@@ -4996,7 +5043,7 @@
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
-      <c r="C7" s="70"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="14" t="s">
         <v>264</v>
       </c>
@@ -5007,7 +5054,7 @@
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
-      <c r="C8" s="70"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="14" t="s">
         <v>265</v>
       </c>
@@ -5018,7 +5065,7 @@
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
-      <c r="C9" s="70"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="14" t="s">
         <v>266</v>
       </c>
@@ -5029,7 +5076,7 @@
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
-      <c r="C10" s="70"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="14" t="s">
         <v>267</v>
       </c>
@@ -5040,7 +5087,7 @@
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="14" t="s">
         <v>268</v>
       </c>
@@ -5051,7 +5098,7 @@
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="70"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="14" t="s">
         <v>269</v>
       </c>
@@ -5062,7 +5109,7 @@
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="14" t="s">
         <v>270</v>
       </c>
@@ -5073,7 +5120,7 @@
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="70"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="14" t="s">
         <v>271</v>
       </c>
@@ -5084,7 +5131,7 @@
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="70"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="14" t="s">
         <v>272</v>
       </c>
@@ -5095,7 +5142,7 @@
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="70"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="14" t="s">
         <v>273</v>
       </c>
@@ -5106,7 +5153,7 @@
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="14" t="s">
         <v>274</v>
       </c>
@@ -5117,7 +5164,7 @@
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="70"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="14" t="s">
         <v>275</v>
       </c>
@@ -5128,7 +5175,7 @@
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="14" t="s">
         <v>276</v>
       </c>
@@ -5139,7 +5186,7 @@
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="70"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="14" t="s">
         <v>277</v>
       </c>
@@ -5150,7 +5197,7 @@
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="14" t="s">
         <v>278</v>
       </c>
@@ -5161,7 +5208,7 @@
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="70"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
@@ -5172,7 +5219,7 @@
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
@@ -5183,7 +5230,7 @@
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="70"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="14" t="s">
         <v>281</v>
       </c>
@@ -5428,13 +5475,13 @@
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="23" t="s">
         <v>259</v>
       </c>
@@ -5443,9 +5490,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
@@ -5454,9 +5501,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="2" t="s">
         <v>379</v>
       </c>
@@ -5465,9 +5512,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
         <v>380</v>
       </c>
@@ -5476,9 +5523,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="2" t="s">
         <v>381</v>
       </c>
@@ -5487,9 +5534,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
         <v>382</v>
       </c>
@@ -5498,9 +5545,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="2" t="s">
         <v>383</v>
       </c>
@@ -5509,9 +5556,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="2" t="s">
         <v>384</v>
       </c>
@@ -5520,9 +5567,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
@@ -5531,9 +5578,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="2" t="s">
         <v>385</v>
       </c>
@@ -5542,9 +5589,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="2" t="s">
         <v>386</v>
       </c>
@@ -5553,9 +5600,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="2" t="s">
         <v>387</v>
       </c>
@@ -5564,9 +5611,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="2" t="s">
         <v>388</v>
       </c>
@@ -5575,9 +5622,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="2" t="s">
         <v>389</v>
       </c>
@@ -5586,9 +5633,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="2" t="s">
         <v>147</v>
       </c>
@@ -5597,9 +5644,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="2" t="s">
         <v>390</v>
       </c>
@@ -5608,9 +5655,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="2" t="s">
         <v>391</v>
       </c>
@@ -5619,9 +5666,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="2" t="s">
         <v>392</v>
       </c>
@@ -5630,9 +5677,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
@@ -5641,9 +5688,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="2" t="s">
         <v>393</v>
       </c>
@@ -5652,9 +5699,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="2" t="s">
         <v>394</v>
       </c>
@@ -5663,9 +5710,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="2" t="s">
         <v>395</v>
       </c>
@@ -5674,9 +5721,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="2" t="s">
         <v>162</v>
       </c>
@@ -5685,9 +5732,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="2" t="s">
         <v>396</v>
       </c>
@@ -5696,9 +5743,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
@@ -5707,9 +5754,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="64"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="2" t="s">
         <v>398</v>
       </c>
@@ -5718,9 +5765,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="2" t="s">
         <v>159</v>
       </c>
@@ -5729,9 +5776,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="2" t="s">
         <v>399</v>
       </c>
@@ -5740,9 +5787,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="2" t="s">
         <v>400</v>
       </c>
@@ -5751,9 +5798,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="2" t="s">
         <v>401</v>
       </c>
@@ -5762,9 +5809,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="2" t="s">
         <v>156</v>
       </c>
@@ -5773,9 +5820,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="64"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="2" t="s">
         <v>402</v>
       </c>
@@ -5784,9 +5831,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="2" t="s">
         <v>403</v>
       </c>
@@ -5795,9 +5842,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="64"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="2" t="s">
         <v>404</v>
       </c>
@@ -5806,9 +5853,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="64"/>
+      <c r="A83" s="61"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="2" t="s">
         <v>405</v>
       </c>
@@ -5817,9 +5864,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="64"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="2" t="s">
         <v>406</v>
       </c>
@@ -5828,9 +5875,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="2" t="s">
         <v>407</v>
       </c>
@@ -5839,9 +5886,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="2" t="s">
         <v>408</v>
       </c>
@@ -5850,9 +5897,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
       <c r="D87" s="2" t="s">
         <v>409</v>
       </c>
@@ -5861,9 +5908,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
       <c r="D88" s="2" t="s">
         <v>410</v>
       </c>
@@ -5872,9 +5919,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="64"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="2" t="s">
         <v>411</v>
       </c>
@@ -5883,9 +5930,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="64"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="2" t="s">
         <v>412</v>
       </c>
@@ -5894,9 +5941,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="64"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="2" t="s">
         <v>413</v>
       </c>
@@ -5905,9 +5952,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="2" t="s">
         <v>414</v>
       </c>
@@ -5916,9 +5963,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="64"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
       <c r="D93" s="2" t="s">
         <v>415</v>
       </c>
@@ -5927,9 +5974,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="64"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="2" t="s">
         <v>416</v>
       </c>
@@ -5938,9 +5985,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="64"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="2" t="s">
         <v>417</v>
       </c>
@@ -5949,9 +5996,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="64"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="2" t="s">
         <v>418</v>
       </c>
@@ -5960,9 +6007,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="68"/>
       <c r="D97" s="26" t="s">
         <v>419</v>
       </c>
@@ -5971,13 +6018,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="58" t="s">
+      <c r="A98" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="69" t="s">
         <v>459</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -5988,7 +6035,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="49"/>
       <c r="C99" s="49"/>
       <c r="D99" s="2" t="s">
@@ -5999,7 +6046,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="49"/>
       <c r="C100" s="49"/>
       <c r="D100" s="2" t="s">
@@ -6010,7 +6057,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
       <c r="D101" s="2" t="s">
@@ -6021,7 +6068,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="49"/>
       <c r="C102" s="49"/>
       <c r="D102" s="2" t="s">
@@ -6032,7 +6079,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="59"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="49"/>
       <c r="C103" s="49"/>
       <c r="D103" s="2" t="s">
@@ -6043,7 +6090,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="49"/>
       <c r="C104" s="49"/>
       <c r="D104" s="2" t="s">
@@ -6054,7 +6101,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="49"/>
       <c r="C105" s="49"/>
       <c r="D105" s="2" t="s">
@@ -6065,7 +6112,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="49"/>
       <c r="C106" s="49"/>
       <c r="D106" s="2" t="s">
@@ -6076,7 +6123,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="49"/>
       <c r="C107" s="49"/>
       <c r="D107" s="2" t="s">
@@ -6087,7 +6134,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="49"/>
       <c r="C108" s="49"/>
       <c r="D108" s="2" t="s">
@@ -6098,7 +6145,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="49"/>
       <c r="C109" s="49"/>
       <c r="D109" s="2" t="s">
@@ -6109,7 +6156,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
       <c r="D110" s="2" t="s">
@@ -6120,7 +6167,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
       <c r="D111" s="2" t="s">
@@ -6131,7 +6178,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="49"/>
       <c r="C112" s="49"/>
       <c r="D112" s="2" t="s">
@@ -6142,7 +6189,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
+      <c r="A113" s="61"/>
       <c r="B113" s="49"/>
       <c r="C113" s="49"/>
       <c r="D113" s="2" t="s">
@@ -6153,7 +6200,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
+      <c r="A114" s="61"/>
       <c r="B114" s="49"/>
       <c r="C114" s="49"/>
       <c r="D114" s="2" t="s">
@@ -6164,7 +6211,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="49"/>
       <c r="C115" s="49"/>
       <c r="D115" s="2" t="s">
@@ -6175,7 +6222,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="49"/>
       <c r="C116" s="49"/>
       <c r="D116" s="2" t="s">
@@ -6186,7 +6233,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="49"/>
       <c r="C117" s="49"/>
       <c r="D117" s="2" t="s">
@@ -6197,7 +6244,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="49"/>
       <c r="C118" s="49"/>
       <c r="D118" s="2" t="s">
@@ -6208,7 +6255,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="49"/>
       <c r="C119" s="49"/>
       <c r="D119" s="2" t="s">
@@ -6219,7 +6266,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="49"/>
       <c r="C120" s="49"/>
       <c r="D120" s="2" t="s">
@@ -6230,7 +6277,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="49"/>
       <c r="C121" s="49"/>
       <c r="D121" s="2" t="s">
@@ -6241,7 +6288,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="49"/>
       <c r="C122" s="49"/>
       <c r="D122" s="2" t="s">
@@ -6252,7 +6299,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
+      <c r="A123" s="61"/>
       <c r="B123" s="49"/>
       <c r="C123" s="49"/>
       <c r="D123" s="2" t="s">
@@ -6263,9 +6310,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="60"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
+      <c r="A124" s="62"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="26" t="s">
         <v>458</v>
       </c>
@@ -6276,17 +6323,17 @@
     <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A49:A97"/>
+    <mergeCell ref="B49:C97"/>
+    <mergeCell ref="B98:B124"/>
+    <mergeCell ref="A98:A124"/>
+    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A49:A97"/>
-    <mergeCell ref="B49:C97"/>
-    <mergeCell ref="B98:B124"/>
-    <mergeCell ref="A98:A124"/>
-    <mergeCell ref="C98:C124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6298,9 +6345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6338,10 +6385,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="69" t="s">
         <v>461</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -6350,10 +6397,10 @@
       <c r="D2" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>463</v>
       </c>
       <c r="G2" s="30" t="s">
@@ -6364,7 +6411,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="49"/>
       <c r="C3" s="16" t="s">
         <v>608</v>
@@ -6372,7 +6419,7 @@
       <c r="D3" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="49"/>
       <c r="G3" s="16" t="s">
         <v>278</v>
@@ -6382,7 +6429,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="49"/>
       <c r="C4" s="16" t="s">
         <v>277</v>
@@ -6390,7 +6437,7 @@
       <c r="D4" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="49"/>
       <c r="G4" s="16" t="s">
         <v>621</v>
@@ -6400,7 +6447,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="49"/>
       <c r="C5" s="16" t="s">
         <v>609</v>
@@ -6408,7 +6455,7 @@
       <c r="D5" s="32" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="49"/>
       <c r="G5" s="16" t="s">
         <v>279</v>
@@ -6418,7 +6465,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="49"/>
       <c r="C6" s="16" t="s">
         <v>610</v>
@@ -6426,7 +6473,7 @@
       <c r="D6" s="32" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="49"/>
       <c r="G6" s="16" t="s">
         <v>280</v>
@@ -6436,7 +6483,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="49"/>
       <c r="C7" s="16" t="s">
         <v>611</v>
@@ -6444,7 +6491,7 @@
       <c r="D7" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16" t="s">
         <v>622</v>
@@ -6454,16 +6501,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="37" t="s">
         <v>612</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="37" t="s">
         <v>623</v>
       </c>
@@ -6472,10 +6519,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="79" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="77" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -6484,10 +6531,10 @@
       <c r="D9" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="69" t="s">
         <v>583</v>
       </c>
       <c r="G9" s="23" t="s">
@@ -6498,7 +6545,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="49"/>
       <c r="C10" s="16" t="s">
         <v>482</v>
@@ -6506,7 +6553,7 @@
       <c r="D10" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="49"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
@@ -6516,7 +6563,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="49"/>
       <c r="C11" s="16" t="s">
         <v>483</v>
@@ -6524,7 +6571,7 @@
       <c r="D11" s="32" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="49"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
@@ -6534,7 +6581,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="49"/>
       <c r="C12" s="16" t="s">
         <v>484</v>
@@ -6542,7 +6589,7 @@
       <c r="D12" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
@@ -6552,7 +6599,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="49"/>
       <c r="C13" s="16" t="s">
         <v>485</v>
@@ -6560,7 +6607,7 @@
       <c r="D13" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="49"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
@@ -6570,7 +6617,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="49"/>
       <c r="C14" s="16" t="s">
         <v>486</v>
@@ -6578,8 +6625,8 @@
       <c r="D14" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="68"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="26" t="s">
         <v>582</v>
       </c>
@@ -6588,18 +6635,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="49"/>
       <c r="C15" s="16" t="s">
         <v>487</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>670</v>
-      </c>
-      <c r="E15" s="77" t="s">
+        <v>669</v>
+      </c>
+      <c r="E15" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="71" t="s">
         <v>586</v>
       </c>
       <c r="G15" s="39" t="s">
@@ -6610,16 +6657,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="49"/>
       <c r="C16" s="16" t="s">
         <v>488</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="75"/>
+        <v>673</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="41" t="s">
         <v>590</v>
       </c>
@@ -6628,7 +6675,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="49"/>
       <c r="C17" s="16" t="s">
         <v>489</v>
@@ -6636,8 +6683,8 @@
       <c r="D17" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="41" t="s">
         <v>520</v>
       </c>
@@ -6646,7 +6693,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="49"/>
       <c r="C18" s="16" t="s">
         <v>490</v>
@@ -6654,8 +6701,8 @@
       <c r="D18" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="41" t="s">
         <v>591</v>
       </c>
@@ -6664,7 +6711,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="49"/>
       <c r="C19" s="16" t="s">
         <v>491</v>
@@ -6672,8 +6719,8 @@
       <c r="D19" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="43" t="s">
         <v>592</v>
       </c>
@@ -6682,17 +6729,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="49"/>
       <c r="C20" s="16" t="s">
         <v>492</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="49"/>
       <c r="C21" s="16" t="s">
         <v>493</v>
@@ -6702,7 +6749,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="49"/>
       <c r="C22" s="16" t="s">
         <v>494</v>
@@ -6712,7 +6759,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="49"/>
       <c r="C23" s="16" t="s">
         <v>495</v>
@@ -6722,7 +6769,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="49"/>
       <c r="C24" s="16" t="s">
         <v>496</v>
@@ -6732,7 +6779,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="49"/>
       <c r="C25" s="16" t="s">
         <v>497</v>
@@ -6742,7 +6789,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="49"/>
       <c r="C26" s="16" t="s">
         <v>272</v>
@@ -6752,7 +6799,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="49"/>
       <c r="C27" s="16" t="s">
         <v>273</v>
@@ -6762,7 +6809,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="49"/>
       <c r="C28" s="16" t="s">
         <v>498</v>
@@ -6772,30 +6819,30 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="49"/>
       <c r="C29" s="16" t="s">
         <v>499</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60"/>
-      <c r="B30" s="68"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="34" t="s">
         <v>500</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="60" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="36" t="s">
@@ -6806,7 +6853,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="49"/>
       <c r="C32" s="15" t="s">
         <v>510</v>
@@ -6816,7 +6863,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="49"/>
       <c r="C33" s="15" t="s">
         <v>511</v>
@@ -6826,7 +6873,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="49"/>
       <c r="C34" s="15" t="s">
         <v>512</v>
@@ -6836,7 +6883,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="49"/>
       <c r="C35" s="15" t="s">
         <v>513</v>
@@ -6846,7 +6893,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
         <v>486</v>
@@ -6856,7 +6903,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="49"/>
       <c r="C37" s="15" t="s">
         <v>514</v>
@@ -6866,7 +6913,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="49"/>
       <c r="C38" s="15" t="s">
         <v>488</v>
@@ -6876,7 +6923,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="49"/>
       <c r="C39" s="15" t="s">
         <v>515</v>
@@ -6886,7 +6933,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
@@ -6896,7 +6943,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="49"/>
       <c r="C41" s="15" t="s">
         <v>517</v>
@@ -6906,7 +6953,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="49"/>
       <c r="C42" s="15" t="s">
         <v>496</v>
@@ -6916,7 +6963,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="49"/>
       <c r="C43" s="15" t="s">
         <v>497</v>
@@ -6926,7 +6973,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>272</v>
@@ -6936,7 +6983,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
@@ -6946,8 +6993,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="26" t="s">
         <v>498</v>
       </c>
@@ -6956,11 +7003,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
-        <v>669</v>
-      </c>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="79" t="s">
         <v>668</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>667</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>259</v>
@@ -6970,7 +7017,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="54"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
@@ -6980,7 +7027,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="54"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
@@ -6990,7 +7037,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="54"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
@@ -7000,37 +7047,37 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="54"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="54"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="54"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="54"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
@@ -7040,17 +7087,17 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="54"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="54"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
@@ -7060,17 +7107,17 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="54"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="54"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
@@ -7080,7 +7127,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="54"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
@@ -7090,17 +7137,17 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="54"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="54"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
@@ -7110,7 +7157,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="54"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
@@ -7120,7 +7167,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="54"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
@@ -7130,8 +7177,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
-      <c r="B64" s="72"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="78"/>
       <c r="C64" s="26" t="s">
         <v>273</v>
       </c>
@@ -7140,10 +7187,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="69" t="s">
         <v>550</v>
       </c>
       <c r="C65" s="23" t="s">
@@ -7154,7 +7201,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="49"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
@@ -7164,7 +7211,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="49"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
@@ -7174,7 +7221,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="49"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
@@ -7184,7 +7231,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="49"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
@@ -7194,7 +7241,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="49"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
@@ -7204,7 +7251,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="49"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
@@ -7214,7 +7261,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="49"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
@@ -7224,7 +7271,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="49"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
@@ -7234,7 +7281,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="49"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
@@ -7244,7 +7291,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="49"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
@@ -7254,7 +7301,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="49"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
@@ -7264,8 +7311,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="68"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="26" t="s">
         <v>498</v>
       </c>
@@ -7274,10 +7321,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="60" t="s">
         <v>568</v>
       </c>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="69" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -7288,7 +7335,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="49"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
@@ -7298,7 +7345,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="61"/>
       <c r="B80" s="49"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
@@ -7308,7 +7355,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="49"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
@@ -7318,7 +7365,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="49"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
@@ -7328,7 +7375,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="61"/>
       <c r="B83" s="49"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
@@ -7338,7 +7385,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="49"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
@@ -7348,7 +7395,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="49"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
@@ -7358,7 +7405,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="49"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
@@ -7368,7 +7415,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="49"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
@@ -7378,7 +7425,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="49"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
@@ -7388,7 +7435,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="49"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
@@ -7398,20 +7445,20 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="26" t="s">
+      <c r="A90" s="80"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="81" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="60" t="s">
         <v>572</v>
       </c>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="69" t="s">
         <v>571</v>
       </c>
       <c r="C91" s="23" t="s">
@@ -7422,7 +7469,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="49"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
@@ -7432,7 +7479,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="49"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
@@ -7442,7 +7489,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+      <c r="A94" s="61"/>
       <c r="B94" s="49"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
@@ -7452,7 +7499,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="49"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
@@ -7462,17 +7509,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="61"/>
       <c r="B96" s="49"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
+      <c r="A97" s="61"/>
       <c r="B97" s="49"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
@@ -7482,7 +7529,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
+      <c r="A98" s="61"/>
       <c r="B98" s="49"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
@@ -7492,7 +7539,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="49"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
@@ -7502,7 +7549,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="49"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
@@ -7512,7 +7559,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="49"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
@@ -7521,22 +7568,67 @@
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="26" t="s">
+    <row r="102" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="61"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D102" s="27" t="s">
+      <c r="D102" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="82"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="82"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="82"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="82"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="83"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7579,14 +7671,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B91:B102"/>
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="A78:A90"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="B47:B64"/>
@@ -7599,6 +7683,14 @@
     <mergeCell ref="B31:B46"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="A78:A90"/>
+    <mergeCell ref="B91:B107"/>
+    <mergeCell ref="A91:A107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7636,10 +7728,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="69" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -7650,27 +7742,27 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
@@ -7680,7 +7772,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
@@ -7690,7 +7782,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
@@ -7700,7 +7792,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
@@ -7710,23 +7802,23 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="26" t="s">
         <v>604</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
@@ -7772,14 +7864,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7759682-1C35-4E4F-9670-431A7ECC17AD}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7797,161 +7889,161 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>632</v>
+      <c r="B2" s="69" t="s">
+        <v>694</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>683</v>
-      </c>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="49"/>
       <c r="C10" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="49"/>
       <c r="C11" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="49"/>
       <c r="C12" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="49"/>
       <c r="C14" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="49"/>
       <c r="C16" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
@@ -7961,7 +8053,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
@@ -7971,67 +8063,67 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="49"/>
       <c r="C19" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="49"/>
       <c r="C20" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="49"/>
       <c r="C22" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="49"/>
       <c r="C23" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
@@ -8041,7 +8133,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="49"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
@@ -8051,7 +8143,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
@@ -8061,7 +8153,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
@@ -8071,7 +8163,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
@@ -8081,7 +8173,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
@@ -8091,7 +8183,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
@@ -8101,7 +8193,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="49"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
@@ -8111,7 +8203,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
@@ -8121,7 +8213,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
@@ -8131,17 +8223,17 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="49"/>
       <c r="C35" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
@@ -8151,23 +8243,23 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="26" t="s">
-        <v>667</v>
-      </c>
       <c r="D38" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF0F087-206E-4946-9282-1AF168E160B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92B3BF-B5F0-4D43-8D31-D8CD5AB4C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -2783,7 +2783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2813,10 +2813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2862,6 +2858,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2892,12 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2925,6 +2923,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2943,19 +2951,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3263,10 +3278,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3277,8 +3292,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3287,8 +3302,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3297,8 +3312,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3307,8 +3322,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3319,8 +3334,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -3329,8 +3344,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3339,8 +3354,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -3349,8 +3364,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3361,8 +3376,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3371,8 +3386,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3381,8 +3396,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3391,8 +3406,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3403,8 +3418,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3413,8 +3428,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3423,8 +3438,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3433,8 +3448,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3445,8 +3460,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3455,8 +3470,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -3465,8 +3480,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3475,8 +3490,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3487,8 +3502,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3497,8 +3512,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3507,8 +3522,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3561,10 +3576,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3575,8 +3590,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3585,8 +3600,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3595,8 +3610,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -3605,8 +3620,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="52" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3617,8 +3632,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -3627,8 +3642,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -3637,8 +3652,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3649,8 +3664,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3659,8 +3674,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3669,8 +3684,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3681,8 +3696,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -3691,8 +3706,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -3701,8 +3716,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3711,8 +3726,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3723,8 +3738,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3733,8 +3748,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3743,8 +3758,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="54" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3755,8 +3770,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -3765,8 +3780,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3775,8 +3790,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -3785,8 +3800,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3797,8 +3812,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3807,8 +3822,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3817,8 +3832,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3829,8 +3844,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3839,8 +3854,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -3849,8 +3864,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3861,8 +3876,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3871,8 +3886,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -3881,8 +3896,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3893,8 +3908,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -3903,8 +3918,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -3913,8 +3928,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3925,8 +3940,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3935,7 +3950,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3944,7 +3959,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="51" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3955,7 +3970,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3964,7 +3979,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -4023,11 +4038,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4035,33 +4050,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="49"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4069,33 +4084,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="51" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4103,33 +4118,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4137,33 +4152,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4171,33 +4186,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="55"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="57" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4205,33 +4220,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="55"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="55"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="55"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="51" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4239,31 +4254,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -4273,7 +4288,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -4283,7 +4298,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -4293,7 +4308,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -4303,7 +4318,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -4313,7 +4328,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -4323,7 +4338,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -4333,7 +4348,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -4343,7 +4358,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -4353,7 +4368,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -4363,7 +4378,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -4373,7 +4388,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -4383,7 +4398,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -4393,7 +4408,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -4403,7 +4418,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -4413,7 +4428,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -4423,7 +4438,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -4433,7 +4448,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -4443,7 +4458,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -4453,7 +4468,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -4463,7 +4478,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -4516,10 +4531,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4527,29 +4542,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4557,29 +4572,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4587,29 +4602,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -4617,28 +4632,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -4647,7 +4662,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -4656,7 +4671,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -4665,7 +4680,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -4674,7 +4689,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -4683,7 +4698,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -4692,7 +4707,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -4701,7 +4716,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -4710,7 +4725,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4719,7 +4734,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -4728,7 +4743,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -4737,7 +4752,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -4746,7 +4761,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -4755,7 +4770,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -4764,7 +4779,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -4773,7 +4788,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -4782,7 +4797,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -4791,7 +4806,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -4800,7 +4815,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -4809,7 +4824,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -4818,7 +4833,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -4879,7 +4894,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4887,31 +4902,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4919,13 +4934,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -4950,543 +4965,575 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="14" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="30" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="14" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="14" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="14" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="14" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="14" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="14" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="14" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="15" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="15" t="s">
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="33" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="88"/>
+      <c r="D28" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
     </row>
     <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="A34" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>298</v>
+        <v>322</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>299</v>
-      </c>
+      <c r="A36" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>300</v>
-      </c>
+      <c r="A37" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>301</v>
-      </c>
+      <c r="A38" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A39" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>331</v>
+      <c r="A47" s="61"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="61"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="61"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5494,10 +5541,10 @@
       <c r="B50" s="65"/>
       <c r="C50" s="66"/>
       <c r="D50" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>332</v>
+        <v>385</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,10 +5552,10 @@
       <c r="B51" s="65"/>
       <c r="C51" s="66"/>
       <c r="D51" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>333</v>
+        <v>386</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5516,10 +5563,10 @@
       <c r="B52" s="65"/>
       <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>97</v>
+        <v>387</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,10 +5574,10 @@
       <c r="B53" s="65"/>
       <c r="C53" s="66"/>
       <c r="D53" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>335</v>
+        <v>388</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5538,10 +5585,10 @@
       <c r="B54" s="65"/>
       <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>336</v>
+        <v>389</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5549,10 +5596,10 @@
       <c r="B55" s="65"/>
       <c r="C55" s="66"/>
       <c r="D55" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>337</v>
+        <v>147</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,10 +5607,10 @@
       <c r="B56" s="65"/>
       <c r="C56" s="66"/>
       <c r="D56" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>421</v>
+        <v>390</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,10 +5618,10 @@
       <c r="B57" s="65"/>
       <c r="C57" s="66"/>
       <c r="D57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>339</v>
+        <v>391</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5582,10 +5629,10 @@
       <c r="B58" s="65"/>
       <c r="C58" s="66"/>
       <c r="D58" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>340</v>
+        <v>392</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5593,10 +5640,10 @@
       <c r="B59" s="65"/>
       <c r="C59" s="66"/>
       <c r="D59" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>341</v>
+        <v>153</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5604,10 +5651,10 @@
       <c r="B60" s="65"/>
       <c r="C60" s="66"/>
       <c r="D60" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>420</v>
+        <v>393</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,10 +5662,10 @@
       <c r="B61" s="65"/>
       <c r="C61" s="66"/>
       <c r="D61" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>343</v>
+        <v>394</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5626,10 +5673,10 @@
       <c r="B62" s="65"/>
       <c r="C62" s="66"/>
       <c r="D62" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>344</v>
+        <v>395</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5637,10 +5684,10 @@
       <c r="B63" s="65"/>
       <c r="C63" s="66"/>
       <c r="D63" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>345</v>
+        <v>162</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5648,10 +5695,10 @@
       <c r="B64" s="65"/>
       <c r="C64" s="66"/>
       <c r="D64" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>422</v>
+        <v>396</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5659,10 +5706,10 @@
       <c r="B65" s="65"/>
       <c r="C65" s="66"/>
       <c r="D65" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>347</v>
+        <v>397</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5670,10 +5717,10 @@
       <c r="B66" s="65"/>
       <c r="C66" s="66"/>
       <c r="D66" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>348</v>
+        <v>398</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,10 +5728,10 @@
       <c r="B67" s="65"/>
       <c r="C67" s="66"/>
       <c r="D67" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>349</v>
+        <v>159</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5692,10 +5739,10 @@
       <c r="B68" s="65"/>
       <c r="C68" s="66"/>
       <c r="D68" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5703,10 +5750,10 @@
       <c r="B69" s="65"/>
       <c r="C69" s="66"/>
       <c r="D69" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>351</v>
+        <v>400</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,10 +5761,10 @@
       <c r="B70" s="65"/>
       <c r="C70" s="66"/>
       <c r="D70" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>352</v>
+        <v>401</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5725,10 +5772,10 @@
       <c r="B71" s="65"/>
       <c r="C71" s="66"/>
       <c r="D71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>353</v>
+        <v>156</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,10 +5783,10 @@
       <c r="B72" s="65"/>
       <c r="C72" s="66"/>
       <c r="D72" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>424</v>
+        <v>402</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5747,10 +5794,10 @@
       <c r="B73" s="65"/>
       <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>355</v>
+        <v>403</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5758,10 +5805,10 @@
       <c r="B74" s="65"/>
       <c r="C74" s="66"/>
       <c r="D74" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>356</v>
+        <v>404</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,10 +5816,10 @@
       <c r="B75" s="65"/>
       <c r="C75" s="66"/>
       <c r="D75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>357</v>
+        <v>405</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5780,10 +5827,10 @@
       <c r="B76" s="65"/>
       <c r="C76" s="66"/>
       <c r="D76" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>423</v>
+        <v>406</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5791,10 +5838,10 @@
       <c r="B77" s="65"/>
       <c r="C77" s="66"/>
       <c r="D77" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>359</v>
+        <v>407</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5802,10 +5849,10 @@
       <c r="B78" s="65"/>
       <c r="C78" s="66"/>
       <c r="D78" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>360</v>
+        <v>408</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5813,10 +5860,10 @@
       <c r="B79" s="65"/>
       <c r="C79" s="66"/>
       <c r="D79" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>361</v>
+        <v>409</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5824,10 +5871,10 @@
       <c r="B80" s="65"/>
       <c r="C80" s="66"/>
       <c r="D80" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>362</v>
+        <v>410</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,10 +5882,10 @@
       <c r="B81" s="65"/>
       <c r="C81" s="66"/>
       <c r="D81" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>363</v>
+        <v>411</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5846,10 +5893,10 @@
       <c r="B82" s="65"/>
       <c r="C82" s="66"/>
       <c r="D82" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>364</v>
+        <v>412</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,10 +5904,10 @@
       <c r="B83" s="65"/>
       <c r="C83" s="66"/>
       <c r="D83" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>365</v>
+        <v>413</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5915,10 @@
       <c r="B84" s="65"/>
       <c r="C84" s="66"/>
       <c r="D84" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>98</v>
+        <v>414</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5879,10 +5926,10 @@
       <c r="B85" s="65"/>
       <c r="C85" s="66"/>
       <c r="D85" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>99</v>
+        <v>415</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5890,10 +5937,10 @@
       <c r="B86" s="65"/>
       <c r="C86" s="66"/>
       <c r="D86" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>366</v>
+        <v>416</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5901,10 +5948,10 @@
       <c r="B87" s="65"/>
       <c r="C87" s="66"/>
       <c r="D87" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>367</v>
+        <v>417</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,428 +5959,340 @@
       <c r="B88" s="65"/>
       <c r="C88" s="66"/>
       <c r="D88" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="62"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>370</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="C90" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>371</v>
+        <v>380</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>372</v>
+        <v>381</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>373</v>
+        <v>382</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>374</v>
+        <v>383</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>375</v>
+        <v>444</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
       <c r="D96" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="62"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="60" t="s">
-        <v>427</v>
-      </c>
-      <c r="B98" s="69" t="s">
-        <v>426</v>
-      </c>
-      <c r="C98" s="69" t="s">
-        <v>459</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E98" s="24" t="s">
-        <v>331</v>
+        <v>445</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="61"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="61"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>334</v>
+        <v>384</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>335</v>
+        <v>390</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
       <c r="D101" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>336</v>
+        <v>399</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="49"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>337</v>
+        <v>396</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>428</v>
+        <v>393</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>429</v>
+        <v>402</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>430</v>
+        <v>447</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
       <c r="D106" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>342</v>
+        <v>448</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="61"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>338</v>
+        <v>449</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>346</v>
+        <v>450</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>358</v>
+        <v>451</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="61"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>354</v>
+        <v>452</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>350</v>
+        <v>453</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>362</v>
+        <v>454</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>431</v>
+        <v>455</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="62"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="49"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="61"/>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="61"/>
-      <c r="B123" s="49"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="62"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="70"/>
-      <c r="D124" s="26" t="s">
-        <v>458</v>
-      </c>
-      <c r="E124" s="27" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A49:A97"/>
-    <mergeCell ref="B49:C97"/>
-    <mergeCell ref="B98:B124"/>
-    <mergeCell ref="A98:A124"/>
-    <mergeCell ref="C98:C124"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
     <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A41:A89"/>
+    <mergeCell ref="B41:C89"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="C90:C116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6345,15 +6304,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -6362,39 +6321,39 @@
     <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>460</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>613</v>
       </c>
       <c r="E2" s="60" t="s">
@@ -6403,132 +6362,132 @@
       <c r="F2" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>614</v>
       </c>
       <c r="E3" s="61"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="51"/>
+      <c r="G3" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="30" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>615</v>
       </c>
       <c r="E4" s="61"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>616</v>
       </c>
       <c r="E5" s="61"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="30" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>617</v>
       </c>
       <c r="E6" s="61"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="30" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>618</v>
       </c>
       <c r="E7" s="61"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="62"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>619</v>
       </c>
       <c r="E8" s="62"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="36" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>331</v>
       </c>
       <c r="E9" s="60" t="s">
@@ -6537,1140 +6496,1144 @@
       <c r="F9" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>464</v>
       </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="23" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>465</v>
       </c>
       <c r="E11" s="61"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="23" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>480</v>
       </c>
       <c r="E12" s="61"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="23" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>481</v>
       </c>
       <c r="E13" s="61"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>466</v>
       </c>
       <c r="E14" s="62"/>
       <c r="F14" s="70"/>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="25" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="75" t="s">
         <v>586</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="38" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="41" t="s">
+      <c r="E16" s="79"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="39" t="s">
         <v>590</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="40" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="41" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="40" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="51"/>
+      <c r="C18" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="41" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="39" t="s">
         <v>591</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="40" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="43" t="s">
+      <c r="E19" s="80"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="41" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="42" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="30" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="30" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="30" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="30" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="16" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="30" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="16" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="30" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="31" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="62"/>
       <c r="B30" s="70"/>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="60" t="s">
         <v>518</v>
       </c>
       <c r="B31" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="31" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="31" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="31" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="15" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="31" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="31" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="31" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="51"/>
+      <c r="C38" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="31" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="15" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="31" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="23" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="15" t="s">
+      <c r="B41" s="51"/>
+      <c r="C41" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="31" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="31" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="31" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="31" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="31" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="62"/>
       <c r="B46" s="70"/>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="25" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
+    <row r="47" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
         <v>668</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="72" t="s">
         <v>667</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61"/>
-      <c r="B48" s="54"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61"/>
-      <c r="B49" s="54"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="23" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
-      <c r="B51" s="54"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="23" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
-      <c r="B52" s="54"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="23" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
-      <c r="B53" s="54"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="23" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
-      <c r="B54" s="54"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="23" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="23" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
-      <c r="B56" s="54"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61"/>
-      <c r="B57" s="54"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="23" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61"/>
-      <c r="B58" s="54"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="23" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61"/>
-      <c r="B59" s="54"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="23" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="61"/>
-      <c r="B60" s="54"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="23" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61"/>
-      <c r="B61" s="54"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61"/>
-      <c r="B62" s="54"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="23" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61"/>
-      <c r="B63" s="54"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="23" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="62"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="26" t="s">
+      <c r="B64" s="73"/>
+      <c r="C64" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>549</v>
       </c>
       <c r="B65" s="69" t="s">
         <v>550</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61"/>
-      <c r="B66" s="49"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="23" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="23" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61"/>
-      <c r="B69" s="49"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="23" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61"/>
-      <c r="B70" s="49"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="23" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61"/>
-      <c r="B71" s="49"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="23" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="61"/>
-      <c r="B72" s="49"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="23" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="61"/>
-      <c r="B73" s="49"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61"/>
-      <c r="B74" s="49"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="23" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61"/>
-      <c r="B75" s="49"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="23" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61"/>
-      <c r="B76" s="49"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="23" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="62"/>
       <c r="B77" s="70"/>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="25" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
         <v>568</v>
       </c>
       <c r="B78" s="69" t="s">
         <v>567</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61"/>
-      <c r="B79" s="49"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="23" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61"/>
-      <c r="B80" s="49"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="61"/>
-      <c r="B81" s="49"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="23" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61"/>
-      <c r="B82" s="49"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="23" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61"/>
-      <c r="B83" s="49"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="23" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61"/>
-      <c r="B84" s="49"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="23" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="61"/>
-      <c r="B85" s="49"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="23" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61"/>
-      <c r="B86" s="49"/>
+      <c r="B86" s="51"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="23" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="61"/>
-      <c r="B87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61"/>
-      <c r="B88" s="49"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="23" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61"/>
-      <c r="B89" s="49"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="23" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="80"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="22" t="s">
+    <row r="90" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="81"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="81" t="s">
+      <c r="D90" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
         <v>572</v>
       </c>
       <c r="B91" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61"/>
-      <c r="B92" s="49"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="23" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61"/>
-      <c r="B93" s="49"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="23" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61"/>
-      <c r="B94" s="49"/>
+      <c r="B94" s="51"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="23" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61"/>
-      <c r="B95" s="49"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="D95" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61"/>
-      <c r="B96" s="49"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="23" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61"/>
-      <c r="B97" s="49"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="23" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61"/>
-      <c r="B98" s="49"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="23" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61"/>
-      <c r="B99" s="49"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="23" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61"/>
-      <c r="B100" s="49"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="23" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61"/>
-      <c r="B101" s="49"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="23" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61"/>
-      <c r="B102" s="49"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="23" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="82"/>
-      <c r="B103" s="54"/>
+      <c r="B103" s="56"/>
       <c r="C103" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="D103" s="23" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="82"/>
-      <c r="B104" s="54"/>
+      <c r="B104" s="56"/>
       <c r="C104" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="23" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="82"/>
-      <c r="B105" s="54"/>
+      <c r="B105" s="56"/>
       <c r="C105" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="23" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="82"/>
-      <c r="B106" s="54"/>
+      <c r="B106" s="56"/>
       <c r="C106" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="D106" s="23" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="83"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="26" t="s">
+      <c r="B107" s="73"/>
+      <c r="C107" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="25" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-    </row>
-    <row r="122" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-    </row>
-    <row r="123" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-    </row>
-    <row r="124" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-    </row>
-    <row r="125" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-    </row>
-    <row r="126" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-    </row>
-    <row r="127" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
+    <row r="108" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+    </row>
+    <row r="122" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+    </row>
+    <row r="123" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
+    </row>
+    <row r="124" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="27"/>
+      <c r="B126" s="27"/>
+    </row>
+    <row r="127" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="27"/>
+      <c r="B127" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="A78:A90"/>
+    <mergeCell ref="B91:B107"/>
+    <mergeCell ref="A91:A107"/>
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="E2:E8"/>
     <mergeCell ref="B47:B64"/>
@@ -7687,10 +7650,6 @@
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E9:E14"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="A78:A90"/>
-    <mergeCell ref="B91:B107"/>
-    <mergeCell ref="A91:A107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7709,145 +7668,145 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>606</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>605</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
-      <c r="B4" s="49"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
       <c r="B10" s="70"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+    <row r="11" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7870,395 +7829,395 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="28" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
-      <c r="B4" s="49"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
-      <c r="B10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61"/>
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
-      <c r="B15" s="49"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
-      <c r="B16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
-      <c r="B20" s="49"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
-      <c r="B21" s="49"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="49"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
-      <c r="B25" s="49"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
-      <c r="B26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
-      <c r="B27" s="49"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
-      <c r="B30" s="49"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
-      <c r="B31" s="49"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
-      <c r="B32" s="49"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
-      <c r="B33" s="49"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
-      <c r="B34" s="49"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
-      <c r="B37" s="49"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="62"/>
       <c r="B38" s="70"/>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="25" t="s">
         <v>688</v>
       </c>
     </row>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92B3BF-B5F0-4D43-8D31-D8CD5AB4C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634964-BF40-4000-B67A-88B90B4E5DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -2864,6 +2864,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2896,6 +2904,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2917,19 +2945,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2950,26 +2970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3278,10 +3278,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3292,8 +3292,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3302,8 +3302,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3312,8 +3312,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3322,8 +3322,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3334,8 +3334,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -3344,8 +3344,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3354,8 +3354,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -3364,8 +3364,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3376,8 +3376,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3386,8 +3386,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3396,8 +3396,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3406,8 +3406,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3418,8 +3418,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3428,8 +3428,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3438,8 +3438,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3448,8 +3448,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3460,8 +3460,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3470,8 +3470,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -3480,8 +3480,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3490,8 +3490,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3502,8 +3502,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3512,8 +3512,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3522,8 +3522,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3576,10 +3576,10 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3590,8 +3590,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3600,8 +3600,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3610,8 +3610,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -3620,8 +3620,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3632,8 +3632,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -3642,8 +3642,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -3652,8 +3652,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="51" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3664,8 +3664,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3674,8 +3674,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3684,8 +3684,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3696,8 +3696,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -3706,8 +3706,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -3716,8 +3716,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3726,8 +3726,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3738,8 +3738,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3748,8 +3748,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3758,8 +3758,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3770,8 +3770,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -3780,8 +3780,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3790,8 +3790,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -3800,8 +3800,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3812,8 +3812,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3822,8 +3822,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3832,8 +3832,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3844,8 +3844,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3854,8 +3854,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -3864,8 +3864,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3876,8 +3876,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3886,8 +3886,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -3896,8 +3896,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3908,8 +3908,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -3918,8 +3918,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -3928,8 +3928,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3940,8 +3940,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="51"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="55" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="51"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3979,7 +3979,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -4038,11 +4038,11 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4050,33 +4050,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="51"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -4084,33 +4084,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="51"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="51"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4118,33 +4118,33 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="51"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="51"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="51"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="61" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4152,33 +4152,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="57"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="57"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="61" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4186,33 +4186,33 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="57"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4220,33 +4220,33 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="57"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="57"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4254,31 +4254,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="51"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="51"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="51"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -4288,7 +4288,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -4298,7 +4298,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -4318,7 +4318,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -4328,7 +4328,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -4338,7 +4338,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -4358,7 +4358,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -4368,7 +4368,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -4388,7 +4388,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -4408,7 +4408,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -4428,7 +4428,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -4438,7 +4438,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -4458,7 +4458,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -4468,7 +4468,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -4531,10 +4531,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4542,29 +4542,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="52"/>
+      <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4572,29 +4572,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="55" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4602,29 +4602,29 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -4632,28 +4632,28 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -4662,7 +4662,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -4716,7 +4716,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -4725,7 +4725,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4734,7 +4734,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -4779,7 +4779,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -4797,7 +4797,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -4806,7 +4806,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4902,31 +4902,31 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="55" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4934,13 +4934,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
@@ -4967,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A333E3-1135-40A7-BD0E-3C710AB86B4B}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -4995,13 +4995,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="64" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -5012,9 +5012,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="71"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="45" t="s">
         <v>260</v>
       </c>
@@ -5023,9 +5023,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="45" t="s">
         <v>261</v>
       </c>
@@ -5034,9 +5034,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="45" t="s">
         <v>262</v>
       </c>
@@ -5045,9 +5045,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="45" t="s">
         <v>263</v>
       </c>
@@ -5056,9 +5056,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="45" t="s">
         <v>264</v>
       </c>
@@ -5067,9 +5067,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="45" t="s">
         <v>265</v>
       </c>
@@ -5078,9 +5078,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="45" t="s">
         <v>266</v>
       </c>
@@ -5089,9 +5089,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="45" t="s">
         <v>267</v>
       </c>
@@ -5100,9 +5100,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="45" t="s">
         <v>268</v>
       </c>
@@ -5111,9 +5111,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="45" t="s">
         <v>269</v>
       </c>
@@ -5122,9 +5122,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="45" t="s">
         <v>270</v>
       </c>
@@ -5133,9 +5133,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="45" t="s">
         <v>271</v>
       </c>
@@ -5144,9 +5144,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="45" t="s">
         <v>272</v>
       </c>
@@ -5155,9 +5155,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="45" t="s">
         <v>273</v>
       </c>
@@ -5166,9 +5166,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="71"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="45" t="s">
         <v>274</v>
       </c>
@@ -5177,9 +5177,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="45" t="s">
         <v>275</v>
       </c>
@@ -5188,9 +5188,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="45" t="s">
         <v>276</v>
       </c>
@@ -5199,9 +5199,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="71"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="45" t="s">
         <v>277</v>
       </c>
@@ -5210,9 +5210,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="71"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="45" t="s">
         <v>278</v>
       </c>
@@ -5221,9 +5221,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="71"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="45" t="s">
         <v>279</v>
       </c>
@@ -5232,9 +5232,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="45" t="s">
         <v>280</v>
       </c>
@@ -5243,9 +5243,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="45" t="s">
         <v>281</v>
       </c>
@@ -5254,9 +5254,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="13" t="s">
         <v>287</v>
       </c>
@@ -5265,9 +5265,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="73"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="32" t="s">
         <v>288</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="A27" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="47" t="s">
         <v>298</v>
       </c>
       <c r="C27" s="20"/>
@@ -5287,24 +5287,24 @@
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="C28" s="88"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="13" t="s">
         <v>304</v>
       </c>
@@ -5313,9 +5313,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="13" t="s">
         <v>305</v>
       </c>
@@ -5324,9 +5324,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="13" t="s">
         <v>306</v>
       </c>
@@ -5335,9 +5335,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="73"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="24" t="s">
         <v>307</v>
       </c>
@@ -5349,12 +5349,12 @@
       <c r="A33" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="B33" s="86" t="s">
+      <c r="B33" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -5434,13 +5434,13 @@
       <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="21" t="s">
         <v>259</v>
       </c>
@@ -5449,9 +5449,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="2" t="s">
         <v>378</v>
       </c>
@@ -5460,9 +5460,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="2" t="s">
         <v>379</v>
       </c>
@@ -5471,9 +5471,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="2" t="s">
         <v>380</v>
       </c>
@@ -5482,9 +5482,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="2" t="s">
         <v>381</v>
       </c>
@@ -5493,9 +5493,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="2" t="s">
         <v>382</v>
       </c>
@@ -5504,9 +5504,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="2" t="s">
         <v>383</v>
       </c>
@@ -5515,9 +5515,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="2" t="s">
         <v>384</v>
       </c>
@@ -5526,9 +5526,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
@@ -5537,9 +5537,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="2" t="s">
         <v>385</v>
       </c>
@@ -5548,9 +5548,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="2" t="s">
         <v>386</v>
       </c>
@@ -5559,9 +5559,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="2" t="s">
         <v>387</v>
       </c>
@@ -5570,9 +5570,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="2" t="s">
         <v>388</v>
       </c>
@@ -5581,9 +5581,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="2" t="s">
         <v>389</v>
       </c>
@@ -5592,9 +5592,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="2" t="s">
         <v>147</v>
       </c>
@@ -5603,9 +5603,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="2" t="s">
         <v>390</v>
       </c>
@@ -5614,9 +5614,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="2" t="s">
         <v>391</v>
       </c>
@@ -5625,9 +5625,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="2" t="s">
         <v>392</v>
       </c>
@@ -5636,9 +5636,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="2" t="s">
         <v>153</v>
       </c>
@@ -5647,9 +5647,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="2" t="s">
         <v>393</v>
       </c>
@@ -5658,9 +5658,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="2" t="s">
         <v>394</v>
       </c>
@@ -5669,9 +5669,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="2" t="s">
         <v>395</v>
       </c>
@@ -5680,9 +5680,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="2" t="s">
         <v>162</v>
       </c>
@@ -5691,9 +5691,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
+      <c r="A64" s="73"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="2" t="s">
         <v>396</v>
       </c>
@@ -5702,9 +5702,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
+      <c r="A65" s="73"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="2" t="s">
         <v>397</v>
       </c>
@@ -5713,9 +5713,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="2" t="s">
         <v>398</v>
       </c>
@@ -5724,9 +5724,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="2" t="s">
         <v>159</v>
       </c>
@@ -5735,9 +5735,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="2" t="s">
         <v>399</v>
       </c>
@@ -5746,9 +5746,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="66"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="2" t="s">
         <v>400</v>
       </c>
@@ -5757,9 +5757,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="2" t="s">
         <v>401</v>
       </c>
@@ -5768,9 +5768,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="66"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="2" t="s">
         <v>156</v>
       </c>
@@ -5779,9 +5779,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="2" t="s">
         <v>402</v>
       </c>
@@ -5790,9 +5790,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="2" t="s">
         <v>403</v>
       </c>
@@ -5801,9 +5801,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="2" t="s">
         <v>404</v>
       </c>
@@ -5812,9 +5812,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="66"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="2" t="s">
         <v>405</v>
       </c>
@@ -5823,9 +5823,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="2" t="s">
         <v>406</v>
       </c>
@@ -5834,9 +5834,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
+      <c r="A77" s="73"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="2" t="s">
         <v>407</v>
       </c>
@@ -5845,9 +5845,9 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="2" t="s">
         <v>408</v>
       </c>
@@ -5856,9 +5856,9 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="2" t="s">
         <v>409</v>
       </c>
@@ -5867,9 +5867,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="2" t="s">
         <v>410</v>
       </c>
@@ -5878,9 +5878,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="2" t="s">
         <v>411</v>
       </c>
@@ -5889,9 +5889,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="2" t="s">
         <v>412</v>
       </c>
@@ -5900,9 +5900,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
+      <c r="A83" s="73"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="2" t="s">
         <v>413</v>
       </c>
@@ -5911,9 +5911,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="2" t="s">
         <v>414</v>
       </c>
@@ -5922,9 +5922,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="2" t="s">
         <v>415</v>
       </c>
@@ -5933,9 +5933,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="2" t="s">
         <v>416</v>
       </c>
@@ -5944,9 +5944,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="2" t="s">
         <v>417</v>
       </c>
@@ -5955,9 +5955,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="2" t="s">
         <v>418</v>
       </c>
@@ -5966,9 +5966,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="62"/>
-      <c r="B89" s="67"/>
-      <c r="C89" s="68"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="80"/>
       <c r="D89" s="24" t="s">
         <v>419</v>
       </c>
@@ -5977,13 +5977,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="B90" s="69" t="s">
+      <c r="B90" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="C90" s="69" t="s">
+      <c r="C90" s="67" t="s">
         <v>459</v>
       </c>
       <c r="D90" s="21" t="s">
@@ -5994,9 +5994,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
       <c r="D91" s="2" t="s">
         <v>380</v>
       </c>
@@ -6005,9 +6005,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
       <c r="D92" s="2" t="s">
         <v>381</v>
       </c>
@@ -6016,9 +6016,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
       <c r="D93" s="2" t="s">
         <v>382</v>
       </c>
@@ -6027,9 +6027,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="2" t="s">
         <v>383</v>
       </c>
@@ -6038,9 +6038,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
+      <c r="A95" s="73"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="2" t="s">
         <v>444</v>
       </c>
@@ -6049,9 +6049,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
       <c r="D96" s="2" t="s">
         <v>445</v>
       </c>
@@ -6060,9 +6060,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
+      <c r="A97" s="73"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
       <c r="D97" s="2" t="s">
         <v>446</v>
       </c>
@@ -6071,9 +6071,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="2" t="s">
         <v>387</v>
       </c>
@@ -6082,9 +6082,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="2" t="s">
         <v>384</v>
       </c>
@@ -6093,9 +6093,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
       <c r="D100" s="2" t="s">
         <v>390</v>
       </c>
@@ -6104,9 +6104,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="2" t="s">
         <v>399</v>
       </c>
@@ -6115,9 +6115,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
       <c r="D102" s="2" t="s">
         <v>396</v>
       </c>
@@ -6126,9 +6126,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="73"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="2" t="s">
         <v>393</v>
       </c>
@@ -6137,9 +6137,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
       <c r="D104" s="2" t="s">
         <v>402</v>
       </c>
@@ -6148,9 +6148,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
       <c r="D105" s="2" t="s">
         <v>447</v>
       </c>
@@ -6159,9 +6159,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="2" t="s">
         <v>448</v>
       </c>
@@ -6170,9 +6170,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="2" t="s">
         <v>449</v>
       </c>
@@ -6181,9 +6181,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="73"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="2" t="s">
         <v>450</v>
       </c>
@@ -6192,9 +6192,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="73"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="2" t="s">
         <v>451</v>
       </c>
@@ -6203,9 +6203,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
       <c r="D110" s="2" t="s">
         <v>452</v>
       </c>
@@ -6214,9 +6214,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
       <c r="D111" s="2" t="s">
         <v>453</v>
       </c>
@@ -6225,9 +6225,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
+      <c r="A112" s="73"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
       <c r="D112" s="2" t="s">
         <v>454</v>
       </c>
@@ -6236,9 +6236,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="2" t="s">
         <v>455</v>
       </c>
@@ -6247,9 +6247,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="61"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
       <c r="D114" s="2" t="s">
         <v>456</v>
       </c>
@@ -6258,9 +6258,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
       <c r="D115" s="2" t="s">
         <v>457</v>
       </c>
@@ -6269,9 +6269,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="62"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="70"/>
+      <c r="A116" s="74"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
       <c r="D116" s="24" t="s">
         <v>458</v>
       </c>
@@ -6282,17 +6282,17 @@
     <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A41:A89"/>
+    <mergeCell ref="B41:C89"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="C90:C116"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A41:A89"/>
-    <mergeCell ref="B41:C89"/>
-    <mergeCell ref="B90:B116"/>
-    <mergeCell ref="A90:A116"/>
-    <mergeCell ref="C90:C116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6304,9 +6304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6344,10 +6344,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>461</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -6356,10 +6356,10 @@
       <c r="D2" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>463</v>
       </c>
       <c r="G2" s="28" t="s">
@@ -6370,16 +6370,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="14" t="s">
         <v>608</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="51"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="14" t="s">
         <v>278</v>
       </c>
@@ -6388,16 +6388,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="14" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="14" t="s">
         <v>621</v>
       </c>
@@ -6406,16 +6406,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="14" t="s">
         <v>609</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="14" t="s">
         <v>279</v>
       </c>
@@ -6424,16 +6424,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="14" t="s">
         <v>610</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="14" t="s">
         <v>280</v>
       </c>
@@ -6442,16 +6442,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="14" t="s">
         <v>611</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="14" t="s">
         <v>622</v>
       </c>
@@ -6460,16 +6460,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="35" t="s">
         <v>612</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="70"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="35" t="s">
         <v>623</v>
       </c>
@@ -6478,10 +6478,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="84" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="69" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6490,10 +6490,10 @@
       <c r="D9" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="72" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="67" t="s">
         <v>583</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -6504,16 +6504,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="51"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
       </c>
@@ -6522,16 +6522,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="14" t="s">
         <v>483</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="51"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
       </c>
@@ -6540,16 +6540,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="14" t="s">
         <v>484</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="51"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
       </c>
@@ -6558,16 +6558,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="51"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
       </c>
@@ -6576,16 +6576,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="70"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="24" t="s">
         <v>582</v>
       </c>
@@ -6594,18 +6594,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="14" t="s">
         <v>487</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="88" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="85" t="s">
         <v>586</v>
       </c>
       <c r="G15" s="37" t="s">
@@ -6616,16 +6616,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="14" t="s">
         <v>488</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="39" t="s">
         <v>590</v>
       </c>
@@ -6634,16 +6634,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="14" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="76"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="39" t="s">
         <v>520</v>
       </c>
@@ -6652,16 +6652,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="76"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="39" t="s">
         <v>591</v>
       </c>
@@ -6670,16 +6670,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="14" t="s">
         <v>491</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="41" t="s">
         <v>592</v>
       </c>
@@ -6688,8 +6688,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="14" t="s">
         <v>492</v>
       </c>
@@ -6698,8 +6698,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="14" t="s">
         <v>493</v>
       </c>
@@ -6708,8 +6708,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="14" t="s">
         <v>494</v>
       </c>
@@ -6718,8 +6718,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="14" t="s">
         <v>495</v>
       </c>
@@ -6728,8 +6728,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="14" t="s">
         <v>496</v>
       </c>
@@ -6738,8 +6738,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="14" t="s">
         <v>497</v>
       </c>
@@ -6748,8 +6748,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="14" t="s">
         <v>272</v>
       </c>
@@ -6758,8 +6758,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="14" t="s">
         <v>273</v>
       </c>
@@ -6768,8 +6768,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="14" t="s">
         <v>498</v>
       </c>
@@ -6778,8 +6778,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="14" t="s">
         <v>499</v>
       </c>
@@ -6788,8 +6788,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="70"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="32" t="s">
         <v>500</v>
       </c>
@@ -6798,10 +6798,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="67" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -6812,8 +6812,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="13" t="s">
         <v>510</v>
       </c>
@@ -6822,8 +6822,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="13" t="s">
         <v>511</v>
       </c>
@@ -6832,8 +6832,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13" t="s">
         <v>512</v>
       </c>
@@ -6842,8 +6842,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="13" t="s">
         <v>513</v>
       </c>
@@ -6852,8 +6852,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="13" t="s">
         <v>486</v>
       </c>
@@ -6862,8 +6862,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="13" t="s">
         <v>514</v>
       </c>
@@ -6872,8 +6872,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="13" t="s">
         <v>488</v>
       </c>
@@ -6882,8 +6882,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13" t="s">
         <v>515</v>
       </c>
@@ -6892,8 +6892,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
@@ -6902,8 +6902,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="51"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="13" t="s">
         <v>517</v>
       </c>
@@ -6912,8 +6912,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="13" t="s">
         <v>496</v>
       </c>
@@ -6922,8 +6922,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="13" t="s">
         <v>497</v>
       </c>
@@ -6932,8 +6932,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="13" t="s">
         <v>272</v>
       </c>
@@ -6942,8 +6942,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
@@ -6952,8 +6952,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="24" t="s">
         <v>498</v>
       </c>
@@ -6962,10 +6962,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="84" t="s">
         <v>668</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="69" t="s">
         <v>667</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -6976,8 +6976,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
       </c>
@@ -6986,8 +6986,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
       </c>
@@ -6996,8 +6996,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
       </c>
@@ -7006,8 +7006,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="56"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
@@ -7016,8 +7016,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="56"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
@@ -7026,8 +7026,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
@@ -7036,8 +7036,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="56"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
       </c>
@@ -7046,8 +7046,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="56"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
@@ -7056,8 +7056,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="56"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
@@ -7066,8 +7066,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="56"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
@@ -7076,8 +7076,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="56"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
       </c>
@@ -7086,8 +7086,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="56"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
       </c>
@@ -7096,8 +7096,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
@@ -7106,8 +7106,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
       </c>
@@ -7116,8 +7116,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="56"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
       </c>
@@ -7126,8 +7126,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="56"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
       </c>
@@ -7136,8 +7136,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="62"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="24" t="s">
         <v>273</v>
       </c>
@@ -7146,10 +7146,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="B65" s="69" t="s">
+      <c r="B65" s="67" t="s">
         <v>550</v>
       </c>
       <c r="C65" s="21" t="s">
@@ -7160,8 +7160,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="51"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
@@ -7170,8 +7170,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="51"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
       </c>
@@ -7180,8 +7180,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="51"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
       </c>
@@ -7190,8 +7190,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="51"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
       </c>
@@ -7200,8 +7200,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="51"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
       </c>
@@ -7210,8 +7210,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="51"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
@@ -7220,8 +7220,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="51"/>
+      <c r="A72" s="73"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
@@ -7230,8 +7230,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="51"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
       </c>
@@ -7240,8 +7240,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="51"/>
+      <c r="A74" s="73"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
       </c>
@@ -7250,8 +7250,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="51"/>
+      <c r="A75" s="73"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
       </c>
@@ -7260,8 +7260,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="51"/>
+      <c r="A76" s="73"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
       </c>
@@ -7270,8 +7270,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="62"/>
-      <c r="B77" s="70"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="68"/>
       <c r="C77" s="24" t="s">
         <v>498</v>
       </c>
@@ -7280,10 +7280,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="72" t="s">
         <v>568</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="67" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="21" t="s">
@@ -7294,8 +7294,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="51"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
       </c>
@@ -7304,8 +7304,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="51"/>
+      <c r="A80" s="73"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
       </c>
@@ -7314,8 +7314,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="51"/>
+      <c r="A81" s="73"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
       </c>
@@ -7324,8 +7324,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="51"/>
+      <c r="A82" s="73"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
       </c>
@@ -7334,8 +7334,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="51"/>
+      <c r="A83" s="73"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
       </c>
@@ -7344,8 +7344,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="51"/>
+      <c r="A84" s="73"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
       </c>
@@ -7354,8 +7354,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="51"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
       </c>
@@ -7364,8 +7364,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="51"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
       </c>
@@ -7374,8 +7374,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="51"/>
+      <c r="A87" s="73"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
       </c>
@@ -7384,8 +7384,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="73"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
       </c>
@@ -7394,8 +7394,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="51"/>
+      <c r="A89" s="73"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
       </c>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="90" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="81"/>
-      <c r="B90" s="47"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="20" t="s">
         <v>273</v>
       </c>
@@ -7414,10 +7414,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60" t="s">
+      <c r="A91" s="72" t="s">
         <v>572</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="67" t="s">
         <v>571</v>
       </c>
       <c r="C91" s="21" t="s">
@@ -7428,8 +7428,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="51"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
       </c>
@@ -7438,8 +7438,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="51"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
       </c>
@@ -7448,8 +7448,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="51"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
       </c>
@@ -7458,8 +7458,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="51"/>
+      <c r="A95" s="73"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
       </c>
@@ -7468,8 +7468,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="73"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
@@ -7478,8 +7478,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="51"/>
+      <c r="A97" s="73"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
       </c>
@@ -7488,8 +7488,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="51"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
       </c>
@@ -7498,8 +7498,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="51"/>
+      <c r="A99" s="73"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
       </c>
@@ -7508,8 +7508,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="51"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
       </c>
@@ -7518,8 +7518,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="51"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
@@ -7528,8 +7528,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="2" t="s">
         <v>273</v>
       </c>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="82"/>
-      <c r="B103" s="56"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="2" t="s">
         <v>528</v>
       </c>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="82"/>
-      <c r="B104" s="56"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="2" t="s">
         <v>494</v>
       </c>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="82"/>
-      <c r="B105" s="56"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="2" t="s">
         <v>495</v>
       </c>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="82"/>
-      <c r="B106" s="56"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="2" t="s">
         <v>695</v>
       </c>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="107" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="83"/>
-      <c r="B107" s="73"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="24" t="s">
         <v>696</v>
       </c>
@@ -7630,6 +7630,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
     <mergeCell ref="B78:B90"/>
     <mergeCell ref="A78:A90"/>
     <mergeCell ref="B91:B107"/>
@@ -7646,10 +7650,6 @@
     <mergeCell ref="B31:B46"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E9:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7687,10 +7687,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>605</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -7701,8 +7701,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
       </c>
@@ -7711,8 +7711,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
@@ -7721,8 +7721,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
       </c>
@@ -7731,8 +7731,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
       </c>
@@ -7741,8 +7741,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
       </c>
@@ -7751,8 +7751,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
       </c>
@@ -7761,8 +7761,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
@@ -7771,8 +7771,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="24" t="s">
         <v>604</v>
       </c>
@@ -7848,10 +7848,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>694</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -7862,8 +7862,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
@@ -7872,8 +7872,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
@@ -7882,8 +7882,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="2" t="s">
         <v>647</v>
       </c>
@@ -7892,8 +7892,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="2" t="s">
         <v>648</v>
       </c>
@@ -7902,8 +7902,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
@@ -7912,8 +7912,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>649</v>
       </c>
@@ -7922,8 +7922,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
         <v>650</v>
       </c>
@@ -7932,8 +7932,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="2" t="s">
         <v>651</v>
       </c>
@@ -7942,8 +7942,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="2" t="s">
         <v>652</v>
       </c>
@@ -7952,8 +7952,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="2" t="s">
         <v>653</v>
       </c>
@@ -7962,8 +7962,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="2" t="s">
         <v>654</v>
       </c>
@@ -7972,8 +7972,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="2" t="s">
         <v>655</v>
       </c>
@@ -7982,8 +7982,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="2" t="s">
         <v>656</v>
       </c>
@@ -7992,8 +7992,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
@@ -8002,8 +8002,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
       </c>
@@ -8012,8 +8012,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
       </c>
@@ -8022,8 +8022,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="2" t="s">
         <v>658</v>
       </c>
@@ -8032,8 +8032,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="2" t="s">
         <v>659</v>
       </c>
@@ -8042,8 +8042,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="2" t="s">
         <v>660</v>
       </c>
@@ -8052,8 +8052,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="2" t="s">
         <v>661</v>
       </c>
@@ -8062,8 +8062,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="2" t="s">
         <v>662</v>
       </c>
@@ -8072,8 +8072,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
         <v>663</v>
       </c>
@@ -8082,8 +8082,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
       </c>
@@ -8092,8 +8092,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
@@ -8102,8 +8102,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
       </c>
@@ -8112,8 +8112,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
@@ -8122,8 +8122,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
@@ -8132,8 +8132,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
       </c>
@@ -8142,8 +8142,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
       </c>
@@ -8152,8 +8152,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
       </c>
@@ -8162,8 +8162,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
       </c>
@@ -8172,8 +8172,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
       </c>
@@ -8182,8 +8182,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="2" t="s">
         <v>664</v>
       </c>
@@ -8192,8 +8192,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
@@ -8202,8 +8202,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="2" t="s">
         <v>665</v>
       </c>
@@ -8212,8 +8212,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="70"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="24" t="s">
         <v>666</v>
       </c>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A634964-BF40-4000-B67A-88B90B4E5DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AE000-A5CF-4B46-B06E-D2AA4DD3F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -2783,7 +2783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2849,12 +2849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2904,26 +2898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2945,6 +2919,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2953,24 +2947,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3257,15 +3254,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -3277,11 +3274,11 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3291,9 +3288,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
+    <row r="3" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3301,9 +3298,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
+    <row r="4" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3311,9 +3308,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+    <row r="5" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3321,9 +3318,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="51" t="s">
+    <row r="6" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3333,9 +3330,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
+    <row r="7" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -3343,9 +3340,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+    <row r="8" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3353,9 +3350,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
+    <row r="9" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -3363,9 +3360,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3375,9 +3372,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+    <row r="11" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3385,9 +3382,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
+    <row r="12" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3395,9 +3392,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
+    <row r="13" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3405,9 +3402,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3417,9 +3414,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3427,9 +3424,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
+    <row r="16" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3437,9 +3434,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
+    <row r="17" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3447,9 +3444,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3459,9 +3456,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+    <row r="19" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3469,9 +3466,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+    <row r="20" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -3479,9 +3476,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
+    <row r="21" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3489,9 +3486,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3501,9 +3498,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
+    <row r="23" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3511,9 +3508,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
+    <row r="24" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3521,9 +3518,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+    <row r="25" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3555,15 +3552,15 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -3575,11 +3572,11 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="53" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3589,9 +3586,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3599,9 +3596,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3609,9 +3606,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -3619,9 +3616,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="56" t="s">
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="50" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3631,9 +3628,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="57"/>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -3641,9 +3638,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="57"/>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -3651,9 +3648,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="45" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3663,9 +3660,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52"/>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3673,9 +3670,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3683,9 +3680,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55" t="s">
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3695,9 +3692,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -3705,9 +3702,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -3715,9 +3712,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3725,9 +3722,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3737,9 +3734,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
+    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3747,9 +3744,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
+    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3757,9 +3754,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58" t="s">
+    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="52" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3769,9 +3766,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58"/>
+    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -3779,9 +3776,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="58"/>
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3789,9 +3786,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="58"/>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -3799,9 +3796,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55" t="s">
+    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3811,9 +3808,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3821,9 +3818,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3831,9 +3828,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55" t="s">
+    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3843,9 +3840,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3853,9 +3850,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -3863,9 +3860,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55" t="s">
+    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3875,9 +3872,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3885,9 +3882,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -3895,9 +3892,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55" t="s">
+    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3907,9 +3904,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -3917,9 +3914,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+    <row r="34" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -3927,9 +3924,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55" t="s">
+    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3939,9 +3936,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3949,8 +3946,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
+    <row r="37" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3958,8 +3955,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
+    <row r="38" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3969,8 +3966,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="49"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3978,8 +3975,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55"/>
+    <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -4017,15 +4014,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34" defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4037,248 +4034,248 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="49" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="55"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="55"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="55"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="55"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="55"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="55"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="55"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="55"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="55"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="55" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="61"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="61"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="61"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="61"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="61"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="49" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="55"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="55"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="55"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -4287,8 +4284,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -4297,8 +4294,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -4307,8 +4304,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -4317,8 +4314,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -4327,8 +4324,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -4337,8 +4334,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -4347,8 +4344,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -4357,8 +4354,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -4367,8 +4364,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -4377,8 +4374,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -4387,8 +4384,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -4397,8 +4394,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="54"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -4407,8 +4404,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="54"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -4417,8 +4414,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="54"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -4427,8 +4424,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -4437,8 +4434,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -4447,8 +4444,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="54"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -4457,8 +4454,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -4467,8 +4464,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="54"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -4477,8 +4474,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -4512,14 +4509,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4530,130 +4527,130 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="55" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="55" t="s">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55" t="s">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -4661,8 +4658,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -4670,8 +4667,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -4679,8 +4676,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -4688,8 +4685,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -4697,8 +4694,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -4706,8 +4703,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -4715,8 +4712,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="56"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -4724,8 +4721,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="56"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4733,8 +4730,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -4742,8 +4739,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -4751,8 +4748,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -4760,8 +4757,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -4769,8 +4766,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -4778,8 +4775,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -4787,8 +4784,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -4796,8 +4793,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -4805,8 +4802,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -4814,8 +4811,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -4823,8 +4820,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -4832,8 +4829,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="57"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -4863,13 +4860,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.88671875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>206</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>208</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>210</v>
       </c>
@@ -4893,59 +4890,59 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+    <row r="7" spans="1:2" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:2" ht="41.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>222</v>
       </c>
@@ -4972,16 +4969,16 @@
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -4994,14 +4991,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>314</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="69" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -5011,252 +5008,252 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="45" t="s">
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="39" t="s">
         <v>260</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="45" t="s">
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="39" t="s">
         <v>261</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="45" t="s">
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="39" t="s">
         <v>262</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="45" t="s">
+    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="39" t="s">
         <v>263</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="45" t="s">
+    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="39" t="s">
         <v>264</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="45" t="s">
+    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="39" t="s">
         <v>265</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="45" t="s">
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="39" t="s">
         <v>266</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="45" t="s">
+    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="39" t="s">
         <v>267</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="45" t="s">
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="39" t="s">
         <v>268</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="45" t="s">
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="39" t="s">
         <v>269</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="45" t="s">
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="39" t="s">
         <v>270</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="45" t="s">
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="39" t="s">
         <v>271</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="45" t="s">
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="39" t="s">
         <v>272</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="45" t="s">
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="39" t="s">
         <v>273</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="45" t="s">
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="39" t="s">
         <v>274</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="45" t="s">
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="39" t="s">
         <v>275</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="45" t="s">
+    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="39" t="s">
         <v>276</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="45" t="s">
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="39" t="s">
         <v>277</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="45" t="s">
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="39" t="s">
         <v>278</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="45" t="s">
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="39" t="s">
         <v>279</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="45" t="s">
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="39" t="s">
         <v>280</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="45" t="s">
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="39" t="s">
         <v>281</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="60"/>
+    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="13" t="s">
         <v>287</v>
       </c>
@@ -5264,10 +5261,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
       <c r="B26" s="68"/>
-      <c r="C26" s="66"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="32" t="s">
         <v>288</v>
       </c>
@@ -5275,36 +5272,36 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="41" t="s">
         <v>298</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="44" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="60"/>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="59"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="13" t="s">
         <v>304</v>
       </c>
@@ -5312,10 +5309,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="13" t="s">
         <v>305</v>
       </c>
@@ -5323,10 +5320,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="60"/>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="59"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="13" t="s">
         <v>306</v>
       </c>
@@ -5334,10 +5331,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="66"/>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="24" t="s">
         <v>307</v>
       </c>
@@ -5345,18 +5342,18 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>316</v>
       </c>
@@ -5367,7 +5364,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>322</v>
       </c>
@@ -5378,7 +5375,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>326</v>
       </c>
@@ -5389,7 +5386,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>327</v>
       </c>
@@ -5400,7 +5397,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>323</v>
       </c>
@@ -5411,7 +5408,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>324</v>
       </c>
@@ -5422,7 +5419,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
@@ -5433,14 +5430,14 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="21" t="s">
         <v>259</v>
       </c>
@@ -5448,10 +5445,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
+    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="2" t="s">
         <v>378</v>
       </c>
@@ -5459,10 +5456,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="2" t="s">
         <v>379</v>
       </c>
@@ -5470,10 +5467,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
+    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="2" t="s">
         <v>380</v>
       </c>
@@ -5481,10 +5478,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="2" t="s">
         <v>381</v>
       </c>
@@ -5492,10 +5489,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="59"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="2" t="s">
         <v>382</v>
       </c>
@@ -5503,10 +5500,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="59"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="2" t="s">
         <v>383</v>
       </c>
@@ -5514,10 +5511,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
+    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="2" t="s">
         <v>384</v>
       </c>
@@ -5525,10 +5522,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
@@ -5536,10 +5533,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="2" t="s">
         <v>385</v>
       </c>
@@ -5547,10 +5544,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="59"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="2" t="s">
         <v>386</v>
       </c>
@@ -5558,10 +5555,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="2" t="s">
         <v>387</v>
       </c>
@@ -5569,10 +5566,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="2" t="s">
         <v>388</v>
       </c>
@@ -5580,10 +5577,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="2" t="s">
         <v>389</v>
       </c>
@@ -5591,10 +5588,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="2" t="s">
         <v>147</v>
       </c>
@@ -5602,10 +5599,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="2" t="s">
         <v>390</v>
       </c>
@@ -5613,10 +5610,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
+    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="2" t="s">
         <v>391</v>
       </c>
@@ -5624,10 +5621,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
+    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="2" t="s">
         <v>392</v>
       </c>
@@ -5635,10 +5632,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
+    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="2" t="s">
         <v>153</v>
       </c>
@@ -5646,10 +5643,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
+    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="2" t="s">
         <v>393</v>
       </c>
@@ -5657,10 +5654,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78"/>
+    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="2" t="s">
         <v>394</v>
       </c>
@@ -5668,10 +5665,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="78"/>
+    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="2" t="s">
         <v>395</v>
       </c>
@@ -5679,10 +5676,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="78"/>
+    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="2" t="s">
         <v>162</v>
       </c>
@@ -5690,10 +5687,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
+    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="2" t="s">
         <v>396</v>
       </c>
@@ -5701,10 +5698,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
+    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="59"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
       <c r="D65" s="2" t="s">
         <v>397</v>
       </c>
@@ -5712,10 +5709,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="78"/>
+    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="59"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
       <c r="D66" s="2" t="s">
         <v>398</v>
       </c>
@@ -5723,10 +5720,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
+    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="59"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="2" t="s">
         <v>159</v>
       </c>
@@ -5734,10 +5731,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="78"/>
+    <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="59"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="2" t="s">
         <v>399</v>
       </c>
@@ -5745,10 +5742,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="78"/>
+    <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="2" t="s">
         <v>400</v>
       </c>
@@ -5756,10 +5753,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="78"/>
+    <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="2" t="s">
         <v>401</v>
       </c>
@@ -5767,10 +5764,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
+    <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="2" t="s">
         <v>156</v>
       </c>
@@ -5778,10 +5775,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="78"/>
+    <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="2" t="s">
         <v>402</v>
       </c>
@@ -5789,10 +5786,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
+    <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="2" t="s">
         <v>403</v>
       </c>
@@ -5800,10 +5797,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="78"/>
+    <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="2" t="s">
         <v>404</v>
       </c>
@@ -5811,10 +5808,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
+    <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="2" t="s">
         <v>405</v>
       </c>
@@ -5822,10 +5819,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="78"/>
+    <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="2" t="s">
         <v>406</v>
       </c>
@@ -5833,10 +5830,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="78"/>
+    <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="59"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="2" t="s">
         <v>407</v>
       </c>
@@ -5844,10 +5841,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="78"/>
+    <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="2" t="s">
         <v>408</v>
       </c>
@@ -5855,10 +5852,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="78"/>
+    <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="2" t="s">
         <v>409</v>
       </c>
@@ -5866,10 +5863,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="78"/>
+    <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="2" t="s">
         <v>410</v>
       </c>
@@ -5877,10 +5874,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="78"/>
+    <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="2" t="s">
         <v>411</v>
       </c>
@@ -5888,10 +5885,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="78"/>
+    <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="2" t="s">
         <v>412</v>
       </c>
@@ -5899,10 +5896,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="78"/>
+    <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="59"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="2" t="s">
         <v>413</v>
       </c>
@@ -5910,10 +5907,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="78"/>
+    <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="59"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="64"/>
       <c r="D84" s="2" t="s">
         <v>414</v>
       </c>
@@ -5921,10 +5918,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="78"/>
+    <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="59"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="64"/>
       <c r="D85" s="2" t="s">
         <v>415</v>
       </c>
@@ -5932,10 +5929,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="78"/>
+    <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="59"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="2" t="s">
         <v>416</v>
       </c>
@@ -5943,10 +5940,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="78"/>
+    <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="59"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="2" t="s">
         <v>417</v>
       </c>
@@ -5954,10 +5951,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="78"/>
+    <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="59"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="2" t="s">
         <v>418</v>
       </c>
@@ -5965,10 +5962,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="80"/>
+    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="60"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="24" t="s">
         <v>419</v>
       </c>
@@ -5976,8 +5973,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="72" t="s">
+    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="58" t="s">
         <v>427</v>
       </c>
       <c r="B90" s="67" t="s">
@@ -5993,10 +5990,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
+    <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="59"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="2" t="s">
         <v>380</v>
       </c>
@@ -6004,10 +6001,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
+    <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="59"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="2" t="s">
         <v>381</v>
       </c>
@@ -6015,10 +6012,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
+    <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="59"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="2" t="s">
         <v>382</v>
       </c>
@@ -6026,10 +6023,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
+    <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="59"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="2" t="s">
         <v>383</v>
       </c>
@@ -6037,10 +6034,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
+    <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="59"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="2" t="s">
         <v>444</v>
       </c>
@@ -6048,10 +6045,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
+    <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="59"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="2" t="s">
         <v>445</v>
       </c>
@@ -6059,10 +6056,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
+    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="59"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="2" t="s">
         <v>446</v>
       </c>
@@ -6070,10 +6067,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
+    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="59"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
       <c r="D98" s="2" t="s">
         <v>387</v>
       </c>
@@ -6081,10 +6078,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
+    <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="59"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="2" t="s">
         <v>384</v>
       </c>
@@ -6092,10 +6089,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
+    <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="59"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="2" t="s">
         <v>390</v>
       </c>
@@ -6103,10 +6100,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
+    <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="59"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="2" t="s">
         <v>399</v>
       </c>
@@ -6114,10 +6111,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
+    <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="59"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="49"/>
       <c r="D102" s="2" t="s">
         <v>396</v>
       </c>
@@ -6125,10 +6122,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
+    <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="59"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="2" t="s">
         <v>393</v>
       </c>
@@ -6136,10 +6133,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="73"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
+    <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="59"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="2" t="s">
         <v>402</v>
       </c>
@@ -6147,10 +6144,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
+    <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="59"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="2" t="s">
         <v>447</v>
       </c>
@@ -6158,10 +6155,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="55"/>
+    <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="59"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="2" t="s">
         <v>448</v>
       </c>
@@ -6169,10 +6166,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
+    <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="59"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="2" t="s">
         <v>449</v>
       </c>
@@ -6180,10 +6177,10 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="73"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
+    <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="59"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="2" t="s">
         <v>450</v>
       </c>
@@ -6191,10 +6188,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="73"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="55"/>
+    <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="59"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="2" t="s">
         <v>451</v>
       </c>
@@ -6202,10 +6199,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="55"/>
+    <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="59"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="2" t="s">
         <v>452</v>
       </c>
@@ -6213,10 +6210,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="55"/>
+    <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="59"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
       <c r="D111" s="2" t="s">
         <v>453</v>
       </c>
@@ -6224,10 +6221,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="55"/>
+    <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="59"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="2" t="s">
         <v>454</v>
       </c>
@@ -6235,10 +6232,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="55"/>
+    <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="59"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="2" t="s">
         <v>455</v>
       </c>
@@ -6246,10 +6243,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="55"/>
+    <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="59"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
       <c r="D114" s="2" t="s">
         <v>456</v>
       </c>
@@ -6257,10 +6254,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="55"/>
+    <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="59"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="2" t="s">
         <v>457</v>
       </c>
@@ -6268,8 +6265,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="74"/>
+    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="60"/>
       <c r="B116" s="68"/>
       <c r="C116" s="68"/>
       <c r="D116" s="24" t="s">
@@ -6279,20 +6276,20 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A41:A89"/>
-    <mergeCell ref="B41:C89"/>
-    <mergeCell ref="B90:B116"/>
-    <mergeCell ref="A90:A116"/>
-    <mergeCell ref="C90:C116"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A41:A89"/>
+    <mergeCell ref="B41:C89"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="C90:C116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6306,22 +6303,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -6343,8 +6340,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>460</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -6356,7 +6353,7 @@
       <c r="D2" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="58" t="s">
         <v>462</v>
       </c>
       <c r="F2" s="67" t="s">
@@ -6369,17 +6366,17 @@
         <v>624</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="14" t="s">
         <v>608</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="55"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="14" t="s">
         <v>278</v>
       </c>
@@ -6387,17 +6384,17 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="14" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="14" t="s">
         <v>621</v>
       </c>
@@ -6405,17 +6402,17 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="55"/>
+    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="14" t="s">
         <v>609</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="55"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="14" t="s">
         <v>279</v>
       </c>
@@ -6423,17 +6420,17 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="55"/>
+    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="14" t="s">
         <v>610</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="55"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="14" t="s">
         <v>280</v>
       </c>
@@ -6441,17 +6438,17 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="14" t="s">
         <v>611</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="14" t="s">
         <v>622</v>
       </c>
@@ -6459,8 +6456,8 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
       <c r="B8" s="68"/>
       <c r="C8" s="35" t="s">
         <v>612</v>
@@ -6468,7 +6465,7 @@
       <c r="D8" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="74"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="68"/>
       <c r="G8" s="35" t="s">
         <v>623</v>
@@ -6477,11 +6474,11 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="72" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6490,7 +6487,7 @@
       <c r="D9" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="58" t="s">
         <v>584</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -6503,17 +6500,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="55"/>
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
       </c>
@@ -6521,17 +6518,17 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="14" t="s">
         <v>483</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="55"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
       </c>
@@ -6539,17 +6536,17 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="14" t="s">
         <v>484</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
       </c>
@@ -6557,17 +6554,17 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="55"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
       </c>
@@ -6575,16 +6572,16 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="68"/>
       <c r="G14" s="24" t="s">
         <v>582</v>
@@ -6593,103 +6590,103 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="14" t="s">
         <v>487</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="79" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="80" t="s">
         <v>586</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="82" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="55"/>
+    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="14" t="s">
         <v>488</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="39" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="84" t="s">
         <v>590</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="85" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="55"/>
+    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="14" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="39" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="85" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="55"/>
+    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="39" t="s">
+      <c r="E18" s="83"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="84" t="s">
         <v>591</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="85" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="55"/>
+    <row r="19" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="14" t="s">
         <v>491</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="87"/>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="88" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="89" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="55"/>
+    <row r="20" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="14" t="s">
         <v>492</v>
       </c>
@@ -6697,9 +6694,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="14" t="s">
         <v>493</v>
       </c>
@@ -6707,9 +6704,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="55"/>
+    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="14" t="s">
         <v>494</v>
       </c>
@@ -6717,9 +6714,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="55"/>
+    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="14" t="s">
         <v>495</v>
       </c>
@@ -6727,9 +6724,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="14" t="s">
         <v>496</v>
       </c>
@@ -6737,9 +6734,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="14" t="s">
         <v>497</v>
       </c>
@@ -6747,9 +6744,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="55"/>
+    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="14" t="s">
         <v>272</v>
       </c>
@@ -6757,9 +6754,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="14" t="s">
         <v>273</v>
       </c>
@@ -6767,9 +6764,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="55"/>
+    <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="14" t="s">
         <v>498</v>
       </c>
@@ -6777,9 +6774,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="55"/>
+    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="14" t="s">
         <v>499</v>
       </c>
@@ -6787,8 +6784,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
       <c r="B30" s="68"/>
       <c r="C30" s="32" t="s">
         <v>500</v>
@@ -6797,8 +6794,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="58" t="s">
         <v>518</v>
       </c>
       <c r="B31" s="67" t="s">
@@ -6811,9 +6808,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="55"/>
+    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="13" t="s">
         <v>510</v>
       </c>
@@ -6821,9 +6818,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="13" t="s">
         <v>511</v>
       </c>
@@ -6831,9 +6828,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="55"/>
+    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="13" t="s">
         <v>512</v>
       </c>
@@ -6841,9 +6838,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="13" t="s">
         <v>513</v>
       </c>
@@ -6851,9 +6848,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="13" t="s">
         <v>486</v>
       </c>
@@ -6861,9 +6858,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="55"/>
+    <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="13" t="s">
         <v>514</v>
       </c>
@@ -6871,9 +6868,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="55"/>
+    <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="13" t="s">
         <v>488</v>
       </c>
@@ -6881,9 +6878,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="55"/>
+    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="13" t="s">
         <v>515</v>
       </c>
@@ -6891,9 +6888,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="55"/>
+    <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
@@ -6901,9 +6898,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="55"/>
+    <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="59"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="13" t="s">
         <v>517</v>
       </c>
@@ -6911,9 +6908,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="55"/>
+    <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="13" t="s">
         <v>496</v>
       </c>
@@ -6921,9 +6918,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="55"/>
+    <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="59"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="13" t="s">
         <v>497</v>
       </c>
@@ -6931,9 +6928,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="B44" s="55"/>
+    <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="59"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="13" t="s">
         <v>272</v>
       </c>
@@ -6941,9 +6938,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="B45" s="55"/>
+    <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="59"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
@@ -6951,8 +6948,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
+    <row r="46" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
       <c r="B46" s="68"/>
       <c r="C46" s="24" t="s">
         <v>498</v>
@@ -6961,11 +6958,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+    <row r="47" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="72" t="s">
         <v>667</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -6975,9 +6972,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="B48" s="60"/>
+    <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
       </c>
@@ -6985,9 +6982,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="B49" s="60"/>
+    <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
       </c>
@@ -6995,9 +6992,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="B50" s="60"/>
+    <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="59"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
       </c>
@@ -7005,9 +7002,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
-      <c r="B51" s="60"/>
+    <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="59"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
@@ -7015,9 +7012,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
@@ -7025,9 +7022,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="60"/>
+    <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="59"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
@@ -7035,9 +7032,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="60"/>
+    <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
       </c>
@@ -7045,9 +7042,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="60"/>
+    <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
@@ -7055,9 +7052,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="60"/>
+    <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
@@ -7065,9 +7062,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="60"/>
+    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
@@ -7075,9 +7072,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="60"/>
+    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
       </c>
@@ -7085,9 +7082,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="60"/>
+    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
       </c>
@@ -7095,9 +7092,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="60"/>
+    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
@@ -7105,9 +7102,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="60"/>
+    <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
       </c>
@@ -7115,9 +7112,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="60"/>
+    <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
       </c>
@@ -7125,9 +7122,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
-      <c r="B63" s="60"/>
+    <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
       </c>
@@ -7135,9 +7132,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="74"/>
-      <c r="B64" s="66"/>
+    <row r="64" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="24" t="s">
         <v>273</v>
       </c>
@@ -7145,8 +7142,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+    <row r="65" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="58" t="s">
         <v>549</v>
       </c>
       <c r="B65" s="67" t="s">
@@ -7159,9 +7156,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="55"/>
+    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="59"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
@@ -7169,9 +7166,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="55"/>
+    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="59"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
       </c>
@@ -7179,9 +7176,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
-      <c r="B68" s="55"/>
+    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="59"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
       </c>
@@ -7189,9 +7186,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="55"/>
+    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="59"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
       </c>
@@ -7199,9 +7196,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="55"/>
+    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="59"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
       </c>
@@ -7209,9 +7206,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="55"/>
+    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
@@ -7219,9 +7216,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="55"/>
+    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
@@ -7229,9 +7226,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73"/>
-      <c r="B73" s="55"/>
+    <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="49"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
       </c>
@@ -7239,9 +7236,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="73"/>
-      <c r="B74" s="55"/>
+    <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
       </c>
@@ -7249,9 +7246,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
-      <c r="B75" s="55"/>
+    <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
       </c>
@@ -7259,9 +7256,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
-      <c r="B76" s="55"/>
+    <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
       </c>
@@ -7269,8 +7266,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="74"/>
+    <row r="77" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="60"/>
       <c r="B77" s="68"/>
       <c r="C77" s="24" t="s">
         <v>498</v>
@@ -7279,8 +7276,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72" t="s">
+    <row r="78" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58" t="s">
         <v>568</v>
       </c>
       <c r="B78" s="67" t="s">
@@ -7293,9 +7290,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
-      <c r="B79" s="55"/>
+    <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
       </c>
@@ -7303,9 +7300,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
-      <c r="B80" s="55"/>
+    <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
       </c>
@@ -7313,9 +7310,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
-      <c r="B81" s="55"/>
+    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
       </c>
@@ -7323,9 +7320,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
-      <c r="B82" s="55"/>
+    <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
       </c>
@@ -7333,9 +7330,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
-      <c r="B83" s="55"/>
+    <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="59"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
       </c>
@@ -7343,9 +7340,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
-      <c r="B84" s="55"/>
+    <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="59"/>
+      <c r="B84" s="49"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
       </c>
@@ -7353,9 +7350,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
-      <c r="B85" s="55"/>
+    <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="59"/>
+      <c r="B85" s="49"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
       </c>
@@ -7363,9 +7360,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
-      <c r="B86" s="55"/>
+    <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="59"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
       </c>
@@ -7373,9 +7370,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
-      <c r="B87" s="55"/>
+    <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="59"/>
+      <c r="B87" s="49"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
       </c>
@@ -7383,9 +7380,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
-      <c r="B88" s="55"/>
+    <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="59"/>
+      <c r="B88" s="49"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
       </c>
@@ -7393,9 +7390,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
-      <c r="B89" s="55"/>
+    <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="59"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
       </c>
@@ -7403,18 +7400,18 @@
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
-      <c r="B90" s="51"/>
+    <row r="90" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="75"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D90" s="46" t="s">
+      <c r="D90" s="40" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="72" t="s">
+    <row r="91" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="58" t="s">
         <v>572</v>
       </c>
       <c r="B91" s="67" t="s">
@@ -7427,9 +7424,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
-      <c r="B92" s="55"/>
+    <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="59"/>
+      <c r="B92" s="49"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
       </c>
@@ -7437,9 +7434,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
-      <c r="B93" s="55"/>
+    <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="59"/>
+      <c r="B93" s="49"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
       </c>
@@ -7447,9 +7444,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73"/>
-      <c r="B94" s="55"/>
+    <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="59"/>
+      <c r="B94" s="49"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
       </c>
@@ -7457,9 +7454,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
-      <c r="B95" s="55"/>
+    <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="59"/>
+      <c r="B95" s="49"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
       </c>
@@ -7467,9 +7464,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
-      <c r="B96" s="55"/>
+    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="59"/>
+      <c r="B96" s="49"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
@@ -7477,9 +7474,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
-      <c r="B97" s="55"/>
+    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="59"/>
+      <c r="B97" s="49"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
       </c>
@@ -7487,9 +7484,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
-      <c r="B98" s="55"/>
+    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="59"/>
+      <c r="B98" s="49"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
       </c>
@@ -7497,9 +7494,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
-      <c r="B99" s="55"/>
+    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="59"/>
+      <c r="B99" s="49"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
       </c>
@@ -7507,9 +7504,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
-      <c r="B100" s="55"/>
+    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="59"/>
+      <c r="B100" s="49"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
       </c>
@@ -7517,9 +7514,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
-      <c r="B101" s="55"/>
+    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="59"/>
+      <c r="B101" s="49"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
@@ -7527,9 +7524,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73"/>
-      <c r="B102" s="55"/>
+    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="59"/>
+      <c r="B102" s="49"/>
       <c r="C102" s="2" t="s">
         <v>273</v>
       </c>
@@ -7537,9 +7534,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="60"/>
+    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="76"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="2" t="s">
         <v>528</v>
       </c>
@@ -7547,9 +7544,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="60"/>
+    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="76"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="2" t="s">
         <v>494</v>
       </c>
@@ -7557,9 +7554,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
-      <c r="B105" s="60"/>
+    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="76"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="2" t="s">
         <v>495</v>
       </c>
@@ -7567,9 +7564,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="60"/>
+    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="76"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="2" t="s">
         <v>695</v>
       </c>
@@ -7577,9 +7574,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="83"/>
-      <c r="B107" s="66"/>
+    <row r="107" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="77"/>
+      <c r="B107" s="71"/>
       <c r="C107" s="24" t="s">
         <v>696</v>
       </c>
@@ -7587,54 +7584,49 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
     </row>
-    <row r="122" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
     </row>
-    <row r="123" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
     </row>
-    <row r="125" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="B78:B90"/>
     <mergeCell ref="A78:A90"/>
     <mergeCell ref="B91:B107"/>
     <mergeCell ref="A91:A107"/>
@@ -7650,6 +7642,11 @@
     <mergeCell ref="B31:B46"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="B78:B90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7666,15 +7663,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -7686,8 +7683,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>606</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7700,9 +7697,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
       </c>
@@ -7710,9 +7707,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
@@ -7720,9 +7717,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="55"/>
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
       </c>
@@ -7730,9 +7727,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="55"/>
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
       </c>
@@ -7740,9 +7737,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
       </c>
@@ -7750,9 +7747,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
       </c>
@@ -7760,9 +7757,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="55"/>
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
@@ -7770,8 +7767,8 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+    <row r="10" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
       <c r="B10" s="68"/>
       <c r="C10" s="24" t="s">
         <v>604</v>
@@ -7780,31 +7777,31 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
     </row>
-    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
     </row>
-    <row r="17" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
     </row>
@@ -7827,15 +7824,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -7847,8 +7844,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7861,9 +7858,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
@@ -7871,9 +7868,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="55"/>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
@@ -7881,9 +7878,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="55"/>
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>647</v>
       </c>
@@ -7891,9 +7888,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
-      <c r="B6" s="55"/>
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="2" t="s">
         <v>648</v>
       </c>
@@ -7901,9 +7898,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="55"/>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
@@ -7911,9 +7908,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>649</v>
       </c>
@@ -7921,9 +7918,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
-      <c r="B9" s="55"/>
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
         <v>650</v>
       </c>
@@ -7931,9 +7928,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="55"/>
+    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="2" t="s">
         <v>651</v>
       </c>
@@ -7941,9 +7938,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="55"/>
+    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="2" t="s">
         <v>652</v>
       </c>
@@ -7951,9 +7948,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="55"/>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="2" t="s">
         <v>653</v>
       </c>
@@ -7961,9 +7958,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
         <v>654</v>
       </c>
@@ -7971,9 +7968,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="55"/>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="2" t="s">
         <v>655</v>
       </c>
@@ -7981,9 +7978,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="55"/>
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="2" t="s">
         <v>656</v>
       </c>
@@ -7991,9 +7988,9 @@
         <v>685</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="55"/>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
@@ -8001,9 +7998,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="55"/>
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
       </c>
@@ -8011,9 +8008,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="55"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
       </c>
@@ -8021,9 +8018,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="55"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="59"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="2" t="s">
         <v>658</v>
       </c>
@@ -8031,9 +8028,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="55"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="2" t="s">
         <v>659</v>
       </c>
@@ -8041,9 +8038,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
         <v>660</v>
       </c>
@@ -8051,9 +8048,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="55"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="2" t="s">
         <v>661</v>
       </c>
@@ -8061,9 +8058,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="55"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="2" t="s">
         <v>662</v>
       </c>
@@ -8071,9 +8068,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="55"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
         <v>663</v>
       </c>
@@ -8081,9 +8078,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="55"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
       </c>
@@ -8091,9 +8088,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="55"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
@@ -8101,9 +8098,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
       </c>
@@ -8111,9 +8108,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="55"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="59"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
@@ -8121,9 +8118,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="55"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="59"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
@@ -8131,9 +8128,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
       </c>
@@ -8141,9 +8138,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="55"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="59"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
       </c>
@@ -8151,9 +8148,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="55"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
       </c>
@@ -8161,9 +8158,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="55"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
       </c>
@@ -8171,9 +8168,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="55"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
       </c>
@@ -8181,9 +8178,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="55"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="59"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="2" t="s">
         <v>664</v>
       </c>
@@ -8191,9 +8188,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="55"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="59"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
@@ -8201,9 +8198,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="55"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="59"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="2" t="s">
         <v>665</v>
       </c>
@@ -8211,8 +8208,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
       <c r="B38" s="68"/>
       <c r="C38" s="24" t="s">
         <v>666</v>
@@ -8221,7 +8218,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B38"/>

--- a/首页接口码值说明.xlsx
+++ b/首页接口码值说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\icrm-app-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5AE000-A5CF-4B46-B06E-D2AA4DD3F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6F559F-915A-404A-ABBA-179D072177ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户增长趋势图" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="客户视图-产品信息" sheetId="10" r:id="rId7"/>
     <sheet name="客户视图-交易分析" sheetId="11" r:id="rId8"/>
     <sheet name="客户视图-商机列表" sheetId="12" r:id="rId9"/>
+    <sheet name="晨夕会" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="739">
   <si>
     <t>custCnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2445,6 +2446,154 @@
   </si>
   <si>
     <t>otpuBeginDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryMemSoundRecList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>归属机构名</t>
+  </si>
+  <si>
+    <t>晨夕会主题</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>创建人名称</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usrName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crtUsrNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crtUsrName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongOrgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundRecCaption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crtTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveMemSoundRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+  </si>
+  <si>
+    <t>memSoundPicUpload</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>fileType</t>
+  </si>
+  <si>
+    <t>busitableKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memSoundRecUpload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileServerPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2511,7 +2660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2779,11 +2928,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2865,6 +3053,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2898,6 +3092,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2919,26 +3133,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2947,27 +3141,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3254,15 +3450,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -3274,11 +3470,11 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3288,9 +3484,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3298,9 +3494,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3308,9 +3504,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+    <row r="5" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3318,9 +3514,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3330,9 +3526,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
@@ -3340,9 +3536,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3350,9 +3546,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+    <row r="9" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="2" t="s">
         <v>128</v>
       </c>
@@ -3360,9 +3556,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="51" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3372,9 +3568,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+    <row r="11" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
@@ -3382,9 +3578,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+    <row r="12" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3392,9 +3588,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+    <row r="13" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3402,9 +3598,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="51" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3414,9 +3610,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+    <row r="15" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
@@ -3424,9 +3620,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+    <row r="16" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
@@ -3434,9 +3630,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
+    <row r="17" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3444,9 +3640,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="45" t="s">
+    <row r="18" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3456,9 +3652,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+    <row r="19" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3466,9 +3662,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+    <row r="20" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
@@ -3476,9 +3672,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+    <row r="21" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3486,9 +3682,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3498,9 +3694,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
@@ -3508,9 +3704,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+    <row r="24" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3518,9 +3714,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+    <row r="25" spans="1:4" ht="18.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
@@ -3544,6 +3740,318 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED36779-46F5-46B2-9746-B89B5A7E0144}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>720</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>722</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>736</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="24" t="s">
+        <v>732</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="90" t="s">
+        <v>734</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1102E-120B-4662-98C2-2F0C2B07AA56}">
   <dimension ref="A1:D40"/>
@@ -3552,15 +4060,15 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="21.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -3572,11 +4080,11 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3586,9 +4094,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
+    <row r="3" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
@@ -3596,9 +4104,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
+    <row r="4" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
@@ -3606,9 +4114,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
+    <row r="5" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="5" t="s">
         <v>171</v>
       </c>
@@ -3616,9 +4124,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="56" t="s">
         <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -3628,9 +4136,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="51"/>
+    <row r="7" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
@@ -3638,9 +4146,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="51"/>
+    <row r="8" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="5" t="s">
         <v>179</v>
       </c>
@@ -3648,9 +4156,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="45" t="s">
+    <row r="9" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="51" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3660,9 +4168,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="46"/>
+    <row r="10" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3670,9 +4178,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
+    <row r="11" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3680,9 +4188,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3692,9 +4200,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="7" t="s">
         <v>98</v>
       </c>
@@ -3702,9 +4210,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+    <row r="14" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
@@ -3712,9 +4220,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="7" t="s">
         <v>100</v>
       </c>
@@ -3722,9 +4230,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52" t="s">
+    <row r="16" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3734,9 +4242,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
+    <row r="17" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -3744,9 +4252,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
+    <row r="18" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
@@ -3754,9 +4262,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52" t="s">
+    <row r="19" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="58" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3766,9 +4274,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="52"/>
+    <row r="20" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="7" t="s">
         <v>107</v>
       </c>
@@ -3776,9 +4284,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="52"/>
+    <row r="21" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3786,9 +4294,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
+    <row r="22" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
         <v>109</v>
       </c>
@@ -3796,9 +4304,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49" t="s">
+    <row r="23" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55" t="s">
         <v>170</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3808,9 +4316,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+    <row r="24" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
         <v>130</v>
       </c>
@@ -3818,9 +4326,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
+    <row r="25" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3828,9 +4336,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49" t="s">
+    <row r="26" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3840,9 +4348,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>133</v>
       </c>
@@ -3850,9 +4358,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+    <row r="28" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>134</v>
       </c>
@@ -3860,9 +4368,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49" t="s">
+    <row r="29" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3872,9 +4380,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+    <row r="30" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3882,9 +4390,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+    <row r="31" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
@@ -3892,9 +4400,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55" t="s">
         <v>167</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3904,9 +4412,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
+    <row r="33" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2" t="s">
         <v>139</v>
       </c>
@@ -3914,9 +4422,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+    <row r="34" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
@@ -3924,9 +4432,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
+    <row r="35" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3936,9 +4444,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
+    <row r="36" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3946,8 +4454,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="55"/>
       <c r="C37" s="2" t="s">
         <v>143</v>
       </c>
@@ -3955,8 +4463,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+    <row r="38" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
         <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3966,8 +4474,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
+    <row r="39" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55"/>
       <c r="C39" s="2" t="s">
         <v>145</v>
       </c>
@@ -3975,8 +4483,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="49"/>
+    <row r="40" spans="1:4" ht="21.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="55"/>
       <c r="C40" s="2" t="s">
         <v>146</v>
       </c>
@@ -4014,15 +4522,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4034,248 +4542,248 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+    <row r="3" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="49"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
+    <row r="4" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="49"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+    <row r="5" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+    <row r="6" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+    <row r="7" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="55" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="61" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="55"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="55"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="61" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
+    <row r="19" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="55"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+    <row r="21" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="55"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="61" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
+    <row r="23" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="55"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="55"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="55"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+    <row r="30" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>183</v>
@@ -4284,8 +4792,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+    <row r="31" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>184</v>
@@ -4294,8 +4802,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+    <row r="32" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>185</v>
@@ -4304,8 +4812,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+    <row r="33" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>147</v>
@@ -4314,8 +4822,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+    <row r="34" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>148</v>
@@ -4324,8 +4832,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+    <row r="35" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>149</v>
@@ -4334,8 +4842,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+    <row r="36" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>150</v>
@@ -4344,8 +4852,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+    <row r="37" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>151</v>
@@ -4354,8 +4862,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>152</v>
@@ -4364,8 +4872,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>153</v>
@@ -4374,8 +4882,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+    <row r="40" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>154</v>
@@ -4384,8 +4892,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+    <row r="41" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>155</v>
@@ -4394,8 +4902,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+    <row r="42" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>156</v>
@@ -4404,8 +4912,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+    <row r="43" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>157</v>
@@ -4414,8 +4922,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+    <row r="44" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>158</v>
@@ -4424,8 +4932,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+    <row r="45" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>159</v>
@@ -4434,8 +4942,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+    <row r="46" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>160</v>
@@ -4444,8 +4952,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+    <row r="47" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>161</v>
@@ -4454,8 +4962,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+    <row r="48" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>162</v>
@@ -4464,8 +4972,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+    <row r="49" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>163</v>
@@ -4474,8 +4982,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+    <row r="50" spans="1:4" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>164</v>
@@ -4509,14 +5017,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4527,130 +5035,130 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="55" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49" t="s">
+    <row r="6" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52"/>
+      <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="55" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+    <row r="11" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49" t="s">
+    <row r="14" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
+    <row r="16" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
+    <row r="17" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
       <c r="B18" s="9" t="s">
         <v>225</v>
       </c>
@@ -4658,8 +5166,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+    <row r="19" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
       <c r="B19" s="9" t="s">
         <v>226</v>
       </c>
@@ -4667,8 +5175,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+    <row r="20" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
       <c r="B20" s="9" t="s">
         <v>227</v>
       </c>
@@ -4676,8 +5184,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
+    <row r="21" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
       <c r="B21" s="2" t="s">
         <v>224</v>
       </c>
@@ -4685,8 +5193,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
+    <row r="22" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
       <c r="B22" s="2" t="s">
         <v>195</v>
       </c>
@@ -4694,8 +5202,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+    <row r="23" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
       <c r="B23" s="2" t="s">
         <v>196</v>
       </c>
@@ -4703,8 +5211,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
+    <row r="24" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
       <c r="B24" s="2" t="s">
         <v>197</v>
       </c>
@@ -4712,8 +5220,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
+    <row r="25" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
       <c r="B25" s="2" t="s">
         <v>198</v>
       </c>
@@ -4721,8 +5229,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
+    <row r="26" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
       <c r="B26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4730,8 +5238,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
+    <row r="27" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
       <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
@@ -4739,8 +5247,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+    <row r="28" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="62"/>
       <c r="B28" s="2" t="s">
         <v>201</v>
       </c>
@@ -4748,8 +5256,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
+    <row r="29" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -4757,8 +5265,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+    <row r="30" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
       <c r="B30" s="2" t="s">
         <v>237</v>
       </c>
@@ -4766,8 +5274,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
+    <row r="31" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
       <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
@@ -4775,8 +5283,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
+    <row r="32" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
@@ -4784,8 +5292,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
+    <row r="33" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
       <c r="B33" s="2" t="s">
         <v>240</v>
       </c>
@@ -4793,8 +5301,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+    <row r="34" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
       <c r="B34" s="2" t="s">
         <v>241</v>
       </c>
@@ -4802,8 +5310,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+    <row r="35" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
       <c r="B35" s="2" t="s">
         <v>242</v>
       </c>
@@ -4811,8 +5319,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+    <row r="36" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
       <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
@@ -4820,8 +5328,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+    <row r="37" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
       <c r="B37" s="2" t="s">
         <v>244</v>
       </c>
@@ -4829,8 +5337,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+    <row r="38" spans="1:3" ht="18.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="63"/>
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
@@ -4860,13 +5368,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>206</v>
       </c>
@@ -4874,7 +5382,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>208</v>
       </c>
@@ -4882,7 +5390,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>210</v>
       </c>
@@ -4890,59 +5398,59 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:2" ht="55.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
       <c r="B5" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
       <c r="B6" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
+    <row r="7" spans="1:2" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
       <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
       <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="41.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:2" ht="41.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
       <c r="B11" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>222</v>
       </c>
@@ -4969,16 +5477,16 @@
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -4991,14 +5499,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>314</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="64" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -5008,10 +5516,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="70"/>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="39" t="s">
         <v>260</v>
       </c>
@@ -5019,10 +5527,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="70"/>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="39" t="s">
         <v>261</v>
       </c>
@@ -5030,10 +5538,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="70"/>
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="39" t="s">
         <v>262</v>
       </c>
@@ -5041,10 +5549,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="70"/>
+    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="39" t="s">
         <v>263</v>
       </c>
@@ -5052,10 +5560,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="70"/>
+    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="39" t="s">
         <v>264</v>
       </c>
@@ -5063,10 +5571,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="70"/>
+    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="39" t="s">
         <v>265</v>
       </c>
@@ -5074,10 +5582,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="70"/>
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="39" t="s">
         <v>266</v>
       </c>
@@ -5085,10 +5593,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="70"/>
+    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="39" t="s">
         <v>267</v>
       </c>
@@ -5096,10 +5604,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="70"/>
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="39" t="s">
         <v>268</v>
       </c>
@@ -5107,10 +5615,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="70"/>
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="39" t="s">
         <v>269</v>
       </c>
@@ -5118,10 +5626,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="70"/>
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="39" t="s">
         <v>270</v>
       </c>
@@ -5129,10 +5637,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="70"/>
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="39" t="s">
         <v>271</v>
       </c>
@@ -5140,10 +5648,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="70"/>
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="39" t="s">
         <v>272</v>
       </c>
@@ -5151,10 +5659,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="70"/>
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="39" t="s">
         <v>273</v>
       </c>
@@ -5162,10 +5670,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="70"/>
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="39" t="s">
         <v>274</v>
       </c>
@@ -5173,10 +5681,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="70"/>
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="39" t="s">
         <v>275</v>
       </c>
@@ -5184,10 +5692,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="70"/>
+    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="39" t="s">
         <v>276</v>
       </c>
@@ -5195,10 +5703,10 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="70"/>
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="39" t="s">
         <v>277</v>
       </c>
@@ -5206,10 +5714,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="70"/>
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="39" t="s">
         <v>278</v>
       </c>
@@ -5217,10 +5725,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="70"/>
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="39" t="s">
         <v>279</v>
       </c>
@@ -5228,10 +5736,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="70"/>
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="39" t="s">
         <v>280</v>
       </c>
@@ -5239,10 +5747,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="70"/>
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="39" t="s">
         <v>281</v>
       </c>
@@ -5250,10 +5758,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="54"/>
+    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="13" t="s">
         <v>287</v>
       </c>
@@ -5261,10 +5769,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74"/>
       <c r="B26" s="68"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="32" t="s">
         <v>288</v>
       </c>
@@ -5272,7 +5780,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>313</v>
       </c>
@@ -5283,14 +5791,14 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="34" t="s">
         <v>308</v>
       </c>
@@ -5298,10 +5806,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="54"/>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="13" t="s">
         <v>304</v>
       </c>
@@ -5309,10 +5817,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="54"/>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="13" t="s">
         <v>305</v>
       </c>
@@ -5320,10 +5828,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="54"/>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="13" t="s">
         <v>306</v>
       </c>
@@ -5331,10 +5839,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="71"/>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="24" t="s">
         <v>307</v>
       </c>
@@ -5342,7 +5850,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>310</v>
       </c>
@@ -5353,7 +5861,7 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
     </row>
-    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>316</v>
       </c>
@@ -5364,7 +5872,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>322</v>
       </c>
@@ -5375,7 +5883,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>326</v>
       </c>
@@ -5386,7 +5894,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>327</v>
       </c>
@@ -5397,7 +5905,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>323</v>
       </c>
@@ -5408,7 +5916,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>324</v>
       </c>
@@ -5419,7 +5927,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>325</v>
       </c>
@@ -5430,14 +5938,14 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="21" t="s">
         <v>259</v>
       </c>
@@ -5445,10 +5953,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
+    <row r="42" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="2" t="s">
         <v>378</v>
       </c>
@@ -5456,10 +5964,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="2" t="s">
         <v>379</v>
       </c>
@@ -5467,10 +5975,10 @@
         <v>333</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
+    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="2" t="s">
         <v>380</v>
       </c>
@@ -5478,10 +5986,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="2" t="s">
         <v>381</v>
       </c>
@@ -5489,10 +5997,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="73"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="2" t="s">
         <v>382</v>
       </c>
@@ -5500,10 +6008,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="73"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="2" t="s">
         <v>383</v>
       </c>
@@ -5511,10 +6019,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
+    <row r="48" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="2" t="s">
         <v>384</v>
       </c>
@@ -5522,10 +6030,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="2" t="s">
         <v>150</v>
       </c>
@@ -5533,10 +6041,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="2" t="s">
         <v>385</v>
       </c>
@@ -5544,10 +6052,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="2" t="s">
         <v>386</v>
       </c>
@@ -5555,10 +6063,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="73"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="2" t="s">
         <v>387</v>
       </c>
@@ -5566,10 +6074,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="2" t="s">
         <v>388</v>
       </c>
@@ -5577,10 +6085,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="2" t="s">
         <v>389</v>
       </c>
@@ -5588,10 +6096,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="2" t="s">
         <v>147</v>
       </c>
@@ -5599,10 +6107,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="2" t="s">
         <v>390</v>
       </c>
@@ -5610,10 +6118,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
+    <row r="57" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="2" t="s">
         <v>391</v>
       </c>
@@ -5621,10 +6129,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
+    <row r="58" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="2" t="s">
         <v>392</v>
       </c>
@@ -5632,10 +6140,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+    <row r="59" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="2" t="s">
         <v>153</v>
       </c>
@@ -5643,10 +6151,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
+    <row r="60" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="2" t="s">
         <v>393</v>
       </c>
@@ -5654,10 +6162,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
+    <row r="61" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="2" t="s">
         <v>394</v>
       </c>
@@ -5665,10 +6173,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
+    <row r="62" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="2" t="s">
         <v>395</v>
       </c>
@@ -5676,10 +6184,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
+    <row r="63" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="2" t="s">
         <v>162</v>
       </c>
@@ -5687,10 +6195,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
+    <row r="64" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="73"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="2" t="s">
         <v>396</v>
       </c>
@@ -5698,10 +6206,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="59"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
+    <row r="65" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="2" t="s">
         <v>397</v>
       </c>
@@ -5709,10 +6217,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
+    <row r="66" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="2" t="s">
         <v>398</v>
       </c>
@@ -5720,10 +6228,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
+    <row r="67" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="2" t="s">
         <v>159</v>
       </c>
@@ -5731,10 +6239,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
+    <row r="68" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="2" t="s">
         <v>399</v>
       </c>
@@ -5742,10 +6250,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="59"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
+    <row r="69" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="2" t="s">
         <v>400</v>
       </c>
@@ -5753,10 +6261,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="59"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
+    <row r="70" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="2" t="s">
         <v>401</v>
       </c>
@@ -5764,10 +6272,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="59"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64"/>
+    <row r="71" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="2" t="s">
         <v>156</v>
       </c>
@@ -5775,10 +6283,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="59"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
+    <row r="72" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="2" t="s">
         <v>402</v>
       </c>
@@ -5786,10 +6294,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="59"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
+    <row r="73" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="2" t="s">
         <v>403</v>
       </c>
@@ -5797,10 +6305,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="64"/>
+    <row r="74" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="2" t="s">
         <v>404</v>
       </c>
@@ -5808,10 +6316,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="64"/>
+    <row r="75" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="2" t="s">
         <v>405</v>
       </c>
@@ -5819,10 +6327,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="59"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="64"/>
+    <row r="76" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="2" t="s">
         <v>406</v>
       </c>
@@ -5830,10 +6338,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="59"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
+    <row r="77" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="2" t="s">
         <v>407</v>
       </c>
@@ -5841,10 +6349,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="59"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
+    <row r="78" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="2" t="s">
         <v>408</v>
       </c>
@@ -5852,10 +6360,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
+    <row r="79" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="2" t="s">
         <v>409</v>
       </c>
@@ -5863,10 +6371,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="64"/>
+    <row r="80" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="2" t="s">
         <v>410</v>
       </c>
@@ -5874,10 +6382,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="59"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="64"/>
+    <row r="81" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="2" t="s">
         <v>411</v>
       </c>
@@ -5885,10 +6393,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="64"/>
+    <row r="82" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="2" t="s">
         <v>412</v>
       </c>
@@ -5896,10 +6404,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="64"/>
+    <row r="83" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="2" t="s">
         <v>413</v>
       </c>
@@ -5907,10 +6415,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="64"/>
+    <row r="84" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="2" t="s">
         <v>414</v>
       </c>
@@ -5918,10 +6426,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64"/>
+    <row r="85" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="2" t="s">
         <v>415</v>
       </c>
@@ -5929,10 +6437,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="59"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
+    <row r="86" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="2" t="s">
         <v>416</v>
       </c>
@@ -5940,10 +6448,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="59"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="64"/>
+    <row r="87" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="2" t="s">
         <v>417</v>
       </c>
@@ -5951,10 +6459,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="59"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="64"/>
+    <row r="88" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="2" t="s">
         <v>418</v>
       </c>
@@ -5962,10 +6470,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
+    <row r="89" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="74"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="80"/>
       <c r="D89" s="24" t="s">
         <v>419</v>
       </c>
@@ -5973,8 +6481,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="72" t="s">
         <v>427</v>
       </c>
       <c r="B90" s="67" t="s">
@@ -5990,10 +6498,10 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="59"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
+    <row r="91" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
       <c r="D91" s="2" t="s">
         <v>380</v>
       </c>
@@ -6001,10 +6509,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="59"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
+    <row r="92" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
       <c r="D92" s="2" t="s">
         <v>381</v>
       </c>
@@ -6012,10 +6520,10 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="59"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
+    <row r="93" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
       <c r="D93" s="2" t="s">
         <v>382</v>
       </c>
@@ -6023,10 +6531,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="59"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
+    <row r="94" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="2" t="s">
         <v>383</v>
       </c>
@@ -6034,10 +6542,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="59"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
+    <row r="95" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="73"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="2" t="s">
         <v>444</v>
       </c>
@@ -6045,10 +6553,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="59"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
+    <row r="96" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
       <c r="D96" s="2" t="s">
         <v>445</v>
       </c>
@@ -6056,10 +6564,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="59"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
+    <row r="97" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
       <c r="D97" s="2" t="s">
         <v>446</v>
       </c>
@@ -6067,10 +6575,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="59"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
+    <row r="98" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="2" t="s">
         <v>387</v>
       </c>
@@ -6078,10 +6586,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
+    <row r="99" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="2" t="s">
         <v>384</v>
       </c>
@@ -6089,10 +6597,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="59"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
+    <row r="100" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
       <c r="D100" s="2" t="s">
         <v>390</v>
       </c>
@@ -6100,10 +6608,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="59"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
+    <row r="101" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="2" t="s">
         <v>399</v>
       </c>
@@ -6111,10 +6619,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="59"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="49"/>
+    <row r="102" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
       <c r="D102" s="2" t="s">
         <v>396</v>
       </c>
@@ -6122,10 +6630,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="59"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
+    <row r="103" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="73"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="2" t="s">
         <v>393</v>
       </c>
@@ -6133,10 +6641,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="59"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
+    <row r="104" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="73"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
       <c r="D104" s="2" t="s">
         <v>402</v>
       </c>
@@ -6144,10 +6652,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="59"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
+    <row r="105" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="73"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
       <c r="D105" s="2" t="s">
         <v>447</v>
       </c>
@@ -6155,10 +6663,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="59"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
+    <row r="106" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="73"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="2" t="s">
         <v>448</v>
       </c>
@@ -6166,10 +6674,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="59"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
+    <row r="107" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="2" t="s">
         <v>449</v>
       </c>
@@ -6177,10 +6685,10 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="59"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
+    <row r="108" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="2" t="s">
         <v>450</v>
       </c>
@@ -6188,10 +6696,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="59"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49"/>
+    <row r="109" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="2" t="s">
         <v>451</v>
       </c>
@@ -6199,10 +6707,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="59"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
+    <row r="110" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
       <c r="D110" s="2" t="s">
         <v>452</v>
       </c>
@@ -6210,10 +6718,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="59"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="49"/>
+    <row r="111" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="73"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
       <c r="D111" s="2" t="s">
         <v>453</v>
       </c>
@@ -6221,10 +6729,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="59"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="49"/>
+    <row r="112" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="73"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
       <c r="D112" s="2" t="s">
         <v>454</v>
       </c>
@@ -6232,10 +6740,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="59"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
+    <row r="113" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="73"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="2" t="s">
         <v>455</v>
       </c>
@@ -6243,10 +6751,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="59"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
+    <row r="114" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="73"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
       <c r="D114" s="2" t="s">
         <v>456</v>
       </c>
@@ -6254,10 +6762,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="59"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
+    <row r="115" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="73"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
       <c r="D115" s="2" t="s">
         <v>457</v>
       </c>
@@ -6265,8 +6773,8 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
+    <row r="116" spans="1:5" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="74"/>
       <c r="B116" s="68"/>
       <c r="C116" s="68"/>
       <c r="D116" s="24" t="s">
@@ -6276,20 +6784,20 @@
         <v>442</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:5" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A41:A89"/>
+    <mergeCell ref="B41:C89"/>
+    <mergeCell ref="B90:B116"/>
+    <mergeCell ref="A90:A116"/>
+    <mergeCell ref="C90:C116"/>
     <mergeCell ref="C2:C26"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A41:A89"/>
-    <mergeCell ref="B41:C89"/>
-    <mergeCell ref="B90:B116"/>
-    <mergeCell ref="A90:A116"/>
-    <mergeCell ref="C90:C116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6301,24 +6809,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A892-6422-4953-B926-A73CE4ED04BC}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -6340,8 +6848,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>460</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -6353,7 +6861,7 @@
       <c r="D2" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="72" t="s">
         <v>462</v>
       </c>
       <c r="F2" s="67" t="s">
@@ -6366,17 +6874,17 @@
         <v>624</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="14" t="s">
         <v>608</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>614</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="49"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="14" t="s">
         <v>278</v>
       </c>
@@ -6384,17 +6892,17 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="14" t="s">
         <v>277</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="49"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="14" t="s">
         <v>621</v>
       </c>
@@ -6402,17 +6910,17 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="14" t="s">
         <v>609</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="49"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="14" t="s">
         <v>279</v>
       </c>
@@ -6420,17 +6928,17 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="14" t="s">
         <v>610</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="14" t="s">
         <v>280</v>
       </c>
@@ -6438,17 +6946,17 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="14" t="s">
         <v>611</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="49"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="14" t="s">
         <v>622</v>
       </c>
@@ -6456,8 +6964,8 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
       <c r="B8" s="68"/>
       <c r="C8" s="35" t="s">
         <v>612</v>
@@ -6465,7 +6973,7 @@
       <c r="D8" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="68"/>
       <c r="G8" s="35" t="s">
         <v>623</v>
@@ -6474,11 +6982,11 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="69" t="s">
         <v>501</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -6487,7 +6995,7 @@
       <c r="D9" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="72" t="s">
         <v>584</v>
       </c>
       <c r="F9" s="67" t="s">
@@ -6500,17 +7008,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="49"/>
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="14" t="s">
         <v>482</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="2" t="s">
         <v>578</v>
       </c>
@@ -6518,17 +7026,17 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="49"/>
+    <row r="11" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="14" t="s">
         <v>483</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="2" t="s">
         <v>579</v>
       </c>
@@ -6536,17 +7044,17 @@
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="14" t="s">
         <v>484</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="49"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="2" t="s">
         <v>580</v>
       </c>
@@ -6554,17 +7062,17 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="14" t="s">
         <v>485</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="2" t="s">
         <v>581</v>
       </c>
@@ -6572,16 +7080,16 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="49"/>
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="14" t="s">
         <v>486</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="68"/>
       <c r="G14" s="24" t="s">
         <v>582</v>
@@ -6590,103 +7098,103 @@
         <v>577</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="14" t="s">
         <v>487</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>669</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="87" t="s">
         <v>585</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="49"/>
+    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="14" t="s">
         <v>488</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="84" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="47" t="s">
         <v>590</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="48" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="49"/>
+    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="14" t="s">
         <v>489</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="84" t="s">
+      <c r="E17" s="88"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="H17" s="85" t="s">
+      <c r="H17" s="48" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="49"/>
+    <row r="18" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="14" t="s">
         <v>490</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="84" t="s">
+      <c r="E18" s="88"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="47" t="s">
         <v>591</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="48" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="49"/>
+    <row r="19" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="14" t="s">
         <v>491</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88" t="s">
+      <c r="E19" s="89"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="50" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="49"/>
+    <row r="20" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="14" t="s">
         <v>492</v>
       </c>
@@ -6694,9 +7202,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="49"/>
+    <row r="21" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="14" t="s">
         <v>493</v>
       </c>
@@ -6704,9 +7212,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="49"/>
+    <row r="22" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="14" t="s">
         <v>494</v>
       </c>
@@ -6714,9 +7222,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="49"/>
+    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="14" t="s">
         <v>495</v>
       </c>
@@ -6724,9 +7232,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="49"/>
+    <row r="24" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="14" t="s">
         <v>496</v>
       </c>
@@ -6734,9 +7242,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="49"/>
+    <row r="25" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="14" t="s">
         <v>497</v>
       </c>
@@ -6744,9 +7252,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="49"/>
+    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="14" t="s">
         <v>272</v>
       </c>
@@ -6754,9 +7262,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="14" t="s">
         <v>273</v>
       </c>
@@ -6764,9 +7272,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="49"/>
+    <row r="28" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="14" t="s">
         <v>498</v>
       </c>
@@ -6774,9 +7282,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="49"/>
+    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="14" t="s">
         <v>499</v>
       </c>
@@ -6784,8 +7292,8 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="74"/>
       <c r="B30" s="68"/>
       <c r="C30" s="32" t="s">
         <v>500</v>
@@ -6794,8 +7302,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72" t="s">
         <v>518</v>
       </c>
       <c r="B31" s="67" t="s">
@@ -6808,9 +7316,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="49"/>
+    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="13" t="s">
         <v>510</v>
       </c>
@@ -6818,9 +7326,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="49"/>
+    <row r="33" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="13" t="s">
         <v>511</v>
       </c>
@@ -6828,9 +7336,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="49"/>
+    <row r="34" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13" t="s">
         <v>512</v>
       </c>
@@ -6838,9 +7346,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="49"/>
+    <row r="35" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="13" t="s">
         <v>513</v>
       </c>
@@ -6848,9 +7356,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="49"/>
+    <row r="36" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="13" t="s">
         <v>486</v>
       </c>
@@ -6858,9 +7366,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="13" t="s">
         <v>514</v>
       </c>
@@ -6868,9 +7376,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="49"/>
+    <row r="38" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="13" t="s">
         <v>488</v>
       </c>
@@ -6878,9 +7386,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="49"/>
+    <row r="39" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13" t="s">
         <v>515</v>
       </c>
@@ -6888,9 +7396,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="49"/>
+    <row r="40" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
@@ -6898,9 +7406,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
-      <c r="B41" s="49"/>
+    <row r="41" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="13" t="s">
         <v>517</v>
       </c>
@@ -6908,9 +7416,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="49"/>
+    <row r="42" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="13" t="s">
         <v>496</v>
       </c>
@@ -6918,9 +7426,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
-      <c r="B43" s="49"/>
+    <row r="43" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="13" t="s">
         <v>497</v>
       </c>
@@ -6928,9 +7436,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
-      <c r="B44" s="49"/>
+    <row r="44" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="13" t="s">
         <v>272</v>
       </c>
@@ -6938,9 +7446,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
-      <c r="B45" s="49"/>
+    <row r="45" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="2" t="s">
         <v>273</v>
       </c>
@@ -6948,8 +7456,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+    <row r="46" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="74"/>
       <c r="B46" s="68"/>
       <c r="C46" s="24" t="s">
         <v>498</v>
@@ -6958,11 +7466,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="78" t="s">
+    <row r="47" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="84" t="s">
         <v>668</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="69" t="s">
         <v>667</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -6972,9 +7480,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="54"/>
+    <row r="48" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="2" t="s">
         <v>520</v>
       </c>
@@ -6982,9 +7490,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="54"/>
+    <row r="49" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="2" t="s">
         <v>521</v>
       </c>
@@ -6992,9 +7500,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
-      <c r="B50" s="54"/>
+    <row r="50" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="2" t="s">
         <v>522</v>
       </c>
@@ -7002,9 +7510,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
-      <c r="B51" s="54"/>
+    <row r="51" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="2" t="s">
         <v>523</v>
       </c>
@@ -7012,9 +7520,9 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="54"/>
+    <row r="52" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="73"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
@@ -7022,9 +7530,9 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="54"/>
+    <row r="53" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="2" t="s">
         <v>494</v>
       </c>
@@ -7032,9 +7540,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="59"/>
-      <c r="B54" s="54"/>
+    <row r="54" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="73"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="2" t="s">
         <v>495</v>
       </c>
@@ -7042,9 +7550,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="54"/>
+    <row r="55" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="2" t="s">
         <v>492</v>
       </c>
@@ -7052,9 +7560,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="54"/>
+    <row r="56" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
@@ -7062,9 +7570,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="54"/>
+    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="2" t="s">
         <v>525</v>
       </c>
@@ -7072,9 +7580,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="54"/>
+    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="2" t="s">
         <v>526</v>
       </c>
@@ -7082,9 +7590,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="54"/>
+    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="2" t="s">
         <v>527</v>
       </c>
@@ -7092,9 +7600,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
-      <c r="B60" s="54"/>
+    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="2" t="s">
         <v>528</v>
       </c>
@@ -7102,9 +7610,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
-      <c r="B61" s="54"/>
+    <row r="61" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="2" t="s">
         <v>496</v>
       </c>
@@ -7112,9 +7620,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
-      <c r="B62" s="54"/>
+    <row r="62" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="2" t="s">
         <v>497</v>
       </c>
@@ -7122,9 +7630,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
-      <c r="B63" s="54"/>
+    <row r="63" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="73"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="2" t="s">
         <v>272</v>
       </c>
@@ -7132,9 +7640,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="71"/>
+    <row r="64" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="74"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="24" t="s">
         <v>273</v>
       </c>
@@ -7142,8 +7650,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58" t="s">
+    <row r="65" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="72" t="s">
         <v>549</v>
       </c>
       <c r="B65" s="67" t="s">
@@ -7156,9 +7664,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="59"/>
-      <c r="B66" s="49"/>
+    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="2" t="s">
         <v>520</v>
       </c>
@@ -7166,9 +7674,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="49"/>
+    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="2" t="s">
         <v>543</v>
       </c>
@@ -7176,9 +7684,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="59"/>
-      <c r="B68" s="49"/>
+    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="2" t="s">
         <v>544</v>
       </c>
@@ -7186,9 +7694,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="59"/>
-      <c r="B69" s="49"/>
+    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="2" t="s">
         <v>545</v>
       </c>
@@ -7196,9 +7704,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="59"/>
-      <c r="B70" s="49"/>
+    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="2" t="s">
         <v>546</v>
       </c>
@@ -7206,9 +7714,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="59"/>
-      <c r="B71" s="49"/>
+    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="2" t="s">
         <v>547</v>
       </c>
@@ -7216,9 +7724,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="59"/>
-      <c r="B72" s="49"/>
+    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="2" t="s">
         <v>548</v>
       </c>
@@ -7226,9 +7734,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="59"/>
-      <c r="B73" s="49"/>
+    <row r="73" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="2" t="s">
         <v>496</v>
       </c>
@@ -7236,9 +7744,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
-      <c r="B74" s="49"/>
+    <row r="74" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="2" t="s">
         <v>497</v>
       </c>
@@ -7246,9 +7754,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
-      <c r="B75" s="49"/>
+    <row r="75" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="2" t="s">
         <v>272</v>
       </c>
@@ -7256,9 +7764,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="59"/>
-      <c r="B76" s="49"/>
+    <row r="76" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="2" t="s">
         <v>273</v>
       </c>
@@ -7266,8 +7774,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
+    <row r="77" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="74"/>
       <c r="B77" s="68"/>
       <c r="C77" s="24" t="s">
         <v>498</v>
@@ -7276,8 +7784,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="58" t="s">
+    <row r="78" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="72" t="s">
         <v>568</v>
       </c>
       <c r="B78" s="67" t="s">
@@ -7290,9 +7798,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="59"/>
-      <c r="B79" s="49"/>
+    <row r="79" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="2" t="s">
         <v>559</v>
       </c>
@@ -7300,9 +7808,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="59"/>
-      <c r="B80" s="49"/>
+    <row r="80" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="2" t="s">
         <v>560</v>
       </c>
@@ -7310,9 +7818,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="59"/>
-      <c r="B81" s="49"/>
+    <row r="81" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="2" t="s">
         <v>561</v>
       </c>
@@ -7320,9 +7828,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="59"/>
-      <c r="B82" s="49"/>
+    <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="2" t="s">
         <v>562</v>
       </c>
@@ -7330,9 +7838,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
-      <c r="B83" s="49"/>
+    <row r="83" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="2" t="s">
         <v>563</v>
       </c>
@@ -7340,9 +7848,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
-      <c r="B84" s="49"/>
+    <row r="84" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="2" t="s">
         <v>564</v>
       </c>
@@ -7350,9 +7858,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
-      <c r="B85" s="49"/>
+    <row r="85" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="2" t="s">
         <v>565</v>
       </c>
@@ -7360,9 +7868,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="59"/>
-      <c r="B86" s="49"/>
+    <row r="86" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="2" t="s">
         <v>566</v>
       </c>
@@ -7370,9 +7878,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="59"/>
-      <c r="B87" s="49"/>
+    <row r="87" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="2" t="s">
         <v>496</v>
       </c>
@@ -7380,9 +7888,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="59"/>
-      <c r="B88" s="49"/>
+    <row r="88" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="2" t="s">
         <v>497</v>
       </c>
@@ -7390,9 +7898,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="59"/>
-      <c r="B89" s="49"/>
+    <row r="89" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="2" t="s">
         <v>272</v>
       </c>
@@ -7400,9 +7908,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="45"/>
+    <row r="90" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="81"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="20" t="s">
         <v>273</v>
       </c>
@@ -7410,8 +7918,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="58" t="s">
+    <row r="91" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="72" t="s">
         <v>572</v>
       </c>
       <c r="B91" s="67" t="s">
@@ -7424,9 +7932,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="59"/>
-      <c r="B92" s="49"/>
+    <row r="92" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="2" t="s">
         <v>570</v>
       </c>
@@ -7434,9 +7942,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="59"/>
-      <c r="B93" s="49"/>
+    <row r="93" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="2" t="s">
         <v>521</v>
       </c>
@@ -7444,9 +7952,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="59"/>
-      <c r="B94" s="49"/>
+    <row r="94" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="2" t="s">
         <v>487</v>
       </c>
@@ -7454,9 +7962,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="59"/>
-      <c r="B95" s="49"/>
+    <row r="95" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="73"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="2" t="s">
         <v>520</v>
       </c>
@@ -7464,9 +7972,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="59"/>
-      <c r="B96" s="49"/>
+    <row r="96" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="2" t="s">
         <v>523</v>
       </c>
@@ -7474,9 +7982,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="59"/>
-      <c r="B97" s="49"/>
+    <row r="97" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="2" t="s">
         <v>524</v>
       </c>
@@ -7484,9 +7992,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="59"/>
-      <c r="B98" s="49"/>
+    <row r="98" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="2" t="s">
         <v>492</v>
       </c>
@@ -7494,9 +8002,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59"/>
-      <c r="B99" s="49"/>
+    <row r="99" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="2" t="s">
         <v>496</v>
       </c>
@@ -7504,9 +8012,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="59"/>
-      <c r="B100" s="49"/>
+    <row r="100" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="2" t="s">
         <v>497</v>
       </c>
@@ -7514,9 +8022,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="59"/>
-      <c r="B101" s="49"/>
+    <row r="101" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="2" t="s">
         <v>272</v>
       </c>
@@ -7524,9 +8032,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="59"/>
-      <c r="B102" s="49"/>
+    <row r="102" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="2" t="s">
         <v>273</v>
       </c>
@@ -7534,9 +8042,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="76"/>
-      <c r="B103" s="54"/>
+    <row r="103" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="82"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="2" t="s">
         <v>528</v>
       </c>
@@ -7544,9 +8052,9 @@
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="76"/>
-      <c r="B104" s="54"/>
+    <row r="104" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="82"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="2" t="s">
         <v>494</v>
       </c>
@@ -7554,9 +8062,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="76"/>
-      <c r="B105" s="54"/>
+    <row r="105" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="82"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="2" t="s">
         <v>495</v>
       </c>
@@ -7564,9 +8072,9 @@
         <v>697</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="76"/>
-      <c r="B106" s="54"/>
+    <row r="106" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="82"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="2" t="s">
         <v>695</v>
       </c>
@@ -7574,9 +8082,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="71"/>
+    <row r="107" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="83"/>
+      <c r="B107" s="66"/>
       <c r="C107" s="24" t="s">
         <v>696</v>
       </c>
@@ -7584,49 +8092,53 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
     </row>
-    <row r="122" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
     </row>
-    <row r="123" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="27"/>
     </row>
-    <row r="125" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="27"/>
     </row>
-    <row r="126" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="27"/>
     </row>
-    <row r="127" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="B78:B90"/>
     <mergeCell ref="A78:A90"/>
     <mergeCell ref="B91:B107"/>
     <mergeCell ref="A91:A107"/>
@@ -7643,10 +8155,6 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="B78:B90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7663,15 +8171,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -7683,8 +8191,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>606</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7697,9 +8205,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="2" t="s">
         <v>597</v>
       </c>
@@ -7707,9 +8215,9 @@
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2" t="s">
         <v>598</v>
       </c>
@@ -7717,9 +8225,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="2" t="s">
         <v>599</v>
       </c>
@@ -7727,9 +8235,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="2" t="s">
         <v>600</v>
       </c>
@@ -7737,9 +8245,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="2" t="s">
         <v>601</v>
       </c>
@@ -7747,9 +8255,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>602</v>
       </c>
@@ -7757,9 +8265,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
         <v>603</v>
       </c>
@@ -7767,8 +8275,8 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+    <row r="10" spans="1:4" s="26" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
       <c r="B10" s="68"/>
       <c r="C10" s="24" t="s">
         <v>604</v>
@@ -7777,31 +8285,31 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
     </row>
-    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
     </row>
-    <row r="17" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
     </row>
@@ -7821,18 +8329,18 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>89</v>
@@ -7844,8 +8352,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="26" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:4" s="26" customFormat="1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7858,9 +8366,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="2" t="s">
         <v>443</v>
       </c>
@@ -7868,9 +8376,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2" t="s">
         <v>260</v>
       </c>
@@ -7878,9 +8386,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="2" t="s">
         <v>647</v>
       </c>
@@ -7888,9 +8396,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="2" t="s">
         <v>648</v>
       </c>
@@ -7898,9 +8406,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="2" t="s">
         <v>681</v>
       </c>
@@ -7908,9 +8416,9 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
         <v>649</v>
       </c>
@@ -7918,9 +8426,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
         <v>650</v>
       </c>
@@ -7928,9 +8436,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="49"/>
+    <row r="10" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="2" t="s">
         <v>651</v>
       </c>
@@ -7938,9 +8446,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="49"/>
+    <row r="11" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="2" t="s">
         <v>652</v>
       </c>
@@ -7948,9 +8456,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="49"/>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="2" t="s">
         <v>653</v>
       </c>
@@ -7958,9 +8466,9 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="49"/>
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="2" t="s">
         <v>654</v>
       </c>
@@ -7968,9 +8476,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="49"/>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="2" t="s">
         <v>655</v>
       </c>
@@ -7978,9 +8486,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="49"/>
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="2" t="s">
         <v>656</v>
       </c>
@@ -7988,9 +8496,9 @@
         <v>685</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="49"/>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="2" t="s">
         <v>657</v>
       </c>
@@ -7998,9 +8506,9 @@
         <v>686</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="49"/>
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="2" t="s">
         <v>272</v>
       </c>
@@ -8008,9 +8516,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="49"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="2" t="s">
         <v>273</v>
       </c>
@@ -8018,9 +8526,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
-      <c r="B19" s="49"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="2" t="s">
         <v>658</v>
       </c>
@@ -8028,9 +8536,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="49"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="2" t="s">
         <v>659</v>
       </c>
@@ -8038,9 +8546,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="49"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="2" t="s">
         <v>660</v>
       </c>
@@ -8048,9 +8556,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="49"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="2" t="s">
         <v>661</v>
       </c>
@@ -8058,9 +8566,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="49"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="2" t="s">
         <v>662</v>
       </c>
@@ -8068,9 +8576,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="49"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
         <v>663</v>
       </c>
@@ -8078,9 +8586,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="49"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="2" t="s">
         <v>380</v>
       </c>
@@ -8088,9 +8596,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="49"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="2" t="s">
         <v>384</v>
       </c>
@@ -8098,9 +8606,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="2" t="s">
         <v>387</v>
       </c>
@@ -8108,9 +8616,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="49"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="2" t="s">
         <v>402</v>
       </c>
@@ -8118,9 +8626,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="49"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="2" t="s">
         <v>278</v>
       </c>
@@ -8128,9 +8636,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="49"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="2" t="s">
         <v>279</v>
       </c>
@@ -8138,9 +8646,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="49"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="2" t="s">
         <v>280</v>
       </c>
@@ -8148,9 +8656,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="49"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="2" t="s">
         <v>277</v>
       </c>
@@ -8158,9 +8666,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
-      <c r="B33" s="49"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="2" t="s">
         <v>274</v>
       </c>
@@ -8168,9 +8676,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
-      <c r="B34" s="49"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="2" t="s">
         <v>275</v>
       </c>
@@ -8178,9 +8686,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
-      <c r="B35" s="49"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="2" t="s">
         <v>664</v>
       </c>
@@ -8188,9 +8696,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="49"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
@@ -8198,9 +8706,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="2" t="s">
         <v>665</v>
       </c>
@@ -8208,8 +8716,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:4" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="74"/>
       <c r="B38" s="68"/>
       <c r="C38" s="24" t="s">
         <v>666</v>
@@ -8218,7 +8726,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" ht="14.55" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B38"/>
@@ -8226,5 +8734,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>